--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA0A43-F791-453A-A918-4F23B1725450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8E929F-4904-40CB-8FB0-0FD1BB3946E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>Trial_No</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Treatment2</t>
   </si>
   <si>
-    <t>contrast</t>
-  </si>
-  <si>
     <t>ANCOVA_est_treat1_YP1</t>
   </si>
   <si>
@@ -170,6 +167,45 @@
   </si>
   <si>
     <t>Alert</t>
+  </si>
+  <si>
+    <t>Sitagliptin</t>
+  </si>
+  <si>
+    <t>Bamlanivimab/Etesevimab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sotrovimab </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivermectin </t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxytocin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">active </t>
+  </si>
+  <si>
+    <t>IV infusion</t>
+  </si>
+  <si>
+    <t>contrast1</t>
+  </si>
+  <si>
+    <t>contrast2</t>
+  </si>
+  <si>
+    <t>contrast3</t>
+  </si>
+  <si>
+    <t>contrast4</t>
   </si>
 </sst>
 </file>
@@ -522,15 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR11"/>
+  <dimension ref="A1:AU31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,306 +577,625 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="H2">
         <v>-0.70699999999999996</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>0.23699999999999999</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>-0.81200000000000006</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>0.27100000000000002</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>-0.13900000000000001</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.248</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>0.26200000000000001</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>-0.20499999999999999</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
         <v>-0.17</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>0.878</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>1.06</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>-0.55400000000000005</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>1.147</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>-4.8209999999999997</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>9.09</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>11.044</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>-5.51</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>10.462</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>113.33</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>70.001999999999995</v>
       </c>
-      <c r="AA5">
+      <c r="AD5">
         <v>84.373000000000005</v>
       </c>
-      <c r="AB5">
+      <c r="AE5">
         <v>122.92100000000001</v>
       </c>
-      <c r="AC5">
+      <c r="AF5">
         <v>96.28</v>
       </c>
-      <c r="AI5">
+      <c r="AL5">
         <v>0.14299999999999999</v>
       </c>
-      <c r="AJ5">
+      <c r="AM5">
         <v>0.91600000000000004</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AL5">
+      <c r="AO5">
         <v>-0.11</v>
       </c>
-      <c r="AM5">
+      <c r="AP5">
         <v>1.135</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6">
+        <v>35</v>
+      </c>
+      <c r="H6">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>-2.1999999999999999E-2</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>-1E-3</v>
+      </c>
+      <c r="I7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K7">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="L7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>0.02</v>
+      </c>
+      <c r="I8">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="L8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>-1E-3</v>
+      </c>
+      <c r="N8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K9">
+        <v>6.3E-2</v>
+      </c>
+      <c r="L9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10">
+        <v>0.996</v>
+      </c>
+      <c r="I10">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.995</v>
+      </c>
+      <c r="L10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>-0.105</v>
+      </c>
+      <c r="I11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J11">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K11">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="L11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I12">
+        <v>0.187</v>
+      </c>
+      <c r="J12">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="K12">
+        <v>-0.214</v>
+      </c>
+      <c r="L12">
+        <v>0.253</v>
+      </c>
+      <c r="R12">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="S12">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="T12">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="U12">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="V12">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>-42.363999999999997</v>
+      </c>
+      <c r="I14">
+        <v>29.870999999999999</v>
+      </c>
+      <c r="J14">
+        <v>30.12</v>
+      </c>
+      <c r="K14">
+        <v>-42.83</v>
+      </c>
+      <c r="L14">
+        <v>30.533999999999999</v>
+      </c>
+      <c r="R14">
+        <v>-0.03</v>
+      </c>
+      <c r="S14">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="T14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="U14">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="V14">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D0525-32C6-448E-B4BB-9DE99B17C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8764F632-B427-4F51-B87E-F63BD6B8D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-101" yWindow="-101" windowWidth="29002" windowHeight="15682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="145">
   <si>
     <t>Trial_No</t>
   </si>
@@ -446,13 +459,22 @@
   </si>
   <si>
     <t>YP_Adherence</t>
+  </si>
+  <si>
+    <t>How much precision gain can ANCOVA provide?</t>
+  </si>
+  <si>
+    <t>The difference between unadjusted and ANCOVA point esimates</t>
+  </si>
+  <si>
+    <t>The difference between robust and model-based variance estimators</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,7 +500,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -516,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,7 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -536,14 +558,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,6 +889,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -910,28 +932,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="9"/>
-    <col min="2" max="2" width="17.8984375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="9"/>
-    <col min="5" max="5" width="32.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="7"/>
+    <col min="2" max="2" width="17.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="7"/>
+    <col min="5" max="5" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="29.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,8 +987,17 @@
       <c r="K1" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="29.25">
+      <c r="L1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1000,8 +1031,20 @@
       <c r="K2" s="6">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="29.25">
+      <c r="L2" s="8">
+        <f>(H2/K2)^2</f>
+        <v>0.76481801718386178</v>
+      </c>
+      <c r="M2" s="8">
+        <f>G2-J2</f>
+        <v>0.10500000000000009</v>
+      </c>
+      <c r="N2" s="8">
+        <f>(H2/I2)^2</f>
+        <v>0.85707092285156228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1020,23 +1063,35 @@
       <c r="F3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>-0.13900000000000001</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>0.248</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>0.26200000000000001</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>-0.20499999999999999</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="29.25">
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L66" si="0">(H3/K3)^2</f>
+        <v>0.84367626886145386</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:M66" si="1">G3-J3</f>
+        <v>6.5999999999999975E-2</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:N66" si="2">(H3/I3)^2</f>
+        <v>0.89598508245440223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1056,13 +1111,13 @@
         <v>41</v>
       </c>
       <c r="G4" s="6">
-        <v>-1.7410000000000001</v>
+        <v>-1.772</v>
       </c>
       <c r="H4" s="6">
-        <v>0.54700000000000004</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I4" s="6">
-        <v>0.56299999999999994</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="J4" s="6">
         <v>-2.0129999999999999</v>
@@ -1070,8 +1125,20 @@
       <c r="K4" s="6">
         <v>0.59899999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82782656681558886</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.24099999999999988</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.94041678803459927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1091,7 +1158,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="6">
-        <v>0.03</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H5" s="6">
         <v>0.105</v>
@@ -1105,8 +1172,20 @@
       <c r="K5" s="6">
         <v>0.111</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.89481373265157049</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1140,8 +1219,20 @@
       <c r="K6" s="6">
         <v>1.147</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.58595220920501456</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.68608401566393717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1160,23 +1251,35 @@
       <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>-4.8209999999999997</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>9.09</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>11.044</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>-5.51</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>10.462</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.75491548717279278</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68900000000000006</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.67744644877078553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1189,29 +1292,41 @@
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>113.33</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>70.001999999999995</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>84.373000000000005</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>122.92100000000001</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>96.28</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.52862625997881474</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.5910000000000082</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.68835728635866289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1230,23 +1345,35 @@
       <c r="F9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>1.1100000000000001</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>-0.11</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>1.135</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65132721380193681</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.253</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.68099667234802375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -1280,8 +1407,20 @@
       <c r="K10" s="6">
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84027777777777768</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999998E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -1315,8 +1454,20 @@
       <c r="K11" s="6">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="29.25">
+      <c r="L11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8520710059171599</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8520710059171599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -1350,8 +1501,20 @@
       <c r="K12" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="29.25">
+      <c r="L12" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3966942148760333</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3966942148760333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1370,23 +1533,35 @@
       <c r="F13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>-1E-3</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>0</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="8">
+        <f t="shared" si="0"/>
+        <v>7.4380165289256214E-2</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>-1E-3</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="2"/>
+        <v>7.4380165289256214E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1420,8 +1595,20 @@
       <c r="K14" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.97241512345679004</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.94595608932257458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1455,8 +1642,20 @@
       <c r="K15" s="6">
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90481856038072572</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.95062499999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1490,8 +1689,20 @@
       <c r="K16" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.93550120935232461</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.0999999999999996E-2</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.90556711758584796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1525,8 +1736,20 @@
       <c r="K17" s="6">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="29.25">
+      <c r="L17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54631379962192805</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.218</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22412433904822943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>11</v>
       </c>
@@ -1545,23 +1768,35 @@
       <c r="F18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>-2.7E-2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.23100000000000001</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>0.42599999999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>0.61499999999999999</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <v>0.371</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="29.25">
+      <c r="L18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38768244927020301</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.29403888117437021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>12</v>
       </c>
@@ -1574,7 +1809,7 @@
       <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -1595,8 +1830,20 @@
       <c r="K19" s="6">
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="29.25">
+      <c r="L19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60999520485907599</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25235292821089295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -1609,7 +1856,7 @@
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -1630,8 +1877,20 @@
       <c r="K20" s="6">
         <v>1.1919999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="29.25">
+      <c r="L20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28647639745957398</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25316452547044949</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>12</v>
       </c>
@@ -1644,7 +1903,7 @@
       <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -1665,8 +1924,20 @@
       <c r="K21" s="6">
         <v>1.4450000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="29.25">
+      <c r="L21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35668586343554309</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="1"/>
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.35179981341741356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -1679,7 +1950,7 @@
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -1700,8 +1971,20 @@
       <c r="K22" s="6">
         <v>2.2589999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="29.25">
+      <c r="L22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.41599359289025595</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8519999999999999</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22377814555574296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>12</v>
       </c>
@@ -1714,7 +1997,7 @@
       <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1735,8 +2018,20 @@
       <c r="K23" s="6">
         <v>0.748</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="29.25">
+      <c r="L23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20057944179130088</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.74500000000000011</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19277048417212184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>12</v>
       </c>
@@ -1749,7 +2044,7 @@
       <c r="D24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -1770,8 +2065,20 @@
       <c r="K24" s="6">
         <v>1.518</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.36730945821854916</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.16099999999999959</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19229353662891988</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>13</v>
       </c>
@@ -1805,8 +2112,20 @@
       <c r="K25" s="6">
         <v>30.533999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.95704447665895653</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46600000000000108</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="2"/>
+        <v>0.98353447762733903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>13</v>
       </c>
@@ -1825,23 +2144,35 @@
       <c r="F26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="6">
         <v>-0.03</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="29.25">
+      <c r="L26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94806094182825495</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="2"/>
+        <v>0.94806094182825495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>14</v>
       </c>
@@ -1875,8 +2206,20 @@
       <c r="K27" s="6">
         <v>15.766999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="29.25">
+      <c r="L27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28207706610563205</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.0410000000000039</v>
+      </c>
+      <c r="N27" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57068245152834463</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>14</v>
       </c>
@@ -1895,23 +2238,35 @@
       <c r="F28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <v>75.879000000000005</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>9.2789999999999999</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>12.244999999999999</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <v>69.430999999999997</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <v>16.475000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="29.25">
+      <c r="L28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31721338396107585</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="1"/>
+        <v>6.4480000000000075</v>
+      </c>
+      <c r="N28" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57422853570952792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>15</v>
       </c>
@@ -1945,8 +2300,20 @@
       <c r="K29" s="6">
         <v>5.2229999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29503845144502727</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="1"/>
+        <v>9.2809999999999988</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="2"/>
+        <v>3.7727330706869261E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>16</v>
       </c>
@@ -1980,8 +2347,20 @@
       <c r="K30" s="6">
         <v>1.897</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80971536502020658</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2510000000000003</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57814177509040132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>17</v>
       </c>
@@ -2001,10 +2380,10 @@
         <v>36</v>
       </c>
       <c r="G31" s="6">
-        <v>-0.97699999999999998</v>
+        <v>-0.97599999999999998</v>
       </c>
       <c r="H31" s="6">
-        <v>0.13200000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I31" s="6">
         <v>0.14399999999999999</v>
@@ -2015,8 +2394,20 @@
       <c r="K31" s="6">
         <v>0.17699999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54776724440614133</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="1"/>
+        <v>0.15399999999999991</v>
+      </c>
+      <c r="N31" s="8">
+        <f t="shared" si="2"/>
+        <v>0.8275945216049384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>17</v>
       </c>
@@ -2035,23 +2426,35 @@
       <c r="F32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="7">
-        <v>-8.8999999999999996E-2</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="G32" s="6">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I32" s="6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>-0.36099999999999999</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60592071280991755</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="1"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="N32" s="8">
+        <f t="shared" si="2"/>
+        <v>0.91784439336886925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>17</v>
       </c>
@@ -2070,23 +2473,35 @@
       <c r="F33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="7">
-        <v>-0.61699999999999999</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="G33" s="6">
+        <v>-0.63300000000000001</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="I33" s="6">
         <v>0.14299999999999999</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>-0.64500000000000002</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.69603265306122453</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+      <c r="N33" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0423981612792803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>18</v>
       </c>
@@ -2120,8 +2535,20 @@
       <c r="K34" s="6">
         <v>10.438000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.83533785807241556</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.31500000000000128</v>
+      </c>
+      <c r="N34" s="8">
+        <f t="shared" si="2"/>
+        <v>0.88603166575356995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>18</v>
       </c>
@@ -2140,23 +2567,35 @@
       <c r="F35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>-4.5999999999999999E-2</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8359183673469387</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="1"/>
+        <v>-4.9999999999999975E-3</v>
+      </c>
+      <c r="N35" s="8">
+        <f t="shared" si="2"/>
+        <v>0.88581314878892736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>19</v>
       </c>
@@ -2190,8 +2629,20 @@
       <c r="K36" s="6">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34694973230220105</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="N36" s="8">
+        <f t="shared" si="2"/>
+        <v>6.0356942902175234E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>20</v>
       </c>
@@ -2225,8 +2676,20 @@
       <c r="K37" s="6">
         <v>184.881</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.49270936719299224</v>
+      </c>
+      <c r="M37" s="8">
+        <f t="shared" si="1"/>
+        <v>138.28299999999996</v>
+      </c>
+      <c r="N37" s="8">
+        <f t="shared" si="2"/>
+        <v>0.38528636021104362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>21</v>
       </c>
@@ -2260,8 +2723,20 @@
       <c r="K38" s="6">
         <v>1.141</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.98254832814980786</v>
+      </c>
+      <c r="M38" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.8000000000000069E-2</v>
+      </c>
+      <c r="N38" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>21</v>
       </c>
@@ -2295,8 +2770,20 @@
       <c r="K39" s="6">
         <v>1.1379999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0123401212622893</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" si="1"/>
+        <v>1.081</v>
+      </c>
+      <c r="N39" s="8">
+        <f t="shared" si="2"/>
+        <v>0.70054942118942565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>22</v>
       </c>
@@ -2330,8 +2817,20 @@
       <c r="K40" s="6">
         <v>118.79</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.431416407214818</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="1"/>
+        <v>244.94299999999998</v>
+      </c>
+      <c r="N40" s="8">
+        <f t="shared" si="2"/>
+        <v>0.67135845038498521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>23</v>
       </c>
@@ -2365,8 +2864,20 @@
       <c r="K41" s="6">
         <v>1.6419999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.86143721227640468</v>
+      </c>
+      <c r="M41" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.54800000000000004</v>
+      </c>
+      <c r="N41" s="8">
+        <f t="shared" si="2"/>
+        <v>0.88718236281878304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>23</v>
       </c>
@@ -2385,23 +2896,35 @@
       <c r="F42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="6">
         <v>3.6669999999999998</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>6.202</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>6.5640000000000001</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>4.5469999999999997</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <v>6.7329999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.84848915330189256</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.87999999999999989</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.89274284678751126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>24</v>
       </c>
@@ -2435,8 +2958,20 @@
       <c r="K43" s="6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="29.25">
+      <c r="L43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="M43" s="8">
+        <f t="shared" si="1"/>
+        <v>-8.500000000000002E-2</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="2"/>
+        <v>0.51020408163265307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>25</v>
       </c>
@@ -2470,8 +3005,20 @@
       <c r="K44" s="6">
         <v>0.26700000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="29.25">
+      <c r="L44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32408927043442881</v>
+      </c>
+      <c r="M44" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.33199999999999996</v>
+      </c>
+      <c r="N44" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2228309093013387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>25</v>
       </c>
@@ -2505,8 +3052,20 @@
       <c r="K45" s="6">
         <v>0.29699999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" s="3" customFormat="1" ht="29.25">
+      <c r="L45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14992801188087385</v>
+      </c>
+      <c r="M45" s="8">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="N45" s="8">
+        <f t="shared" si="2"/>
+        <v>0.14404905837118367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>25</v>
       </c>
@@ -2540,8 +3099,20 @@
       <c r="K46" s="6">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" s="3" customFormat="1" ht="29.25">
+      <c r="L46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20526447313619325</v>
+      </c>
+      <c r="M46" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.188</v>
+      </c>
+      <c r="N46" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21570000525200894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>25</v>
       </c>
@@ -2575,8 +3146,20 @@
       <c r="K47" s="6">
         <v>0.20100000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="29.25">
+      <c r="L47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30496769881933605</v>
+      </c>
+      <c r="M47" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="N47" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20032843392299687</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>25</v>
       </c>
@@ -2610,8 +3193,20 @@
       <c r="K48" s="6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" ht="29.25">
+      <c r="L48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.47609999999999991</v>
+      </c>
+      <c r="M48" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.60099999999999998</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" si="2"/>
+        <v>0.27462906585483088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>25</v>
       </c>
@@ -2645,8 +3240,20 @@
       <c r="K49" s="6">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" ht="29.25">
+      <c r="L49" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4220860886851393</v>
+      </c>
+      <c r="M49" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="N49" s="8">
+        <f t="shared" si="2"/>
+        <v>0.26272063836771786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>25</v>
       </c>
@@ -2680,8 +3287,20 @@
       <c r="K50" s="6">
         <v>0.17799999999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="29.25">
+      <c r="L50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M50" s="8">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="N50" s="8">
+        <f t="shared" si="2"/>
+        <v>0.18308524408284022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>25</v>
       </c>
@@ -2715,8 +3334,20 @@
       <c r="K51" s="6">
         <v>0.253</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="29.25">
+      <c r="L51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.37051039697542537</v>
+      </c>
+      <c r="M51" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.6999999999999977E-2</v>
+      </c>
+      <c r="N51" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2039542143600416</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>25</v>
       </c>
@@ -2750,8 +3381,20 @@
       <c r="K52" s="6">
         <v>0.32300000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="29.25">
+      <c r="L52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21566390936364768</v>
+      </c>
+      <c r="M52" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.496</v>
+      </c>
+      <c r="N52" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2516750371919777</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>25</v>
       </c>
@@ -2785,8 +3428,20 @@
       <c r="K53" s="6">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="29.25">
+      <c r="L53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30997808619430239</v>
+      </c>
+      <c r="M53" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.6319999999999999</v>
+      </c>
+      <c r="N53" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2625925100863839</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>25</v>
       </c>
@@ -2820,8 +3475,20 @@
       <c r="K54" s="6">
         <v>17.364000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38271082085859365</v>
+      </c>
+      <c r="M54" s="8">
+        <f t="shared" si="1"/>
+        <v>-8.203000000000003</v>
+      </c>
+      <c r="N54" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22974592914313782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>26</v>
       </c>
@@ -2855,8 +3522,20 @@
       <c r="K55" s="6">
         <v>3.7759999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="8">
+        <f t="shared" si="0"/>
+        <v>6.6946080620690893E-2</v>
+      </c>
+      <c r="M55" s="8">
+        <f t="shared" si="1"/>
+        <v>3.1609999999999996</v>
+      </c>
+      <c r="N55" s="8">
+        <f t="shared" si="2"/>
+        <v>0.93387084308022261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>26</v>
       </c>
@@ -2875,23 +3554,35 @@
       <c r="F56" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="6">
         <v>-0.64100000000000001</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <v>4.7E-2</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <v>-0.66300000000000003</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="6">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="8">
+        <f t="shared" si="0"/>
+        <v>0.95876736111111105</v>
+      </c>
+      <c r="M56" s="8">
+        <f t="shared" si="1"/>
+        <v>2.200000000000002E-2</v>
+      </c>
+      <c r="N56" s="8">
+        <f t="shared" si="2"/>
+        <v>0.81693786982248517</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>26</v>
       </c>
@@ -2910,27 +3601,39 @@
       <c r="F57" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="6">
         <v>-0.189</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <v>0.05</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>5.5E-2</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <v>-0.17399999999999999</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="8">
+        <f t="shared" si="0"/>
+        <v>0.96116878123798555</v>
+      </c>
+      <c r="M57" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="N57" s="8">
+        <f t="shared" si="2"/>
+        <v>0.82644628099173567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>27</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -2960,12 +3663,24 @@
       <c r="K58" s="6">
         <v>0.33800000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="8">
+        <f t="shared" si="0"/>
+        <v>0.98232729946430442</v>
+      </c>
+      <c r="M58" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="N58" s="8">
+        <f t="shared" si="2"/>
+        <v>0.83321577857137563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>27</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -2995,12 +3710,24 @@
       <c r="K59" s="6">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90809688581314874</v>
+      </c>
+      <c r="M59" s="8">
+        <f t="shared" si="1"/>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="N59" s="8">
+        <f t="shared" si="2"/>
+        <v>0.82830450700669123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>27</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -3030,8 +3757,20 @@
       <c r="K60" s="6">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="8">
+        <f t="shared" si="0"/>
+        <v>0.90615754437869833</v>
+      </c>
+      <c r="M60" s="8">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000007E-2</v>
+      </c>
+      <c r="N60" s="8">
+        <f t="shared" si="2"/>
+        <v>0.82493056140055554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>28</v>
       </c>
@@ -3065,8 +3804,20 @@
       <c r="K61" s="6">
         <v>0.183</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="8">
+        <f t="shared" si="0"/>
+        <v>0.2208486368658365</v>
+      </c>
+      <c r="M61" s="8">
+        <f t="shared" si="1"/>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="N61" s="8">
+        <f t="shared" si="2"/>
+        <v>0.81950138504155112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>29</v>
       </c>
@@ -3100,8 +3851,20 @@
       <c r="K62" s="6">
         <v>0.13800000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="8">
+        <f t="shared" si="0"/>
+        <v>0.54631379962192794</v>
+      </c>
+      <c r="M62" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.33699999999999997</v>
+      </c>
+      <c r="N62" s="8">
+        <f t="shared" si="2"/>
+        <v>0.35580178516466598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>29</v>
       </c>
@@ -3114,29 +3877,41 @@
       <c r="D63" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="6">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="6">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="6">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="K63" s="8">
+      <c r="K63" s="6">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="8">
+        <f t="shared" si="0"/>
+        <v>0.36679230311446137</v>
+      </c>
+      <c r="M63" s="8">
+        <f t="shared" si="1"/>
+        <v>3.599999999999999E-2</v>
+      </c>
+      <c r="N63" s="8">
+        <f t="shared" si="2"/>
+        <v>0.21845463137996216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>29</v>
       </c>
@@ -3149,29 +3924,41 @@
       <c r="D64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>129</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="6">
         <v>-3.9E-2</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="6">
         <v>0.09</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="6">
         <v>0.19800000000000001</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K64" s="8">
+      <c r="K64" s="6">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26149276859504134</v>
+      </c>
+      <c r="M64" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.05</v>
+      </c>
+      <c r="N64" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20661157024793386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>29</v>
       </c>
@@ -3184,29 +3971,41 @@
       <c r="D65" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>130</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="6">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="6">
         <v>0.13200000000000001</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="6">
         <v>-1.2E-2</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K65" s="6">
         <v>9.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="8">
+        <f t="shared" si="0"/>
+        <v>0.43977839335180047</v>
+      </c>
+      <c r="M65" s="8">
+        <f t="shared" si="1"/>
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="N65" s="8">
+        <f t="shared" si="2"/>
+        <v>0.22778925619834708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>29</v>
       </c>
@@ -3219,29 +4018,41 @@
       <c r="D66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>131</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="6">
         <v>-0.22900000000000001</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="6">
         <v>0.123</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="6">
         <v>0.24</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="6">
         <v>1.9E-2</v>
       </c>
-      <c r="K66" s="8">
+      <c r="K66" s="6">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="8">
+        <f t="shared" si="0"/>
+        <v>0.61377743519006844</v>
+      </c>
+      <c r="M66" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.248</v>
+      </c>
+      <c r="N66" s="8">
+        <f t="shared" si="2"/>
+        <v>0.26265625000000009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>29</v>
       </c>
@@ -3254,29 +4065,41 @@
       <c r="D67" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>132</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="6">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="6">
         <v>0.11600000000000001</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="6">
         <v>0.246</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="6">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K67" s="6">
         <v>0.158</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="8">
+        <f t="shared" ref="L67:L73" si="3">(H67/K67)^2</f>
+        <v>0.53901618330395773</v>
+      </c>
+      <c r="M67" s="8">
+        <f t="shared" ref="M67:M73" si="4">G67-J67</f>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="N67" s="8">
+        <f t="shared" ref="N67:N73" si="5">(H67/I67)^2</f>
+        <v>0.22235441866613789</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>29</v>
       </c>
@@ -3289,29 +4112,41 @@
       <c r="D68" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="6" t="s">
         <v>133</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="6">
         <v>-0.26</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="6">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="6">
         <v>0.10299999999999999</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="6">
         <v>-0.22600000000000001</v>
       </c>
-      <c r="K68" s="8">
+      <c r="K68" s="6">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15858720338319363</v>
+      </c>
+      <c r="M68" s="8">
+        <f t="shared" si="4"/>
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="N68" s="8">
+        <f t="shared" si="5"/>
+        <v>0.19087567159958529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>29</v>
       </c>
@@ -3324,29 +4159,41 @@
       <c r="D69" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="6">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="6">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="6">
         <v>-0.26</v>
       </c>
-      <c r="K69" s="8">
+      <c r="K69" s="6">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="8">
+        <f t="shared" si="3"/>
+        <v>0.12417233560090701</v>
+      </c>
+      <c r="M69" s="8">
+        <f t="shared" si="4"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N69" s="8">
+        <f t="shared" si="5"/>
+        <v>0.22501643655489809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>29</v>
       </c>
@@ -3359,29 +4206,41 @@
       <c r="D70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="6">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="6">
         <v>0.01</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K70" s="8">
+      <c r="K70" s="6">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="8">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="M70" s="8">
+        <f t="shared" si="4"/>
+        <v>-1.9999999999999997E-2</v>
+      </c>
+      <c r="N70" s="8">
+        <f t="shared" si="5"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>29</v>
       </c>
@@ -3394,96 +4253,132 @@
       <c r="D71" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="6">
         <v>-2.1480000000000001</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="6">
         <v>2.887</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="6">
         <v>5.9960000000000004</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="6">
         <v>1.0229999999999999</v>
       </c>
-      <c r="K71" s="8">
+      <c r="K71" s="6">
         <v>3.863</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="8">
+      <c r="L71" s="8">
+        <f t="shared" si="3"/>
+        <v>0.55852697311068744</v>
+      </c>
+      <c r="M71" s="8">
+        <f t="shared" si="4"/>
+        <v>-3.1710000000000003</v>
+      </c>
+      <c r="N71" s="8">
+        <f t="shared" si="5"/>
+        <v>0.23183036522903194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
         <v>30</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="6">
         <v>0.123</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="6">
         <v>0.20399999999999999</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="6">
         <v>0.27500000000000002</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="K72" s="8">
+      <c r="K72" s="6">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="8">
+      <c r="L72" s="8">
+        <f t="shared" si="3"/>
+        <v>0.85983471074380158</v>
+      </c>
+      <c r="M72" s="8">
+        <f t="shared" si="4"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N72" s="8">
+        <f t="shared" si="5"/>
+        <v>0.55029421487603292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
         <v>30</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="6">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="6">
         <v>0.187</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="6">
         <v>0.307</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="6">
         <v>0.316</v>
       </c>
-      <c r="K73" s="8">
+      <c r="K73" s="6">
         <v>0.22</v>
+      </c>
+      <c r="L73" s="8">
+        <f t="shared" si="3"/>
+        <v>0.72249999999999992</v>
+      </c>
+      <c r="M73" s="8">
+        <f t="shared" si="4"/>
+        <v>0.15899999999999997</v>
+      </c>
+      <c r="N73" s="8">
+        <f t="shared" si="5"/>
+        <v>0.37102780931362672</v>
       </c>
     </row>
   </sheetData>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8764F632-B427-4F51-B87E-F63BD6B8D9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3417CD-39DA-44ED-926B-862C728D8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>IV infusion</t>
   </si>
   <si>
-    <t>contrast1</t>
-  </si>
-  <si>
     <t>TERECO</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>The difference between robust and model-based variance estimators</t>
+  </si>
+  <si>
+    <t>contrast</t>
   </si>
 </sst>
 </file>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,9 +943,9 @@
     <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="17.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="7"/>
+    <col min="4" max="4" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -958,43 +958,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1005,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="6">
         <v>-0.70699999999999996</v>
@@ -1052,16 +1052,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6">
         <v>-0.13900000000000001</v>
@@ -1099,16 +1099,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6">
         <v>-1.772</v>
@@ -1143,19 +1143,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G5" s="6">
         <v>2.7E-2</v>
@@ -1193,16 +1193,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="6">
         <v>-0.17</v>
@@ -1240,16 +1240,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="6">
         <v>-4.8209999999999997</v>
@@ -1287,16 +1287,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="6">
         <v>113.33</v>
@@ -1334,16 +1334,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="6">
         <v>0.14299999999999999</v>
@@ -1381,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="6">
         <v>-5.0000000000000001E-3</v>
@@ -1428,16 +1428,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6">
         <v>-1E-3</v>
@@ -1475,16 +1475,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="6">
         <v>0.02</v>
@@ -1522,16 +1522,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="6">
         <v>-1E-3</v>
@@ -1569,16 +1569,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="6">
         <v>6.8000000000000005E-2</v>
@@ -1616,16 +1616,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6">
         <v>-6.0000000000000001E-3</v>
@@ -1663,16 +1663,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="6">
         <v>-0.105</v>
@@ -1710,16 +1710,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="6">
         <v>4.0000000000000001E-3</v>
@@ -1757,16 +1757,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="6">
         <v>-2.7E-2</v>
@@ -1801,19 +1801,19 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="6">
         <v>0.188</v>
@@ -1848,19 +1848,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="6">
         <v>1.859</v>
@@ -1895,19 +1895,19 @@
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="6">
         <v>2.149</v>
@@ -1942,19 +1942,19 @@
         <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="6">
         <v>0.85199999999999998</v>
@@ -1989,19 +1989,19 @@
         <v>12</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="6">
         <v>0.82099999999999995</v>
@@ -2036,19 +2036,19 @@
         <v>12</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="6">
         <v>4.2720000000000002</v>
@@ -2086,16 +2086,16 @@
         <v>14</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G25" s="6">
         <v>-42.363999999999997</v>
@@ -2133,16 +2133,16 @@
         <v>14</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6">
         <v>-0.03</v>
@@ -2177,19 +2177,19 @@
         <v>14</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="6">
         <v>63.017000000000003</v>
@@ -2224,19 +2224,19 @@
         <v>14</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="6">
         <v>75.879000000000005</v>
@@ -2271,19 +2271,19 @@
         <v>15</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>79</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="6">
         <v>-2.5049999999999999</v>
@@ -2318,19 +2318,19 @@
         <v>16</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>81</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="6">
         <v>-3.5819999999999999</v>
@@ -2365,19 +2365,19 @@
         <v>17</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="6">
         <v>-0.97599999999999998</v>
@@ -2412,19 +2412,19 @@
         <v>17</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="6">
         <v>-8.5999999999999993E-2</v>
@@ -2459,19 +2459,19 @@
         <v>17</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" s="6">
         <v>-0.63300000000000001</v>
@@ -2506,19 +2506,19 @@
         <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="6">
         <v>-16.663</v>
@@ -2553,19 +2553,19 @@
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="6">
         <v>-5.0999999999999997E-2</v>
@@ -2600,19 +2600,19 @@
         <v>19</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" s="6">
         <v>6.8000000000000005E-2</v>
@@ -2647,19 +2647,19 @@
         <v>20</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" s="6">
         <v>483.60199999999998</v>
@@ -2694,19 +2694,19 @@
         <v>21</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38" s="6">
         <v>1.1499999999999999</v>
@@ -2741,19 +2741,19 @@
         <v>21</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" s="6">
         <v>0.92500000000000004</v>
@@ -2788,19 +2788,19 @@
         <v>22</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" s="6">
         <v>247.01499999999999</v>
@@ -2835,19 +2835,19 @@
         <v>23</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41" s="6">
         <v>-1.0999999999999999E-2</v>
@@ -2882,19 +2882,19 @@
         <v>23</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G42" s="6">
         <v>3.6669999999999998</v>
@@ -2929,19 +2929,19 @@
         <v>24</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G43" s="6">
         <v>-0.32500000000000001</v>
@@ -2976,19 +2976,19 @@
         <v>25</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" s="6">
         <v>9.8000000000000004E-2</v>
@@ -3023,19 +3023,19 @@
         <v>25</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" s="6">
         <v>0.33</v>
@@ -3070,19 +3070,19 @@
         <v>25</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" s="6">
         <v>1E-3</v>
@@ -3117,19 +3117,19 @@
         <v>25</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" s="6">
         <v>2.4E-2</v>
@@ -3164,19 +3164,19 @@
         <v>25</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G48" s="6">
         <v>-0.14599999999999999</v>
@@ -3211,19 +3211,19 @@
         <v>25</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" s="6">
         <v>-0.72799999999999998</v>
@@ -3258,19 +3258,19 @@
         <v>25</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" s="6">
         <v>-7.3999999999999996E-2</v>
@@ -3305,19 +3305,19 @@
         <v>25</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" s="6">
         <v>0.33</v>
@@ -3352,19 +3352,19 @@
         <v>25</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" s="6">
         <v>-0.35299999999999998</v>
@@ -3399,19 +3399,19 @@
         <v>25</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" s="6">
         <v>-1.877</v>
@@ -3446,19 +3446,19 @@
         <v>25</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" s="6">
         <v>-45.518000000000001</v>
@@ -3493,19 +3493,19 @@
         <v>26</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" s="6">
         <v>-8.641</v>
@@ -3540,19 +3540,19 @@
         <v>26</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" s="6">
         <v>-0.64100000000000001</v>
@@ -3587,19 +3587,19 @@
         <v>26</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" s="6">
         <v>-0.189</v>
@@ -3634,19 +3634,19 @@
         <v>27</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D58" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G58" s="6">
         <v>-0.25700000000000001</v>
@@ -3681,19 +3681,19 @@
         <v>27</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D59" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59" s="6">
         <v>7.9000000000000001E-2</v>
@@ -3728,19 +3728,19 @@
         <v>27</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="D60" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="G60" s="6">
         <v>5.7000000000000002E-2</v>
@@ -3775,28 +3775,28 @@
         <v>28</v>
       </c>
       <c r="B61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="F61" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" s="6">
-        <v>0.22800000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="H61" s="6">
-        <v>8.5999999999999993E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I61" s="6">
-        <v>9.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="J61" s="6">
         <v>0.183</v>
@@ -3806,15 +3806,15 @@
       </c>
       <c r="L61" s="8">
         <f t="shared" si="0"/>
-        <v>0.2208486368658365</v>
+        <v>0.21069604944907289</v>
       </c>
       <c r="M61" s="8">
         <f t="shared" si="1"/>
-        <v>4.5000000000000012E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" si="2"/>
-        <v>0.81950138504155112</v>
+        <v>0.70559999999999989</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3822,19 +3822,19 @@
         <v>29</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="F62" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" s="6">
         <v>-0.158</v>
@@ -3869,19 +3869,19 @@
         <v>29</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G63" s="6">
         <v>-3.5000000000000003E-2</v>
@@ -3916,19 +3916,19 @@
         <v>29</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" s="6">
         <v>-3.9E-2</v>
@@ -3963,19 +3963,19 @@
         <v>29</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" s="6">
         <v>-8.6999999999999994E-2</v>
@@ -4010,19 +4010,19 @@
         <v>29</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" s="6">
         <v>-0.22900000000000001</v>
@@ -4057,19 +4057,19 @@
         <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" s="6">
         <v>0.17499999999999999</v>
@@ -4104,19 +4104,19 @@
         <v>29</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" s="6">
         <v>-0.26</v>
@@ -4151,19 +4151,19 @@
         <v>29</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" s="6">
         <v>-0.16900000000000001</v>
@@ -4198,19 +4198,19 @@
         <v>29</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" s="6">
         <v>-1.7999999999999999E-2</v>
@@ -4245,19 +4245,19 @@
         <v>29</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" s="6">
         <v>-2.1480000000000001</v>
@@ -4292,19 +4292,19 @@
         <v>30</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G72" s="6">
         <v>0.123</v>
@@ -4339,19 +4339,19 @@
         <v>30</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="F73" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73" s="6">
         <v>0.47499999999999998</v>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3417CD-39DA-44ED-926B-862C728D8012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C4BB9-C482-4BEE-8C4E-393272F25C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="141">
   <si>
     <t>Trial_No</t>
   </si>
   <si>
-    <t>Metformin + Sham Acupuncture</t>
-  </si>
-  <si>
-    <t>True Acupuncture + Placebo</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
     <t>Unadjust_se</t>
   </si>
   <si>
-    <t>outcome   type</t>
-  </si>
-  <si>
     <t>Control</t>
   </si>
   <si>
@@ -143,15 +134,9 @@
     <t>continuous</t>
   </si>
   <si>
-    <t>outcome</t>
-  </si>
-  <si>
     <t>Placebo</t>
   </si>
   <si>
-    <t>Sham acupuncture + placebo</t>
-  </si>
-  <si>
     <t>Usual Care</t>
   </si>
   <si>
@@ -200,9 +185,6 @@
     <t>YP_ab_composite_24m</t>
   </si>
   <si>
-    <t>YP_delta_HOMA_IR_4m</t>
-  </si>
-  <si>
     <t>YP_recovery_time</t>
   </si>
   <si>
@@ -461,13 +443,19 @@
     <t>How much precision gain can ANCOVA provide?</t>
   </si>
   <si>
-    <t>The difference between unadjusted and ANCOVA point esimates</t>
-  </si>
-  <si>
-    <t>The difference between robust and model-based variance estimators</t>
-  </si>
-  <si>
-    <t>contrast</t>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>The difference between unadjusted and ANCOVA point estimates</t>
+  </si>
+  <si>
+    <t>The ratio between robust and model-based variance estimators</t>
+  </si>
+  <si>
+    <t>Outcome Type</t>
   </si>
 </sst>
 </file>
@@ -932,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,8 +931,8 @@
     <col min="1" max="1" width="8.85546875" style="7"/>
     <col min="2" max="2" width="17.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -958,231 +946,231 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70699999999999996</v>
+        <v>-1.772</v>
       </c>
       <c r="H2" s="6">
-        <v>0.23699999999999999</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I2" s="6">
-        <v>0.25600000000000001</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.81200000000000006</v>
+        <v>-2.0129999999999999</v>
       </c>
       <c r="K2" s="6">
-        <v>0.27100000000000002</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="L2" s="8">
-        <f>(H2/K2)^2</f>
-        <v>0.76481801718386178</v>
+        <f t="shared" ref="L2:L64" si="0">(H2/K2)^2</f>
+        <v>0.82782656681558886</v>
       </c>
       <c r="M2" s="8">
-        <f>G2-J2</f>
-        <v>0.10500000000000009</v>
+        <f t="shared" ref="M2:M64" si="1">G2-J2</f>
+        <v>0.24099999999999988</v>
       </c>
       <c r="N2" s="8">
-        <f>(H2/I2)^2</f>
-        <v>0.85707092285156228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N2:N64" si="2">(H2/I2)^2</f>
+        <v>0.94041678803459927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.13900000000000001</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H3" s="6">
-        <v>0.248</v>
+        <v>0.105</v>
       </c>
       <c r="I3" s="6">
-        <v>0.26200000000000001</v>
+        <v>0.105</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.20499999999999999</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K3" s="6">
-        <v>0.27</v>
+        <v>0.111</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L66" si="0">(H3/K3)^2</f>
-        <v>0.84367626886145386</v>
+        <f t="shared" si="0"/>
+        <v>0.89481373265157049</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" ref="M3:M66" si="1">G3-J3</f>
-        <v>6.5999999999999975E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N66" si="2">(H3/I3)^2</f>
-        <v>0.89598508245440223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>56</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="6">
-        <v>-1.772</v>
+        <v>-0.17</v>
       </c>
       <c r="H4" s="6">
-        <v>0.54500000000000004</v>
+        <v>0.878</v>
       </c>
       <c r="I4" s="6">
-        <v>0.56200000000000006</v>
+        <v>1.06</v>
       </c>
       <c r="J4" s="6">
-        <v>-2.0129999999999999</v>
+        <v>-0.55400000000000005</v>
       </c>
       <c r="K4" s="6">
-        <v>0.59899999999999998</v>
+        <v>1.147</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="0"/>
-        <v>0.82782656681558886</v>
+        <v>0.58595220920501456</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="1"/>
-        <v>0.24099999999999988</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="2"/>
-        <v>0.94041678803459927</v>
+        <v>0.68608401566393717</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6">
-        <v>2.7E-2</v>
+        <v>-4.8209999999999997</v>
       </c>
       <c r="H5" s="6">
-        <v>0.105</v>
+        <v>9.09</v>
       </c>
       <c r="I5" s="6">
-        <v>0.105</v>
+        <v>11.044</v>
       </c>
       <c r="J5" s="6">
-        <v>1.2E-2</v>
+        <v>-5.51</v>
       </c>
       <c r="K5" s="6">
-        <v>0.111</v>
+        <v>10.462</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
-        <v>0.89481373265157049</v>
+        <v>0.75491548717279278</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.68900000000000006</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.67744644877078553</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1190,46 +1178,46 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G6" s="6">
-        <v>-0.17</v>
+        <v>113.33</v>
       </c>
       <c r="H6" s="6">
-        <v>0.878</v>
+        <v>70.001999999999995</v>
       </c>
       <c r="I6" s="6">
-        <v>1.06</v>
+        <v>84.373000000000005</v>
       </c>
       <c r="J6" s="6">
-        <v>-0.55400000000000005</v>
+        <v>122.92100000000001</v>
       </c>
       <c r="K6" s="6">
-        <v>1.147</v>
+        <v>96.28</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
-        <v>0.58595220920501456</v>
+        <v>0.52862625997881474</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="1"/>
-        <v>0.38400000000000001</v>
+        <v>-9.5910000000000082</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="2"/>
-        <v>0.68608401566393717</v>
+        <v>0.68835728635866289</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1237,145 +1225,145 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="6">
-        <v>-4.8209999999999997</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="H7" s="6">
-        <v>9.09</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I7" s="6">
-        <v>11.044</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J7" s="6">
-        <v>-5.51</v>
+        <v>-0.11</v>
       </c>
       <c r="K7" s="6">
-        <v>10.462</v>
+        <v>1.135</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>0.75491548717279278</v>
+        <v>0.65132721380193681</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="1"/>
-        <v>0.68900000000000006</v>
+        <v>0.253</v>
       </c>
       <c r="N7" s="8">
         <f t="shared" si="2"/>
-        <v>0.67744644877078553</v>
+        <v>0.68099667234802375</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="6">
-        <v>113.33</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="6">
-        <v>70.001999999999995</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="I8" s="6">
-        <v>84.373000000000005</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J8" s="6">
-        <v>122.92100000000001</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="K8" s="6">
-        <v>96.28</v>
+        <v>1.2E-2</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
-        <v>0.52862625997881474</v>
+        <v>0.84027777777777768</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="1"/>
-        <v>-9.5910000000000082</v>
+        <v>1.6999999999999998E-2</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="2"/>
-        <v>0.68835728635866289</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6">
-        <v>0.14299999999999999</v>
+        <v>-1E-3</v>
       </c>
       <c r="H9" s="6">
-        <v>0.91600000000000004</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I9" s="6">
-        <v>1.1100000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J9" s="6">
-        <v>-0.11</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="K9" s="6">
-        <v>1.135</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>0.65132721380193681</v>
+        <v>0.8520710059171599</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="1"/>
-        <v>0.253</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="N9" s="8">
         <f t="shared" si="2"/>
-        <v>0.68099667234802375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.8520710059171599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -1384,416 +1372,416 @@
         <v>39</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G10" s="6">
-        <v>-5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="H10" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I10" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J10" s="6">
-        <v>-2.1999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K10" s="6">
-        <v>1.2E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
-        <v>0.84027777777777768</v>
+        <v>1.3966942148760333</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="1"/>
-        <v>1.6999999999999998E-2</v>
+        <v>1.0000000000000009E-3</v>
       </c>
       <c r="N10" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1.3966942148760333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="6">
         <v>-1E-3</v>
       </c>
       <c r="H11" s="6">
-        <v>1.2E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="I11" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="J11" s="6">
-        <v>-4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
-        <v>0.8520710059171599</v>
+        <v>7.4380165289256214E-2</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="N11" s="8">
         <f t="shared" si="2"/>
-        <v>0.8520710059171599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>7.4380165289256214E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>44</v>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G12" s="6">
-        <v>0.02</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H12" s="6">
-        <v>1.2999999999999999E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="J12" s="6">
-        <v>1.9E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="K12" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
-        <v>1.3966942148760333</v>
+        <v>0.97241512345679004</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
+        <v>5.0000000000000044E-3</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="2"/>
-        <v>1.3966942148760333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>0.94595608932257458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="6">
-        <v>-1E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="H13" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I13" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="J13" s="6">
-        <v>0</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="K13" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="0"/>
-        <v>7.4380165289256214E-2</v>
+        <v>0.90481856038072572</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="1"/>
-        <v>-1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="N13" s="8">
         <f t="shared" si="2"/>
-        <v>7.4380165289256214E-2</v>
+        <v>0.95062499999999994</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G14" s="6">
-        <v>6.8000000000000005E-2</v>
+        <v>-0.105</v>
       </c>
       <c r="H14" s="6">
-        <v>7.0999999999999994E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I14" s="6">
-        <v>7.2999999999999995E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J14" s="6">
-        <v>6.3E-2</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="K14" s="6">
-        <v>7.1999999999999995E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
-        <v>0.97241512345679004</v>
+        <v>0.93550120935232461</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="1"/>
-        <v>5.0000000000000044E-3</v>
+        <v>-1.0999999999999996E-2</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="2"/>
-        <v>0.94595608932257458</v>
+        <v>0.90556711758584796</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>46</v>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G15" s="6">
-        <v>-6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H15" s="6">
-        <v>3.9E-2</v>
+        <v>0.187</v>
       </c>
       <c r="I15" s="6">
-        <v>0.04</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J15" s="6">
-        <v>-8.0000000000000002E-3</v>
+        <v>-0.214</v>
       </c>
       <c r="K15" s="6">
-        <v>4.1000000000000002E-2</v>
+        <v>0.253</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="0"/>
-        <v>0.90481856038072572</v>
+        <v>0.54631379962192805</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="1"/>
-        <v>2E-3</v>
+        <v>0.218</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="2"/>
-        <v>0.95062499999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.22412433904822943</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6">
+        <v>-2.7E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.371</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38768244927020301</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.64200000000000002</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.29403888117437021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="6">
-        <v>-0.105</v>
-      </c>
-      <c r="H16" s="6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="I16" s="6">
-        <v>6.2E-2</v>
-      </c>
-      <c r="J16" s="6">
-        <v>-9.4E-2</v>
-      </c>
-      <c r="K16" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.93550120935232461</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="1"/>
-        <v>-1.0999999999999996E-2</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="2"/>
-        <v>0.90556711758584796</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>11</v>
-      </c>
       <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G17" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>0.188</v>
       </c>
       <c r="H17" s="6">
-        <v>0.187</v>
+        <v>0.107</v>
       </c>
       <c r="I17" s="6">
-        <v>0.39500000000000002</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="J17" s="6">
-        <v>-0.214</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="K17" s="6">
-        <v>0.253</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="0"/>
-        <v>0.54631379962192805</v>
+        <v>0.60999520485907599</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="1"/>
-        <v>0.218</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="2"/>
-        <v>0.22412433904822943</v>
+        <v>0.25235292821089295</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" s="6">
-        <v>-2.7E-2</v>
+        <v>1.859</v>
       </c>
       <c r="H18" s="6">
-        <v>0.23100000000000001</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="I18" s="6">
-        <v>0.42599999999999999</v>
+        <v>1.268</v>
       </c>
       <c r="J18" s="6">
-        <v>0.61499999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="K18" s="6">
-        <v>0.371</v>
+        <v>1.1919999999999999</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="0"/>
-        <v>0.38768244927020301</v>
+        <v>0.28647639745957398</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" si="1"/>
-        <v>-0.64200000000000002</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="2"/>
-        <v>0.29403888117437021</v>
+        <v>0.25316452547044949</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1801,46 +1789,46 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G19" s="6">
-        <v>0.188</v>
+        <v>2.149</v>
       </c>
       <c r="H19" s="6">
-        <v>0.107</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="I19" s="6">
-        <v>0.21299999999999999</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="J19" s="6">
-        <v>-1.7999999999999999E-2</v>
+        <v>-1.2150000000000001</v>
       </c>
       <c r="K19" s="6">
-        <v>0.13700000000000001</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="0"/>
-        <v>0.60999520485907599</v>
+        <v>0.35668586343554309</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="1"/>
-        <v>0.20599999999999999</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="N19" s="8">
         <f t="shared" si="2"/>
-        <v>0.25235292821089295</v>
+        <v>0.35179981341741356</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1848,46 +1836,46 @@
         <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G20" s="6">
-        <v>1.859</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="H20" s="6">
-        <v>0.63800000000000001</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="I20" s="6">
-        <v>1.268</v>
+        <v>3.08</v>
       </c>
       <c r="J20" s="6">
-        <v>0.33600000000000002</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="6">
-        <v>1.1919999999999999</v>
+        <v>2.2589999999999999</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" si="0"/>
-        <v>0.28647639745957398</v>
+        <v>0.41599359289025595</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="1"/>
-        <v>1.5229999999999999</v>
+        <v>1.8519999999999999</v>
       </c>
       <c r="N20" s="8">
         <f t="shared" si="2"/>
-        <v>0.25316452547044949</v>
+        <v>0.22377814555574296</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1895,46 +1883,46 @@
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G21" s="6">
-        <v>2.149</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="H21" s="6">
-        <v>0.86299999999999999</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I21" s="6">
-        <v>1.4550000000000001</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="J21" s="6">
-        <v>-1.2150000000000001</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="K21" s="6">
-        <v>1.4450000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" si="0"/>
-        <v>0.35668586343554309</v>
+        <v>0.20057944179130088</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="1"/>
-        <v>3.3639999999999999</v>
+        <v>-0.74500000000000011</v>
       </c>
       <c r="N21" s="8">
         <f t="shared" si="2"/>
-        <v>0.35179981341741356</v>
+        <v>0.19277048417212184</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1942,422 +1930,422 @@
         <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4.2720000000000002</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1.518</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.36730945821854916</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.16099999999999959</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19229353662891988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>13</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-42.363999999999997</v>
+      </c>
+      <c r="H23" s="6">
+        <v>29.870999999999999</v>
+      </c>
+      <c r="I23" s="6">
+        <v>30.12</v>
+      </c>
+      <c r="J23" s="6">
+        <v>-42.83</v>
+      </c>
+      <c r="K23" s="6">
+        <v>30.533999999999999</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.95704447665895653</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46600000000000108</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.98353447762733903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I24" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94806094182825495</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.94806094182825495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="6">
+        <v>63.017000000000003</v>
+      </c>
+      <c r="H25" s="6">
+        <v>8.3740000000000006</v>
+      </c>
+      <c r="I25" s="6">
+        <v>11.085000000000001</v>
+      </c>
+      <c r="J25" s="6">
+        <v>66.058000000000007</v>
+      </c>
+      <c r="K25" s="6">
+        <v>15.766999999999999</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.28207706610563205</v>
+      </c>
+      <c r="M25" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.0410000000000039</v>
+      </c>
+      <c r="N25" s="8">
+        <f t="shared" si="2"/>
+        <v>0.57068245152834463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="I22" s="6">
-        <v>3.08</v>
-      </c>
-      <c r="J22" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>2.2589999999999999</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.41599359289025595</v>
-      </c>
-      <c r="M22" s="8">
-        <f t="shared" si="1"/>
-        <v>1.8519999999999999</v>
-      </c>
-      <c r="N22" s="8">
-        <f t="shared" si="2"/>
-        <v>0.22377814555574296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0.748</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.20057944179130088</v>
-      </c>
-      <c r="M23" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.74500000000000011</v>
-      </c>
-      <c r="N23" s="8">
-        <f t="shared" si="2"/>
-        <v>0.19277048417212184</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>12</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="6">
-        <v>4.2720000000000002</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="I24" s="6">
-        <v>2.0979999999999999</v>
-      </c>
-      <c r="J24" s="6">
-        <v>4.4329999999999998</v>
-      </c>
-      <c r="K24" s="6">
-        <v>1.518</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.36730945821854916</v>
-      </c>
-      <c r="M24" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.16099999999999959</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="2"/>
-        <v>0.19229353662891988</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>13</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="6">
-        <v>-42.363999999999997</v>
-      </c>
-      <c r="H25" s="6">
-        <v>29.870999999999999</v>
-      </c>
-      <c r="I25" s="6">
-        <v>30.12</v>
-      </c>
-      <c r="J25" s="6">
-        <v>-42.83</v>
-      </c>
-      <c r="K25" s="6">
-        <v>30.533999999999999</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.95704447665895653</v>
-      </c>
-      <c r="M25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.46600000000000108</v>
-      </c>
-      <c r="N25" s="8">
-        <f t="shared" si="2"/>
-        <v>0.98353447762733903</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>13</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G26" s="6">
-        <v>-0.03</v>
+        <v>75.879000000000005</v>
       </c>
       <c r="H26" s="6">
-        <v>3.6999999999999998E-2</v>
+        <v>9.2789999999999999</v>
       </c>
       <c r="I26" s="6">
-        <v>3.7999999999999999E-2</v>
+        <v>12.244999999999999</v>
       </c>
       <c r="J26" s="6">
-        <v>-3.3000000000000002E-2</v>
+        <v>69.430999999999997</v>
       </c>
       <c r="K26" s="6">
-        <v>3.7999999999999999E-2</v>
+        <v>16.475000000000001</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" si="0"/>
-        <v>0.94806094182825495</v>
+        <v>0.31721338396107585</v>
       </c>
       <c r="M26" s="8">
         <f t="shared" si="1"/>
-        <v>3.0000000000000027E-3</v>
+        <v>6.4480000000000075</v>
       </c>
       <c r="N26" s="8">
         <f t="shared" si="2"/>
-        <v>0.94806094182825495</v>
+        <v>0.57422853570952792</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G27" s="6">
-        <v>63.017000000000003</v>
+        <v>-2.5049999999999999</v>
       </c>
       <c r="H27" s="6">
-        <v>8.3740000000000006</v>
+        <v>2.8370000000000002</v>
       </c>
       <c r="I27" s="6">
-        <v>11.085000000000001</v>
+        <v>14.606</v>
       </c>
       <c r="J27" s="6">
-        <v>66.058000000000007</v>
+        <v>-11.786</v>
       </c>
       <c r="K27" s="6">
-        <v>15.766999999999999</v>
+        <v>5.2229999999999999</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="0"/>
-        <v>0.28207706610563205</v>
+        <v>0.29503845144502727</v>
       </c>
       <c r="M27" s="8">
         <f t="shared" si="1"/>
-        <v>-3.0410000000000039</v>
+        <v>9.2809999999999988</v>
       </c>
       <c r="N27" s="8">
         <f t="shared" si="2"/>
-        <v>0.57068245152834463</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>3.7727330706869261E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28" s="6">
-        <v>75.879000000000005</v>
+        <v>-3.5819999999999999</v>
       </c>
       <c r="H28" s="6">
-        <v>9.2789999999999999</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="I28" s="6">
-        <v>12.244999999999999</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="J28" s="6">
-        <v>69.430999999999997</v>
+        <v>-4.8330000000000002</v>
       </c>
       <c r="K28" s="6">
-        <v>16.475000000000001</v>
+        <v>1.897</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="0"/>
-        <v>0.31721338396107585</v>
+        <v>0.80971536502020658</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="1"/>
-        <v>6.4480000000000075</v>
+        <v>1.2510000000000003</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" si="2"/>
-        <v>0.57422853570952792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>0.57814177509040132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>77</v>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="6">
-        <v>-2.5049999999999999</v>
+        <v>-0.97599999999999998</v>
       </c>
       <c r="H29" s="6">
-        <v>2.8370000000000002</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="I29" s="6">
-        <v>14.606</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="J29" s="6">
-        <v>-11.786</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="K29" s="6">
-        <v>5.2229999999999999</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" si="0"/>
-        <v>0.29503845144502727</v>
+        <v>0.54776724440614133</v>
       </c>
       <c r="M29" s="8">
         <f t="shared" si="1"/>
-        <v>9.2809999999999988</v>
+        <v>0.15399999999999991</v>
       </c>
       <c r="N29" s="8">
         <f t="shared" si="2"/>
-        <v>3.7727330706869261E-2</v>
+        <v>0.8275945216049384</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G30" s="6">
-        <v>-3.5819999999999999</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="H30" s="6">
-        <v>1.7070000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="I30" s="6">
-        <v>2.2450000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="J30" s="6">
-        <v>-4.8330000000000002</v>
+        <v>-0.36099999999999999</v>
       </c>
       <c r="K30" s="6">
-        <v>1.897</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" si="0"/>
-        <v>0.80971536502020658</v>
+        <v>0.60592071280991755</v>
       </c>
       <c r="M30" s="8">
         <f t="shared" si="1"/>
-        <v>1.2510000000000003</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="N30" s="8">
         <f t="shared" si="2"/>
-        <v>0.57814177509040132</v>
+        <v>0.91784439336886925</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2368,607 +2356,607 @@
         <v>18</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G31" s="6">
-        <v>-0.97599999999999998</v>
+        <v>-0.63300000000000001</v>
       </c>
       <c r="H31" s="6">
-        <v>0.13100000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="I31" s="6">
-        <v>0.14399999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="J31" s="6">
-        <v>-1.1299999999999999</v>
+        <v>-0.64500000000000002</v>
       </c>
       <c r="K31" s="6">
-        <v>0.17699999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" si="0"/>
-        <v>0.54776724440614133</v>
+        <v>0.69603265306122453</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="1"/>
-        <v>0.15399999999999991</v>
+        <v>1.2000000000000011E-2</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="2"/>
-        <v>0.8275945216049384</v>
+        <v>1.0423981612792803</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
+      <c r="C32" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="6">
-        <v>-8.5999999999999993E-2</v>
+        <v>-16.663</v>
       </c>
       <c r="H32" s="6">
-        <v>0.13700000000000001</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="I32" s="6">
-        <v>0.14299999999999999</v>
+        <v>10.135</v>
       </c>
       <c r="J32" s="6">
-        <v>-0.36099999999999999</v>
+        <v>-16.347999999999999</v>
       </c>
       <c r="K32" s="6">
-        <v>0.17599999999999999</v>
+        <v>10.438000000000001</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" si="0"/>
-        <v>0.60592071280991755</v>
+        <v>0.83533785807241556</v>
       </c>
       <c r="M32" s="8">
         <f t="shared" si="1"/>
-        <v>0.27500000000000002</v>
+        <v>-0.31500000000000128</v>
       </c>
       <c r="N32" s="8">
         <f t="shared" si="2"/>
-        <v>0.91784439336886925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.88603166575356995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G33" s="6">
-        <v>-0.63300000000000001</v>
+        <v>-5.0999999999999997E-2</v>
       </c>
       <c r="H33" s="6">
-        <v>0.14599999999999999</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I33" s="6">
-        <v>0.14299999999999999</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J33" s="6">
-        <v>-0.64500000000000002</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="K33" s="6">
-        <v>0.17499999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" si="0"/>
-        <v>0.69603265306122453</v>
+        <v>0.8359183673469387</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" si="1"/>
-        <v>1.2000000000000011E-2</v>
+        <v>-4.9999999999999975E-3</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="2"/>
-        <v>1.0423981612792803</v>
+        <v>0.88581314878892736</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G34" s="6">
-        <v>-16.663</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H34" s="6">
-        <v>9.5399999999999991</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="I34" s="6">
-        <v>10.135</v>
+        <v>1.966</v>
       </c>
       <c r="J34" s="6">
-        <v>-16.347999999999999</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
       <c r="K34" s="6">
-        <v>10.438000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" si="0"/>
-        <v>0.83533785807241556</v>
+        <v>0.34694973230220105</v>
       </c>
       <c r="M34" s="8">
         <f t="shared" si="1"/>
-        <v>-0.31500000000000128</v>
+        <v>0.09</v>
       </c>
       <c r="N34" s="8">
         <f t="shared" si="2"/>
-        <v>0.88603166575356995</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>6.0356942902175234E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G35" s="6">
-        <v>-5.0999999999999997E-2</v>
+        <v>483.60199999999998</v>
       </c>
       <c r="H35" s="6">
-        <v>3.2000000000000001E-2</v>
+        <v>129.774</v>
       </c>
       <c r="I35" s="6">
-        <v>3.4000000000000002E-2</v>
+        <v>209.072</v>
       </c>
       <c r="J35" s="6">
-        <v>-4.5999999999999999E-2</v>
+        <v>345.31900000000002</v>
       </c>
       <c r="K35" s="6">
-        <v>3.5000000000000003E-2</v>
+        <v>184.881</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="0"/>
-        <v>0.8359183673469387</v>
+        <v>0.49270936719299224</v>
       </c>
       <c r="M35" s="8">
         <f t="shared" si="1"/>
-        <v>-4.9999999999999975E-3</v>
+        <v>138.28299999999996</v>
       </c>
       <c r="N35" s="8">
         <f t="shared" si="2"/>
-        <v>0.88581314878892736</v>
+        <v>0.38528636021104362</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="6">
-        <v>6.8000000000000005E-2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H36" s="6">
-        <v>0.48299999999999998</v>
+        <v>1.131</v>
       </c>
       <c r="I36" s="6">
-        <v>1.966</v>
+        <v>1.131</v>
       </c>
       <c r="J36" s="6">
-        <v>-2.1999999999999999E-2</v>
+        <v>1.228</v>
       </c>
       <c r="K36" s="6">
-        <v>0.82</v>
+        <v>1.141</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="0"/>
-        <v>0.34694973230220105</v>
+        <v>0.98254832814980786</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="1"/>
-        <v>0.09</v>
+        <v>-7.8000000000000069E-2</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="2"/>
-        <v>6.0356942902175234E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G37" s="6">
-        <v>483.60199999999998</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="H37" s="6">
-        <v>129.774</v>
+        <v>1.145</v>
       </c>
       <c r="I37" s="6">
-        <v>209.072</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="J37" s="6">
-        <v>345.31900000000002</v>
+        <v>-0.156</v>
       </c>
       <c r="K37" s="6">
-        <v>184.881</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="0"/>
-        <v>0.49270936719299224</v>
+        <v>1.0123401212622893</v>
       </c>
       <c r="M37" s="8">
         <f t="shared" si="1"/>
-        <v>138.28299999999996</v>
+        <v>1.081</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" si="2"/>
-        <v>0.38528636021104362</v>
+        <v>0.70054942118942565</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G38" s="6">
-        <v>1.1499999999999999</v>
+        <v>247.01499999999999</v>
       </c>
       <c r="H38" s="6">
-        <v>1.131</v>
+        <v>78.024000000000001</v>
       </c>
       <c r="I38" s="6">
-        <v>1.131</v>
+        <v>95.224999999999994</v>
       </c>
       <c r="J38" s="6">
-        <v>1.228</v>
+        <v>2.0720000000000001</v>
       </c>
       <c r="K38" s="6">
-        <v>1.141</v>
+        <v>118.79</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="0"/>
-        <v>0.98254832814980786</v>
+        <v>0.431416407214818</v>
       </c>
       <c r="M38" s="8">
         <f t="shared" si="1"/>
-        <v>-7.8000000000000069E-2</v>
+        <v>244.94299999999998</v>
       </c>
       <c r="N38" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.67135845038498521</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G39" s="6">
-        <v>0.92500000000000004</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="H39" s="6">
-        <v>1.145</v>
+        <v>1.524</v>
       </c>
       <c r="I39" s="6">
-        <v>1.3680000000000001</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="J39" s="6">
-        <v>-0.156</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="K39" s="6">
-        <v>1.1379999999999999</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="0"/>
-        <v>1.0123401212622893</v>
+        <v>0.86143721227640468</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="1"/>
-        <v>1.081</v>
+        <v>-0.54800000000000004</v>
       </c>
       <c r="N39" s="8">
         <f t="shared" si="2"/>
-        <v>0.70054942118942565</v>
+        <v>0.88718236281878304</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
+        <v>23</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>39</v>
+      <c r="C40" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G40" s="6">
-        <v>247.01499999999999</v>
+        <v>3.6669999999999998</v>
       </c>
       <c r="H40" s="6">
-        <v>78.024000000000001</v>
+        <v>6.202</v>
       </c>
       <c r="I40" s="6">
-        <v>95.224999999999994</v>
+        <v>6.5640000000000001</v>
       </c>
       <c r="J40" s="6">
-        <v>2.0720000000000001</v>
+        <v>4.5469999999999997</v>
       </c>
       <c r="K40" s="6">
-        <v>118.79</v>
+        <v>6.7329999999999997</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" si="0"/>
-        <v>0.431416407214818</v>
+        <v>0.84848915330189256</v>
       </c>
       <c r="M40" s="8">
         <f t="shared" si="1"/>
-        <v>244.94299999999998</v>
+        <v>-0.87999999999999989</v>
       </c>
       <c r="N40" s="8">
         <f t="shared" si="2"/>
-        <v>0.67135845038498521</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.89274284678751126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
+        <v>24</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G41" s="6">
-        <v>-1.0999999999999999E-2</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H41" s="6">
-        <v>1.524</v>
+        <v>0.09</v>
       </c>
       <c r="I41" s="6">
-        <v>1.6180000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="J41" s="6">
-        <v>0.53700000000000003</v>
+        <v>-0.24</v>
       </c>
       <c r="K41" s="6">
-        <v>1.6419999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="0"/>
-        <v>0.86143721227640468</v>
+        <v>0.80999999999999983</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="1"/>
-        <v>-0.54800000000000004</v>
+        <v>-8.500000000000002E-2</v>
       </c>
       <c r="N41" s="8">
         <f t="shared" si="2"/>
-        <v>0.88718236281878304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.51020408163265307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="6">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.152</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32408927043442881</v>
+      </c>
+      <c r="M42" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.33199999999999996</v>
+      </c>
+      <c r="N42" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2228309093013387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>25</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="6">
-        <v>3.6669999999999998</v>
-      </c>
-      <c r="H42" s="6">
-        <v>6.202</v>
-      </c>
-      <c r="I42" s="6">
-        <v>6.5640000000000001</v>
-      </c>
-      <c r="J42" s="6">
-        <v>4.5469999999999997</v>
-      </c>
-      <c r="K42" s="6">
-        <v>6.7329999999999997</v>
-      </c>
-      <c r="L42" s="8">
-        <f t="shared" si="0"/>
-        <v>0.84848915330189256</v>
-      </c>
-      <c r="M42" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.87999999999999989</v>
-      </c>
-      <c r="N42" s="8">
-        <f t="shared" si="2"/>
-        <v>0.89274284678751126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>24</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G43" s="6">
-        <v>-0.32500000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="H43" s="6">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="I43" s="6">
-        <v>0.126</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="J43" s="6">
-        <v>-0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K43" s="6">
-        <v>0.1</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="L43" s="8">
         <f t="shared" si="0"/>
-        <v>0.80999999999999983</v>
+        <v>0.14992801188087385</v>
       </c>
       <c r="M43" s="8">
         <f t="shared" si="1"/>
-        <v>-8.500000000000002E-2</v>
+        <v>0.12000000000000002</v>
       </c>
       <c r="N43" s="8">
         <f t="shared" si="2"/>
-        <v>0.51020408163265307</v>
+        <v>0.14404905837118367</v>
       </c>
     </row>
     <row r="44" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2976,46 +2964,46 @@
         <v>25</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G44" s="6">
-        <v>9.8000000000000004E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="H44" s="6">
-        <v>0.152</v>
+        <v>0.111</v>
       </c>
       <c r="I44" s="6">
-        <v>0.32200000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="J44" s="6">
-        <v>0.43</v>
+        <v>0.189</v>
       </c>
       <c r="K44" s="6">
-        <v>0.26700000000000002</v>
+        <v>0.245</v>
       </c>
       <c r="L44" s="8">
         <f t="shared" si="0"/>
-        <v>0.32408927043442881</v>
+        <v>0.20526447313619325</v>
       </c>
       <c r="M44" s="8">
         <f t="shared" si="1"/>
-        <v>-0.33199999999999996</v>
+        <v>-0.188</v>
       </c>
       <c r="N44" s="8">
         <f t="shared" si="2"/>
-        <v>0.2228309093013387</v>
+        <v>0.21570000525200894</v>
       </c>
     </row>
     <row r="45" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3023,46 +3011,46 @@
         <v>25</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G45" s="6">
-        <v>0.33</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H45" s="6">
-        <v>0.115</v>
+        <v>0.111</v>
       </c>
       <c r="I45" s="6">
-        <v>0.30299999999999999</v>
+        <v>0.248</v>
       </c>
       <c r="J45" s="6">
-        <v>0.21</v>
+        <v>9.4E-2</v>
       </c>
       <c r="K45" s="6">
-        <v>0.29699999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="L45" s="8">
         <f t="shared" si="0"/>
-        <v>0.14992801188087385</v>
+        <v>0.30496769881933605</v>
       </c>
       <c r="M45" s="8">
         <f t="shared" si="1"/>
-        <v>0.12000000000000002</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="N45" s="8">
         <f t="shared" si="2"/>
-        <v>0.14404905837118367</v>
+        <v>0.20032843392299687</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3070,46 +3058,46 @@
         <v>25</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G46" s="6">
-        <v>1E-3</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="H46" s="6">
-        <v>0.111</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="I46" s="6">
-        <v>0.23899999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J46" s="6">
-        <v>0.189</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="K46" s="6">
-        <v>0.245</v>
+        <v>0.3</v>
       </c>
       <c r="L46" s="8">
         <f t="shared" si="0"/>
-        <v>0.20526447313619325</v>
+        <v>0.47609999999999991</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="1"/>
-        <v>-0.188</v>
+        <v>-0.60099999999999998</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="2"/>
-        <v>0.21570000525200894</v>
+        <v>0.27462906585483088</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3117,46 +3105,46 @@
         <v>25</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G47" s="6">
-        <v>2.4E-2</v>
+        <v>-0.72799999999999998</v>
       </c>
       <c r="H47" s="6">
-        <v>0.111</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I47" s="6">
-        <v>0.248</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="J47" s="6">
-        <v>9.4E-2</v>
+        <v>-0.434</v>
       </c>
       <c r="K47" s="6">
-        <v>0.20100000000000001</v>
+        <v>0.157</v>
       </c>
       <c r="L47" s="8">
         <f t="shared" si="0"/>
-        <v>0.30496769881933605</v>
+        <v>0.4220860886851393</v>
       </c>
       <c r="M47" s="8">
         <f t="shared" si="1"/>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="N47" s="8">
         <f t="shared" si="2"/>
-        <v>0.20032843392299687</v>
+        <v>0.26272063836771786</v>
       </c>
     </row>
     <row r="48" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3164,140 +3152,140 @@
         <v>25</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48" s="6">
-        <v>-0.14599999999999999</v>
+        <v>-7.3999999999999996E-2</v>
       </c>
       <c r="H48" s="6">
-        <v>0.20699999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="I48" s="6">
-        <v>0.39500000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="J48" s="6">
-        <v>0.45500000000000002</v>
+        <v>-0.08</v>
       </c>
       <c r="K48" s="6">
-        <v>0.3</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="L48" s="8">
         <f t="shared" si="0"/>
-        <v>0.47609999999999991</v>
+        <v>0.25</v>
       </c>
       <c r="M48" s="8">
         <f t="shared" si="1"/>
-        <v>-0.60099999999999998</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="N48" s="8">
         <f t="shared" si="2"/>
-        <v>0.27462906585483088</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.18308524408284022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>25</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G49" s="6">
-        <v>-0.72799999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="H49" s="6">
-        <v>0.10199999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="I49" s="6">
-        <v>0.19900000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="J49" s="6">
-        <v>-0.434</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="K49" s="6">
-        <v>0.157</v>
+        <v>0.253</v>
       </c>
       <c r="L49" s="8">
         <f t="shared" si="0"/>
-        <v>0.4220860886851393</v>
+        <v>0.37051039697542537</v>
       </c>
       <c r="M49" s="8">
         <f t="shared" si="1"/>
-        <v>-0.29399999999999998</v>
+        <v>-3.6999999999999977E-2</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="2"/>
-        <v>0.26272063836771786</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.2039542143600416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>25</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50" s="6">
-        <v>-7.3999999999999996E-2</v>
+        <v>-0.35299999999999998</v>
       </c>
       <c r="H50" s="6">
-        <v>8.8999999999999996E-2</v>
+        <v>0.15</v>
       </c>
       <c r="I50" s="6">
-        <v>0.20799999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="J50" s="6">
-        <v>-0.08</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="K50" s="6">
-        <v>0.17799999999999999</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="L50" s="8">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.21566390936364768</v>
       </c>
       <c r="M50" s="8">
         <f t="shared" si="1"/>
-        <v>6.0000000000000053E-3</v>
+        <v>-0.496</v>
       </c>
       <c r="N50" s="8">
         <f t="shared" si="2"/>
-        <v>0.18308524408284022</v>
+        <v>0.2516750371919777</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3305,46 +3293,46 @@
         <v>25</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G51" s="6">
-        <v>0.33</v>
+        <v>-1.877</v>
       </c>
       <c r="H51" s="6">
-        <v>0.154</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="I51" s="6">
-        <v>0.34100000000000003</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="J51" s="6">
-        <v>0.36699999999999999</v>
+        <v>-1.2450000000000001</v>
       </c>
       <c r="K51" s="6">
-        <v>0.253</v>
+        <v>0.37</v>
       </c>
       <c r="L51" s="8">
         <f t="shared" si="0"/>
-        <v>0.37051039697542537</v>
+        <v>0.30997808619430239</v>
       </c>
       <c r="M51" s="8">
         <f t="shared" si="1"/>
-        <v>-3.6999999999999977E-2</v>
+        <v>-0.6319999999999999</v>
       </c>
       <c r="N51" s="8">
         <f t="shared" si="2"/>
-        <v>0.2039542143600416</v>
+        <v>0.2625925100863839</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -3352,140 +3340,140 @@
         <v>25</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G52" s="6">
-        <v>-0.35299999999999998</v>
+        <v>-45.518000000000001</v>
       </c>
       <c r="H52" s="6">
-        <v>0.15</v>
+        <v>10.742000000000001</v>
       </c>
       <c r="I52" s="6">
-        <v>0.29899999999999999</v>
+        <v>22.411000000000001</v>
       </c>
       <c r="J52" s="6">
-        <v>0.14299999999999999</v>
+        <v>-37.314999999999998</v>
       </c>
       <c r="K52" s="6">
-        <v>0.32300000000000001</v>
+        <v>17.364000000000001</v>
       </c>
       <c r="L52" s="8">
         <f t="shared" si="0"/>
-        <v>0.21566390936364768</v>
+        <v>0.38271082085859365</v>
       </c>
       <c r="M52" s="8">
         <f t="shared" si="1"/>
-        <v>-0.496</v>
+        <v>-8.203000000000003</v>
       </c>
       <c r="N52" s="8">
         <f t="shared" si="2"/>
-        <v>0.2516750371919777</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>0.22974592914313782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G53" s="6">
-        <v>-1.877</v>
+        <v>-8.641</v>
       </c>
       <c r="H53" s="6">
-        <v>0.20599999999999999</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="I53" s="6">
-        <v>0.40200000000000002</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="J53" s="6">
-        <v>-1.2450000000000001</v>
+        <v>-11.802</v>
       </c>
       <c r="K53" s="6">
-        <v>0.37</v>
+        <v>3.7759999999999998</v>
       </c>
       <c r="L53" s="8">
         <f t="shared" si="0"/>
-        <v>0.30997808619430239</v>
+        <v>6.6946080620690893E-2</v>
       </c>
       <c r="M53" s="8">
         <f t="shared" si="1"/>
-        <v>-0.6319999999999999</v>
+        <v>3.1609999999999996</v>
       </c>
       <c r="N53" s="8">
         <f t="shared" si="2"/>
-        <v>0.2625925100863839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>0.93387084308022261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G54" s="6">
-        <v>-45.518000000000001</v>
+        <v>-0.64100000000000001</v>
       </c>
       <c r="H54" s="6">
-        <v>10.742000000000001</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I54" s="6">
-        <v>22.411000000000001</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J54" s="6">
-        <v>-37.314999999999998</v>
+        <v>-0.66300000000000003</v>
       </c>
       <c r="K54" s="6">
-        <v>17.364000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L54" s="8">
         <f t="shared" si="0"/>
-        <v>0.38271082085859365</v>
+        <v>0.95876736111111105</v>
       </c>
       <c r="M54" s="8">
         <f t="shared" si="1"/>
-        <v>-8.203000000000003</v>
+        <v>2.200000000000002E-2</v>
       </c>
       <c r="N54" s="8">
         <f t="shared" si="2"/>
-        <v>0.22974592914313782</v>
+        <v>0.81693786982248517</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -3493,140 +3481,140 @@
         <v>26</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G55" s="6">
-        <v>-8.641</v>
+        <v>-0.189</v>
       </c>
       <c r="H55" s="6">
-        <v>0.97699999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="I55" s="6">
-        <v>1.0109999999999999</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J55" s="6">
-        <v>-11.802</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="K55" s="6">
-        <v>3.7759999999999998</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="L55" s="8">
         <f t="shared" si="0"/>
-        <v>6.6946080620690893E-2</v>
+        <v>0.96116878123798555</v>
       </c>
       <c r="M55" s="8">
         <f t="shared" si="1"/>
-        <v>3.1609999999999996</v>
+        <v>-1.5000000000000013E-2</v>
       </c>
       <c r="N55" s="8">
         <f t="shared" si="2"/>
-        <v>0.93387084308022261</v>
+        <v>0.82644628099173567</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="G56" s="6">
-        <v>-0.64100000000000001</v>
+        <v>-0.25700000000000001</v>
       </c>
       <c r="H56" s="6">
-        <v>4.7E-2</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="I56" s="6">
-        <v>5.1999999999999998E-2</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="J56" s="6">
-        <v>-0.66300000000000003</v>
+        <v>-0.124</v>
       </c>
       <c r="K56" s="6">
-        <v>4.8000000000000001E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="L56" s="8">
         <f t="shared" si="0"/>
-        <v>0.95876736111111105</v>
+        <v>0.98232729946430442</v>
       </c>
       <c r="M56" s="8">
         <f t="shared" si="1"/>
-        <v>2.200000000000002E-2</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="N56" s="8">
         <f t="shared" si="2"/>
-        <v>0.81693786982248517</v>
+        <v>0.83321577857137563</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="G57" s="6">
-        <v>-0.189</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H57" s="6">
-        <v>0.05</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="I57" s="6">
-        <v>5.5E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="J57" s="6">
-        <v>-0.17399999999999999</v>
+        <v>-0.04</v>
       </c>
       <c r="K57" s="6">
-        <v>5.0999999999999997E-2</v>
+        <v>0.17</v>
       </c>
       <c r="L57" s="8">
         <f t="shared" si="0"/>
-        <v>0.96116878123798555</v>
+        <v>0.90809688581314874</v>
       </c>
       <c r="M57" s="8">
         <f t="shared" si="1"/>
-        <v>-1.5000000000000013E-2</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="N57" s="8">
         <f t="shared" si="2"/>
-        <v>0.82644628099173567</v>
+        <v>0.82830450700669123</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3634,187 +3622,187 @@
         <v>27</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G58" s="6">
-        <v>-0.25700000000000001</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H58" s="6">
-        <v>0.33500000000000002</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="I58" s="6">
-        <v>0.36699999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="J58" s="6">
-        <v>-0.124</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K58" s="6">
-        <v>0.33800000000000002</v>
+        <v>0.104</v>
       </c>
       <c r="L58" s="8">
         <f t="shared" si="0"/>
-        <v>0.98232729946430442</v>
+        <v>0.90615754437869833</v>
       </c>
       <c r="M58" s="8">
         <f t="shared" si="1"/>
-        <v>-0.13300000000000001</v>
+        <v>3.9000000000000007E-2</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="2"/>
-        <v>0.83321577857137563</v>
+        <v>0.82493056140055554</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="G59" s="6">
-        <v>7.9000000000000001E-2</v>
+        <v>0.214</v>
       </c>
       <c r="H59" s="6">
-        <v>0.16200000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I59" s="6">
-        <v>0.17799999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J59" s="6">
-        <v>-0.04</v>
+        <v>0.183</v>
       </c>
       <c r="K59" s="6">
-        <v>0.17</v>
+        <v>0.183</v>
       </c>
       <c r="L59" s="8">
         <f t="shared" si="0"/>
-        <v>0.90809688581314874</v>
+        <v>0.21069604944907289</v>
       </c>
       <c r="M59" s="8">
         <f t="shared" si="1"/>
-        <v>0.11899999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" si="2"/>
-        <v>0.82830450700669123</v>
+        <v>0.70559999999999989</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="G60" s="6">
-        <v>5.7000000000000002E-2</v>
+        <v>-0.158</v>
       </c>
       <c r="H60" s="6">
-        <v>9.9000000000000005E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I60" s="6">
-        <v>0.109</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="J60" s="6">
-        <v>1.7999999999999999E-2</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="K60" s="6">
-        <v>0.104</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="L60" s="8">
         <f t="shared" si="0"/>
-        <v>0.90615754437869833</v>
+        <v>0.54631379962192794</v>
       </c>
       <c r="M60" s="8">
         <f t="shared" si="1"/>
-        <v>3.9000000000000007E-2</v>
+        <v>-0.33699999999999997</v>
       </c>
       <c r="N60" s="8">
         <f t="shared" si="2"/>
-        <v>0.82493056140055554</v>
+        <v>0.35580178516466598</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G61" s="6">
-        <v>0.214</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
       <c r="H61" s="6">
-        <v>8.4000000000000005E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I61" s="6">
-        <v>0.1</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J61" s="6">
-        <v>0.183</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="K61" s="6">
-        <v>0.183</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="L61" s="8">
         <f t="shared" si="0"/>
-        <v>0.21069604944907289</v>
+        <v>0.36679230311446137</v>
       </c>
       <c r="M61" s="8">
         <f t="shared" si="1"/>
-        <v>3.1E-2</v>
+        <v>3.599999999999999E-2</v>
       </c>
       <c r="N61" s="8">
         <f t="shared" si="2"/>
-        <v>0.70559999999999989</v>
+        <v>0.21845463137996216</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3822,46 +3810,46 @@
         <v>29</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G62" s="6">
-        <v>-0.158</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="H62" s="6">
-        <v>0.10199999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="I62" s="6">
-        <v>0.17100000000000001</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="J62" s="6">
-        <v>0.17899999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="K62" s="6">
-        <v>0.13800000000000001</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="L62" s="8">
         <f t="shared" si="0"/>
-        <v>0.54631379962192794</v>
+        <v>0.26149276859504134</v>
       </c>
       <c r="M62" s="8">
         <f t="shared" si="1"/>
-        <v>-0.33699999999999997</v>
+        <v>-0.05</v>
       </c>
       <c r="N62" s="8">
         <f t="shared" si="2"/>
-        <v>0.35580178516466598</v>
+        <v>0.20661157024793386</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3869,46 +3857,46 @@
         <v>29</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G63" s="6">
-        <v>-3.5000000000000003E-2</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="H63" s="6">
-        <v>4.2999999999999997E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="I63" s="6">
-        <v>9.1999999999999998E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J63" s="6">
-        <v>-7.0999999999999994E-2</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="K63" s="6">
-        <v>7.0999999999999994E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="L63" s="8">
         <f t="shared" si="0"/>
-        <v>0.36679230311446137</v>
+        <v>0.43977839335180047</v>
       </c>
       <c r="M63" s="8">
         <f t="shared" si="1"/>
-        <v>3.599999999999999E-2</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="N63" s="8">
         <f t="shared" si="2"/>
-        <v>0.21845463137996216</v>
+        <v>0.22778925619834708</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
@@ -3916,46 +3904,46 @@
         <v>29</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G64" s="6">
-        <v>-3.9E-2</v>
+        <v>-0.22900000000000001</v>
       </c>
       <c r="H64" s="6">
-        <v>0.09</v>
+        <v>0.123</v>
       </c>
       <c r="I64" s="6">
-        <v>0.19800000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="J64" s="6">
-        <v>1.0999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K64" s="6">
-        <v>0.17599999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="L64" s="8">
         <f t="shared" si="0"/>
-        <v>0.26149276859504134</v>
+        <v>0.61377743519006844</v>
       </c>
       <c r="M64" s="8">
         <f t="shared" si="1"/>
-        <v>-0.05</v>
+        <v>-0.248</v>
       </c>
       <c r="N64" s="8">
         <f t="shared" si="2"/>
-        <v>0.20661157024793386</v>
+        <v>0.26265625000000009</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
@@ -3963,46 +3951,46 @@
         <v>29</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C65" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>129</v>
-      </c>
       <c r="F65" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G65" s="6">
-        <v>-8.6999999999999994E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="H65" s="6">
-        <v>6.3E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="I65" s="6">
-        <v>0.13200000000000001</v>
+        <v>0.246</v>
       </c>
       <c r="J65" s="6">
-        <v>-1.2E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="K65" s="6">
-        <v>9.5000000000000001E-2</v>
+        <v>0.158</v>
       </c>
       <c r="L65" s="8">
-        <f t="shared" si="0"/>
-        <v>0.43977839335180047</v>
+        <f>(H65/K65)^2</f>
+        <v>0.53901618330395773</v>
       </c>
       <c r="M65" s="8">
-        <f t="shared" si="1"/>
-        <v>-7.4999999999999997E-2</v>
+        <f>G65-J65</f>
+        <v>3.999999999999998E-2</v>
       </c>
       <c r="N65" s="8">
-        <f t="shared" si="2"/>
-        <v>0.22778925619834708</v>
+        <f>(H65/I65)^2</f>
+        <v>0.22235441866613789</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
@@ -4010,46 +3998,46 @@
         <v>29</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G66" s="6">
-        <v>-0.22900000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="H66" s="6">
-        <v>0.123</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I66" s="6">
-        <v>0.24</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="J66" s="6">
-        <v>1.9E-2</v>
+        <v>-0.22600000000000001</v>
       </c>
       <c r="K66" s="6">
-        <v>0.157</v>
+        <v>0.113</v>
       </c>
       <c r="L66" s="8">
-        <f t="shared" si="0"/>
-        <v>0.61377743519006844</v>
+        <f>(H66/K66)^2</f>
+        <v>0.15858720338319363</v>
       </c>
       <c r="M66" s="8">
-        <f t="shared" si="1"/>
-        <v>-0.248</v>
+        <f>G66-J66</f>
+        <v>-3.4000000000000002E-2</v>
       </c>
       <c r="N66" s="8">
-        <f t="shared" si="2"/>
-        <v>0.26265625000000009</v>
+        <f>(H66/I66)^2</f>
+        <v>0.19087567159958529</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
@@ -4057,46 +4045,46 @@
         <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G67" s="6">
-        <v>0.17499999999999999</v>
+        <v>-0.16900000000000001</v>
       </c>
       <c r="H67" s="6">
-        <v>0.11600000000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I67" s="6">
-        <v>0.246</v>
+        <v>7.8E-2</v>
       </c>
       <c r="J67" s="6">
-        <v>0.13500000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="K67" s="6">
-        <v>0.158</v>
+        <v>0.105</v>
       </c>
       <c r="L67" s="8">
-        <f t="shared" ref="L67:L73" si="3">(H67/K67)^2</f>
-        <v>0.53901618330395773</v>
+        <f>(H67/K67)^2</f>
+        <v>0.12417233560090701</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" ref="M67:M73" si="4">G67-J67</f>
-        <v>3.999999999999998E-2</v>
+        <f>G67-J67</f>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="N67" s="8">
-        <f t="shared" ref="N67:N73" si="5">(H67/I67)^2</f>
-        <v>0.22235441866613789</v>
+        <f>(H67/I67)^2</f>
+        <v>0.22501643655489809</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
@@ -4104,46 +4092,46 @@
         <v>29</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G68" s="6">
-        <v>-0.26</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="H68" s="6">
-        <v>4.4999999999999998E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="I68" s="6">
-        <v>0.10299999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J68" s="6">
-        <v>-0.22600000000000001</v>
+        <v>2E-3</v>
       </c>
       <c r="K68" s="6">
-        <v>0.113</v>
+        <v>0.01</v>
       </c>
       <c r="L68" s="8">
-        <f t="shared" si="3"/>
-        <v>0.15858720338319363</v>
+        <f>(H68/K68)^2</f>
+        <v>0.36</v>
       </c>
       <c r="M68" s="8">
-        <f t="shared" si="4"/>
-        <v>-3.4000000000000002E-2</v>
+        <f>G68-J68</f>
+        <v>-1.9999999999999997E-2</v>
       </c>
       <c r="N68" s="8">
-        <f t="shared" si="5"/>
-        <v>0.19087567159958529</v>
+        <f>(H68/I68)^2</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
@@ -4151,233 +4139,139 @@
         <v>29</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G69" s="6">
-        <v>-0.16900000000000001</v>
+        <v>-2.1480000000000001</v>
       </c>
       <c r="H69" s="6">
-        <v>3.6999999999999998E-2</v>
+        <v>2.887</v>
       </c>
       <c r="I69" s="6">
-        <v>7.8E-2</v>
+        <v>5.9960000000000004</v>
       </c>
       <c r="J69" s="6">
-        <v>-0.26</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="K69" s="6">
-        <v>0.105</v>
+        <v>3.863</v>
       </c>
       <c r="L69" s="8">
-        <f t="shared" si="3"/>
-        <v>0.12417233560090701</v>
+        <f>(H69/K69)^2</f>
+        <v>0.55852697311068744</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="4"/>
-        <v>9.0999999999999998E-2</v>
+        <f>G69-J69</f>
+        <v>-3.1710000000000003</v>
       </c>
       <c r="N69" s="8">
-        <f t="shared" si="5"/>
-        <v>0.22501643655489809</v>
+        <f>(H69/I69)^2</f>
+        <v>0.23183036522903194</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G70" s="6">
-        <v>-1.7999999999999999E-2</v>
+        <v>0.123</v>
       </c>
       <c r="H70" s="6">
-        <v>6.0000000000000001E-3</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="I70" s="6">
-        <v>0.01</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J70" s="6">
-        <v>2E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="K70" s="6">
-        <v>0.01</v>
+        <v>0.22</v>
       </c>
       <c r="L70" s="8">
-        <f t="shared" si="3"/>
-        <v>0.36</v>
+        <f>(H70/K70)^2</f>
+        <v>0.85983471074380158</v>
       </c>
       <c r="M70" s="8">
-        <f t="shared" si="4"/>
-        <v>-1.9999999999999997E-2</v>
+        <f>G70-J70</f>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="N70" s="8">
-        <f t="shared" si="5"/>
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <f>(H70/I70)^2</f>
+        <v>0.55029421487603292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G71" s="6">
-        <v>-2.1480000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H71" s="6">
-        <v>2.887</v>
+        <v>0.187</v>
       </c>
       <c r="I71" s="6">
-        <v>5.9960000000000004</v>
+        <v>0.307</v>
       </c>
       <c r="J71" s="6">
-        <v>1.0229999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="K71" s="6">
-        <v>3.863</v>
+        <v>0.22</v>
       </c>
       <c r="L71" s="8">
-        <f t="shared" si="3"/>
-        <v>0.55852697311068744</v>
+        <f>(H71/K71)^2</f>
+        <v>0.72249999999999992</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="4"/>
-        <v>-3.1710000000000003</v>
+        <f>G71-J71</f>
+        <v>0.15899999999999997</v>
       </c>
       <c r="N71" s="8">
-        <f t="shared" si="5"/>
-        <v>0.23183036522903194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>30</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G72" s="6">
-        <v>0.123</v>
-      </c>
-      <c r="H72" s="6">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="I72" s="6">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="J72" s="6">
-        <v>7.8E-2</v>
-      </c>
-      <c r="K72" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="L72" s="8">
-        <f t="shared" si="3"/>
-        <v>0.85983471074380158</v>
-      </c>
-      <c r="M72" s="8">
-        <f t="shared" si="4"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="N72" s="8">
-        <f t="shared" si="5"/>
-        <v>0.55029421487603292</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>30</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73" s="6">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="H73" s="6">
-        <v>0.187</v>
-      </c>
-      <c r="I73" s="6">
-        <v>0.307</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0.316</v>
-      </c>
-      <c r="K73" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="L73" s="8">
-        <f t="shared" si="3"/>
-        <v>0.72249999999999992</v>
-      </c>
-      <c r="M73" s="8">
-        <f t="shared" si="4"/>
-        <v>0.15899999999999997</v>
-      </c>
-      <c r="N73" s="8">
-        <f t="shared" si="5"/>
+        <f>(H71/I71)^2</f>
         <v>0.37102780931362672</v>
       </c>
     </row>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N195"/>
+  <dimension ref="A1:N265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1701,28 +1701,28 @@
         </is>
       </c>
       <c r="G25">
-        <v>63.017</v>
+        <v>66.343</v>
       </c>
       <c r="H25">
-        <v>8.374000000000001</v>
+        <v>8.462999999999999</v>
       </c>
       <c r="I25">
-        <v>11.085</v>
+        <v>11.307</v>
       </c>
       <c r="J25">
-        <v>66.05800000000001</v>
+        <v>67.224</v>
       </c>
       <c r="K25">
-        <v>15.767</v>
+        <v>15.652</v>
       </c>
       <c r="L25">
-        <v>0.282077066105632</v>
+        <v>0.2923539751216874</v>
       </c>
       <c r="M25">
-        <v>-3.041000000000004</v>
+        <v>-0.07002132515134303</v>
       </c>
       <c r="N25">
-        <v>0.5706824515283446</v>
+        <v>0.5602139220537935</v>
       </c>
     </row>
     <row r="26">
@@ -1755,28 +1755,28 @@
         </is>
       </c>
       <c r="G26">
-        <v>75.879</v>
+        <v>79.758</v>
       </c>
       <c r="H26">
-        <v>9.279</v>
+        <v>9.228999999999999</v>
       </c>
       <c r="I26">
-        <v>12.245</v>
+        <v>12.203</v>
       </c>
       <c r="J26">
-        <v>69.431</v>
+        <v>72.267</v>
       </c>
       <c r="K26">
-        <v>16.475</v>
+        <v>16.346</v>
       </c>
       <c r="L26">
-        <v>0.3172133839610758</v>
+        <v>0.3187765035350122</v>
       </c>
       <c r="M26">
-        <v>6.448000000000008</v>
+        <v>0.564361916928276</v>
       </c>
       <c r="N26">
-        <v>0.5742285357095279</v>
+        <v>0.5719737125535989</v>
       </c>
     </row>
     <row r="27">
@@ -1827,7 +1827,7 @@
         <v>0.2950384514450273</v>
       </c>
       <c r="M27">
-        <v>9.280999999999999</v>
+        <v>2.208250884013095</v>
       </c>
       <c r="N27">
         <v>0.03772733070686926</v>
@@ -1863,28 +1863,28 @@
         </is>
       </c>
       <c r="G28">
-        <v>-3.582</v>
+        <v>-3.757</v>
       </c>
       <c r="H28">
-        <v>1.707</v>
+        <v>1.717</v>
       </c>
       <c r="I28">
-        <v>2.245</v>
+        <v>2.295</v>
       </c>
       <c r="J28">
-        <v>-4.833</v>
+        <v>-4.769</v>
       </c>
       <c r="K28">
-        <v>1.897</v>
+        <v>1.983</v>
       </c>
       <c r="L28">
-        <v>0.8097153650202066</v>
+        <v>0.749713207752533</v>
       </c>
       <c r="M28">
-        <v>1.251</v>
+        <v>0.545618843958073</v>
       </c>
       <c r="N28">
-        <v>0.5781417750904013</v>
+        <v>0.5597256515775035</v>
       </c>
     </row>
     <row r="29">
@@ -2079,28 +2079,28 @@
         </is>
       </c>
       <c r="G32">
-        <v>-16.663</v>
+        <v>-11.984</v>
       </c>
       <c r="H32">
-        <v>9.539999999999999</v>
+        <v>9.316000000000001</v>
       </c>
       <c r="I32">
-        <v>10.135</v>
+        <v>9.872</v>
       </c>
       <c r="J32">
-        <v>-16.348</v>
+        <v>-13.065</v>
       </c>
       <c r="K32">
-        <v>10.438</v>
+        <v>10.134</v>
       </c>
       <c r="L32">
-        <v>0.8353378580724156</v>
+        <v>0.8450787082850997</v>
       </c>
       <c r="M32">
-        <v>-0.3150000000000013</v>
+        <v>0.1110586380353865</v>
       </c>
       <c r="N32">
-        <v>0.88603166575357</v>
+        <v>0.8905302293998515</v>
       </c>
     </row>
     <row r="33">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="G33">
-        <v>-0.051</v>
+        <v>-0.048</v>
       </c>
       <c r="H33">
         <v>0.032</v>
@@ -2142,7 +2142,7 @@
         <v>0.034</v>
       </c>
       <c r="J33">
-        <v>-0.046</v>
+        <v>-0.05</v>
       </c>
       <c r="K33">
         <v>0.035</v>
@@ -2151,7 +2151,7 @@
         <v>0.8359183673469387</v>
       </c>
       <c r="M33">
-        <v>-0.004999999999999998</v>
+        <v>0.05964173459175538</v>
       </c>
       <c r="N33">
         <v>0.8858131487889274</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>continuous</t>
+          <t>countinuous</t>
         </is>
       </c>
       <c r="G34">
@@ -2205,7 +2205,7 @@
         <v>0.3469497323022011</v>
       </c>
       <c r="M34">
-        <v>0.09</v>
+        <v>0.1337420453647044</v>
       </c>
       <c r="N34">
         <v>0.06035694290217523</v>
@@ -10903,6 +10903,3786 @@
       </c>
       <c r="N195">
         <v>0.9843139686279373</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>14</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>YS_squat_6w</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G196">
+        <v>17.125</v>
+      </c>
+      <c r="H196">
+        <v>4.014</v>
+      </c>
+      <c r="I196">
+        <v>5.54</v>
+      </c>
+      <c r="J196">
+        <v>18.957</v>
+      </c>
+      <c r="K196">
+        <v>6.837</v>
+      </c>
+      <c r="L196">
+        <v>0.3446859462967773</v>
+      </c>
+      <c r="M196">
+        <v>-0.3267867613683088</v>
+      </c>
+      <c r="N196">
+        <v>0.5249708715088168</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>14</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>YS_squat_28w</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G197">
+        <v>22.402</v>
+      </c>
+      <c r="H197">
+        <v>3.742</v>
+      </c>
+      <c r="I197">
+        <v>5.217</v>
+      </c>
+      <c r="J197">
+        <v>20.329</v>
+      </c>
+      <c r="K197">
+        <v>6.186</v>
+      </c>
+      <c r="L197">
+        <v>0.3659213377641429</v>
+      </c>
+      <c r="M197">
+        <v>0.4055006358505606</v>
+      </c>
+      <c r="N197">
+        <v>0.51447691558785</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>14</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>YS_fvc_6w</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G198">
+        <v>0.052</v>
+      </c>
+      <c r="H198">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I198">
+        <v>0.113</v>
+      </c>
+      <c r="J198">
+        <v>-0.031</v>
+      </c>
+      <c r="K198">
+        <v>0.166</v>
+      </c>
+      <c r="L198">
+        <v>0.2683988967919871</v>
+      </c>
+      <c r="M198">
+        <v>0.6278516997856907</v>
+      </c>
+      <c r="N198">
+        <v>0.5792152870232594</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>14</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>YS_fvc_28w</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G199">
+        <v>0.019</v>
+      </c>
+      <c r="H199">
+        <v>0.067</v>
+      </c>
+      <c r="I199">
+        <v>0.09</v>
+      </c>
+      <c r="J199">
+        <v>-0.059</v>
+      </c>
+      <c r="K199">
+        <v>0.15</v>
+      </c>
+      <c r="L199">
+        <v>0.1995111111111111</v>
+      </c>
+      <c r="M199">
+        <v>0.6714539049238134</v>
+      </c>
+      <c r="N199">
+        <v>0.5541975308641975</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>YS_fev1_6w</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G200">
+        <v>0.067</v>
+      </c>
+      <c r="H200">
+        <v>0.079</v>
+      </c>
+      <c r="I200">
+        <v>0.107</v>
+      </c>
+      <c r="J200">
+        <v>0.02</v>
+      </c>
+      <c r="K200">
+        <v>0.142</v>
+      </c>
+      <c r="L200">
+        <v>0.3095120015869868</v>
+      </c>
+      <c r="M200">
+        <v>0.4090437581254016</v>
+      </c>
+      <c r="N200">
+        <v>0.5451131103153113</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>14</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>YS_fev1_28w</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G201">
+        <v>-0.004</v>
+      </c>
+      <c r="H201">
+        <v>0.066</v>
+      </c>
+      <c r="I201">
+        <v>0.09</v>
+      </c>
+      <c r="J201">
+        <v>-0.047</v>
+      </c>
+      <c r="K201">
+        <v>0.13</v>
+      </c>
+      <c r="L201">
+        <v>0.2577514792899408</v>
+      </c>
+      <c r="M201">
+        <v>0.4171023941746138</v>
+      </c>
+      <c r="N201">
+        <v>0.5377777777777779</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>14</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>YS_fevfvc_6w</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G202">
+        <v>0.019</v>
+      </c>
+      <c r="H202">
+        <v>0.019</v>
+      </c>
+      <c r="I202">
+        <v>0.026</v>
+      </c>
+      <c r="J202">
+        <v>0.02</v>
+      </c>
+      <c r="K202">
+        <v>0.021</v>
+      </c>
+      <c r="L202">
+        <v>0.8185941043083899</v>
+      </c>
+      <c r="M202">
+        <v>-0.04993761694389228</v>
+      </c>
+      <c r="N202">
+        <v>0.5340236686390534</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>YS_fevfvc_28w</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G203">
+        <v>-0.004</v>
+      </c>
+      <c r="H203">
+        <v>0.015</v>
+      </c>
+      <c r="I203">
+        <v>0.021</v>
+      </c>
+      <c r="J203">
+        <v>-0.003</v>
+      </c>
+      <c r="K203">
+        <v>0.017</v>
+      </c>
+      <c r="L203">
+        <v>0.7785467128027679</v>
+      </c>
+      <c r="M203">
+        <v>-0.06237828615518054</v>
+      </c>
+      <c r="N203">
+        <v>0.510204081632653</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>YS_mvv_6w</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G204">
+        <v>8.414999999999999</v>
+      </c>
+      <c r="H204">
+        <v>3.217</v>
+      </c>
+      <c r="I204">
+        <v>4.6</v>
+      </c>
+      <c r="J204">
+        <v>13.187</v>
+      </c>
+      <c r="K204">
+        <v>5.869</v>
+      </c>
+      <c r="L204">
+        <v>0.3004511722270655</v>
+      </c>
+      <c r="M204">
+        <v>-1.008333736884839</v>
+      </c>
+      <c r="N204">
+        <v>0.489087381852552</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>14</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>YS_mvv_28w</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G205">
+        <v>2.837</v>
+      </c>
+      <c r="H205">
+        <v>3.225</v>
+      </c>
+      <c r="I205">
+        <v>4.723</v>
+      </c>
+      <c r="J205">
+        <v>8.085000000000001</v>
+      </c>
+      <c r="K205">
+        <v>6.396</v>
+      </c>
+      <c r="L205">
+        <v>0.2542392084874811</v>
+      </c>
+      <c r="M205">
+        <v>-1.036120299967556</v>
+      </c>
+      <c r="N205">
+        <v>0.4662550479722958</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>14</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>YS_pef_6w</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G206">
+        <v>0.386</v>
+      </c>
+      <c r="H206">
+        <v>0.285</v>
+      </c>
+      <c r="I206">
+        <v>0.402</v>
+      </c>
+      <c r="J206">
+        <v>0.532</v>
+      </c>
+      <c r="K206">
+        <v>0.43</v>
+      </c>
+      <c r="L206">
+        <v>0.4392915089237425</v>
+      </c>
+      <c r="M206">
+        <v>-0.4002441716002284</v>
+      </c>
+      <c r="N206">
+        <v>0.5026175094675873</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>YS_pef_28w</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G207">
+        <v>0.209</v>
+      </c>
+      <c r="H207">
+        <v>0.276</v>
+      </c>
+      <c r="I207">
+        <v>0.396</v>
+      </c>
+      <c r="J207">
+        <v>0.195</v>
+      </c>
+      <c r="K207">
+        <v>0.43</v>
+      </c>
+      <c r="L207">
+        <v>0.4119848566792862</v>
+      </c>
+      <c r="M207">
+        <v>0.03874891607107165</v>
+      </c>
+      <c r="N207">
+        <v>0.4857667584940313</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>14</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>YS_SF12_PCS_6w</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G208">
+        <v>2.932</v>
+      </c>
+      <c r="H208">
+        <v>1.089</v>
+      </c>
+      <c r="I208">
+        <v>1.536</v>
+      </c>
+      <c r="J208">
+        <v>3.248</v>
+      </c>
+      <c r="K208">
+        <v>1.458</v>
+      </c>
+      <c r="L208">
+        <v>0.5578798963572625</v>
+      </c>
+      <c r="M208">
+        <v>-0.2455712777629243</v>
+      </c>
+      <c r="N208">
+        <v>0.5026588439941406</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>YS_SF12_PCS_28w</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G209">
+        <v>2.417</v>
+      </c>
+      <c r="H209">
+        <v>1.353</v>
+      </c>
+      <c r="I209">
+        <v>1.892</v>
+      </c>
+      <c r="J209">
+        <v>2.387</v>
+      </c>
+      <c r="K209">
+        <v>1.679</v>
+      </c>
+      <c r="L209">
+        <v>0.6493729605209715</v>
+      </c>
+      <c r="M209">
+        <v>0.01967551556384487</v>
+      </c>
+      <c r="N209">
+        <v>0.5113912925905896</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>14</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>YS_SF12_MCS_6w</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G210">
+        <v>2.69</v>
+      </c>
+      <c r="H210">
+        <v>1.391</v>
+      </c>
+      <c r="I210">
+        <v>1.919</v>
+      </c>
+      <c r="J210">
+        <v>2.107</v>
+      </c>
+      <c r="K210">
+        <v>1.631</v>
+      </c>
+      <c r="L210">
+        <v>0.7273548480712257</v>
+      </c>
+      <c r="M210">
+        <v>0.3846261519229592</v>
+      </c>
+      <c r="N210">
+        <v>0.5254172300200866</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>14</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>YS_SF12_MCS_28w</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G211">
+        <v>1.965</v>
+      </c>
+      <c r="H211">
+        <v>1.333</v>
+      </c>
+      <c r="I211">
+        <v>1.847</v>
+      </c>
+      <c r="J211">
+        <v>2.686</v>
+      </c>
+      <c r="K211">
+        <v>1.621</v>
+      </c>
+      <c r="L211">
+        <v>0.6762297437130871</v>
+      </c>
+      <c r="M211">
+        <v>-0.4858480638426895</v>
+      </c>
+      <c r="N211">
+        <v>0.5208665979365125</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>14</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>YS_dyspnea_6w</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G212">
+        <v>0.324</v>
+      </c>
+      <c r="H212">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I212">
+        <v>0.1</v>
+      </c>
+      <c r="J212">
+        <v>0.262</v>
+      </c>
+      <c r="K212">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="L212">
+        <v>0.6944444444444445</v>
+      </c>
+      <c r="M212">
+        <v>0.8018880363765927</v>
+      </c>
+      <c r="N212">
+        <v>0.4900000000000001</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>14</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>YS_dyspnea_28w</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G213">
+        <v>0.188</v>
+      </c>
+      <c r="H213">
+        <v>0.083</v>
+      </c>
+      <c r="I213">
+        <v>0.118</v>
+      </c>
+      <c r="J213">
+        <v>0.125</v>
+      </c>
+      <c r="K213">
+        <v>0.096</v>
+      </c>
+      <c r="L213">
+        <v>0.7475043402777778</v>
+      </c>
+      <c r="M213">
+        <v>0.702061540540423</v>
+      </c>
+      <c r="N213">
+        <v>0.4947572536627408</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>YS_dyspnea_2w</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G214">
+        <v>0.074</v>
+      </c>
+      <c r="H214">
+        <v>0.083</v>
+      </c>
+      <c r="I214">
+        <v>0.117</v>
+      </c>
+      <c r="J214">
+        <v>0.102</v>
+      </c>
+      <c r="K214">
+        <v>0.101</v>
+      </c>
+      <c r="L214">
+        <v>0.6753259484364277</v>
+      </c>
+      <c r="M214">
+        <v>-0.3029019002034644</v>
+      </c>
+      <c r="N214">
+        <v>0.5032507853020673</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>14</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>YS_dyspnea_4w</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G215">
+        <v>-0.045</v>
+      </c>
+      <c r="H215">
+        <v>0.081</v>
+      </c>
+      <c r="I215">
+        <v>0.115</v>
+      </c>
+      <c r="J215">
+        <v>0.001</v>
+      </c>
+      <c r="K215">
+        <v>0.098</v>
+      </c>
+      <c r="L215">
+        <v>0.6831528529779259</v>
+      </c>
+      <c r="M215">
+        <v>-0.5116641335741082</v>
+      </c>
+      <c r="N215">
+        <v>0.4961058601134216</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>14</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TERECO</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>No Active Rehabilitation</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>YS_AE</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G216">
+        <v>-0.025</v>
+      </c>
+      <c r="H216">
+        <v>0.077</v>
+      </c>
+      <c r="I216">
+        <v>0.108</v>
+      </c>
+      <c r="J216">
+        <v>-0.052</v>
+      </c>
+      <c r="K216">
+        <v>0.094</v>
+      </c>
+      <c r="L216">
+        <v>0.6710049796287914</v>
+      </c>
+      <c r="M216">
+        <v>0.31424041260095</v>
+      </c>
+      <c r="N216">
+        <v>0.5083161865569272</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>15</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>YS_delta_CBCLTotal_4w</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G217">
+        <v>-16.573</v>
+      </c>
+      <c r="H217">
+        <v>2.937</v>
+      </c>
+      <c r="I217">
+        <v>10.957</v>
+      </c>
+      <c r="J217">
+        <v>-3.571</v>
+      </c>
+      <c r="K217">
+        <v>5.025</v>
+      </c>
+      <c r="L217">
+        <v>0.3416140788594341</v>
+      </c>
+      <c r="M217">
+        <v>-3.159186681947451</v>
+      </c>
+      <c r="N217">
+        <v>0.07184963558085368</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>15</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>YS_delta_Internal_4w</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G218">
+        <v>-4.897</v>
+      </c>
+      <c r="H218">
+        <v>1.641</v>
+      </c>
+      <c r="I218">
+        <v>10.773</v>
+      </c>
+      <c r="J218">
+        <v>-1.929</v>
+      </c>
+      <c r="K218">
+        <v>4.717</v>
+      </c>
+      <c r="L218">
+        <v>0.1210278754390601</v>
+      </c>
+      <c r="M218">
+        <v>-0.8404363196057876</v>
+      </c>
+      <c r="N218">
+        <v>0.02320298409937713</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>15</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>YS_delta_External_4w</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G219">
+        <v>-29.073</v>
+      </c>
+      <c r="H219">
+        <v>4.157</v>
+      </c>
+      <c r="I219">
+        <v>14.46</v>
+      </c>
+      <c r="J219">
+        <v>-10.214</v>
+      </c>
+      <c r="K219">
+        <v>6.654</v>
+      </c>
+      <c r="L219">
+        <v>0.3902963195445558</v>
+      </c>
+      <c r="M219">
+        <v>-3.399360121114572</v>
+      </c>
+      <c r="N219">
+        <v>0.08264630908176128</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>15</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>YS_delta_Anx_Dep_4w</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G220">
+        <v>-12.274</v>
+      </c>
+      <c r="H220">
+        <v>4.192</v>
+      </c>
+      <c r="I220">
+        <v>15.858</v>
+      </c>
+      <c r="J220">
+        <v>6.643</v>
+      </c>
+      <c r="K220">
+        <v>8.369</v>
+      </c>
+      <c r="L220">
+        <v>0.2508969675269593</v>
+      </c>
+      <c r="M220">
+        <v>-2.858136222396288</v>
+      </c>
+      <c r="N220">
+        <v>0.06987884545590572</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>15</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>YS_delta_Somatic_4w</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G221">
+        <v>-7.574</v>
+      </c>
+      <c r="H221">
+        <v>2.986</v>
+      </c>
+      <c r="I221">
+        <v>15.433</v>
+      </c>
+      <c r="J221">
+        <v>3.786</v>
+      </c>
+      <c r="K221">
+        <v>8.076000000000001</v>
+      </c>
+      <c r="L221">
+        <v>0.1367058143280244</v>
+      </c>
+      <c r="M221">
+        <v>-1.865833894769579</v>
+      </c>
+      <c r="N221">
+        <v>0.03743509110552425</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>15</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>YS_delta_Withdrawn_4w</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G222">
+        <v>-5.066</v>
+      </c>
+      <c r="H222">
+        <v>2.803</v>
+      </c>
+      <c r="I222">
+        <v>15.647</v>
+      </c>
+      <c r="J222">
+        <v>4.714</v>
+      </c>
+      <c r="K222">
+        <v>8.083</v>
+      </c>
+      <c r="L222">
+        <v>0.1202544172073209</v>
+      </c>
+      <c r="M222">
+        <v>-1.616675814484574</v>
+      </c>
+      <c r="N222">
+        <v>0.0320910576263577</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>15</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>YS_delta_Sleep_4w</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G223">
+        <v>-7.464</v>
+      </c>
+      <c r="H223">
+        <v>4.276</v>
+      </c>
+      <c r="I223">
+        <v>25.239</v>
+      </c>
+      <c r="J223">
+        <v>3.643</v>
+      </c>
+      <c r="K223">
+        <v>10.128</v>
+      </c>
+      <c r="L223">
+        <v>0.1782493717072343</v>
+      </c>
+      <c r="M223">
+        <v>-1.428793509166971</v>
+      </c>
+      <c r="N223">
+        <v>0.02870325212581101</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>15</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>YS_delta_Attention_4w</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G224">
+        <v>-11.401</v>
+      </c>
+      <c r="H224">
+        <v>2.072</v>
+      </c>
+      <c r="I224">
+        <v>12.06</v>
+      </c>
+      <c r="J224">
+        <v>-4.929</v>
+      </c>
+      <c r="K224">
+        <v>5.834</v>
+      </c>
+      <c r="L224">
+        <v>0.1261382067623635</v>
+      </c>
+      <c r="M224">
+        <v>-1.478397553126798</v>
+      </c>
+      <c r="N224">
+        <v>0.02951786121905673</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>15</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>YS_delta_Aggressive_4w</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G225">
+        <v>-33.233</v>
+      </c>
+      <c r="H225">
+        <v>4.849</v>
+      </c>
+      <c r="I225">
+        <v>15.341</v>
+      </c>
+      <c r="J225">
+        <v>-10.357</v>
+      </c>
+      <c r="K225">
+        <v>7.957</v>
+      </c>
+      <c r="L225">
+        <v>0.3713690033281661</v>
+      </c>
+      <c r="M225">
+        <v>-3.471910834763683</v>
+      </c>
+      <c r="N225">
+        <v>0.09990725538594769</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>15</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>YS_delta_Others_4w</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G226">
+        <v>-11.724</v>
+      </c>
+      <c r="H226">
+        <v>3.287</v>
+      </c>
+      <c r="I226">
+        <v>17.16</v>
+      </c>
+      <c r="J226">
+        <v>-1.5</v>
+      </c>
+      <c r="K226">
+        <v>5.618</v>
+      </c>
+      <c r="L226">
+        <v>0.3423228888074122</v>
+      </c>
+      <c r="M226">
+        <v>-2.221394058503829</v>
+      </c>
+      <c r="N226">
+        <v>0.03669144715036324</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>15</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>YS_delta_Child_Stress_4w</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G227">
+        <v>5.513</v>
+      </c>
+      <c r="H227">
+        <v>2.673</v>
+      </c>
+      <c r="I227">
+        <v>11.185</v>
+      </c>
+      <c r="J227">
+        <v>-6.643</v>
+      </c>
+      <c r="K227">
+        <v>6.907</v>
+      </c>
+      <c r="L227">
+        <v>0.1497679914596391</v>
+      </c>
+      <c r="M227">
+        <v>2.32119232649918</v>
+      </c>
+      <c r="N227">
+        <v>0.05711181217101181</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>15</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>YS_delta_Parent_Stress_4w</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G228">
+        <v>4.129</v>
+      </c>
+      <c r="H228">
+        <v>2.615</v>
+      </c>
+      <c r="I228">
+        <v>13.966</v>
+      </c>
+      <c r="J228">
+        <v>-3.929</v>
+      </c>
+      <c r="K228">
+        <v>5.018</v>
+      </c>
+      <c r="L228">
+        <v>0.2715701751891675</v>
+      </c>
+      <c r="M228">
+        <v>2.013916394947672</v>
+      </c>
+      <c r="N228">
+        <v>0.03505898277252736</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>15</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Conventional+Snoezelen</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Conventional Only</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>YS_delta_PSI_Total_4w</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G229">
+        <v>4.714</v>
+      </c>
+      <c r="H229">
+        <v>3.223</v>
+      </c>
+      <c r="I229">
+        <v>13.162</v>
+      </c>
+      <c r="J229">
+        <v>-9.429</v>
+      </c>
+      <c r="K229">
+        <v>6.939</v>
+      </c>
+      <c r="L229">
+        <v>0.2157380932695332</v>
+      </c>
+      <c r="M229">
+        <v>2.614204989913999</v>
+      </c>
+      <c r="N229">
+        <v>0.05996210051632709</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>16</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Internet Delivered</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Waitlist</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>YS_delta_MADRS_9w</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G230">
+        <v>-3.164</v>
+      </c>
+      <c r="H230">
+        <v>1.814</v>
+      </c>
+      <c r="I230">
+        <v>2.343</v>
+      </c>
+      <c r="J230">
+        <v>-4.515</v>
+      </c>
+      <c r="K230">
+        <v>2.168</v>
+      </c>
+      <c r="L230">
+        <v>0.7000934423550876</v>
+      </c>
+      <c r="M230">
+        <v>0.6758879019950959</v>
+      </c>
+      <c r="N230">
+        <v>0.5994182870343806</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>16</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Internet Delivered</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Waitlist</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>YS_delta_BAI_9w</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G231">
+        <v>-1.195</v>
+      </c>
+      <c r="H231">
+        <v>0.998</v>
+      </c>
+      <c r="I231">
+        <v>1.299</v>
+      </c>
+      <c r="J231">
+        <v>-0.538</v>
+      </c>
+      <c r="K231">
+        <v>1.569</v>
+      </c>
+      <c r="L231">
+        <v>0.4045900475310154</v>
+      </c>
+      <c r="M231">
+        <v>-0.4996692579611577</v>
+      </c>
+      <c r="N231">
+        <v>0.5902592211335659</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>16</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Internet Delivered</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Waitlist</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>YS_delta_QOLI_9w</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G232">
+        <v>0.25</v>
+      </c>
+      <c r="H232">
+        <v>0.275</v>
+      </c>
+      <c r="I232">
+        <v>0.36</v>
+      </c>
+      <c r="J232">
+        <v>0.294</v>
+      </c>
+      <c r="K232">
+        <v>0.341</v>
+      </c>
+      <c r="L232">
+        <v>0.6503642039542142</v>
+      </c>
+      <c r="M232">
+        <v>-0.1420441648456869</v>
+      </c>
+      <c r="N232">
+        <v>0.5835262345679013</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>16</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Internet Delivered</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Waitlist</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>YS_delta_IPAQ_9w</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G233">
+        <v>296.887</v>
+      </c>
+      <c r="H233">
+        <v>218.513</v>
+      </c>
+      <c r="I233">
+        <v>288.663</v>
+      </c>
+      <c r="J233">
+        <v>363.316</v>
+      </c>
+      <c r="K233">
+        <v>299.872</v>
+      </c>
+      <c r="L233">
+        <v>0.5309855795760411</v>
+      </c>
+      <c r="M233">
+        <v>-0.2531927386668983</v>
+      </c>
+      <c r="N233">
+        <v>0.5730233476263716</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>17</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>combine3</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>YP_delta_LDL_24w</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G234">
+        <v>-0.976</v>
+      </c>
+      <c r="H234">
+        <v>0.131</v>
+      </c>
+      <c r="I234">
+        <v>0.144</v>
+      </c>
+      <c r="J234">
+        <v>-1.13</v>
+      </c>
+      <c r="K234">
+        <v>0.177</v>
+      </c>
+      <c r="L234">
+        <v>0.5477672444061413</v>
+      </c>
+      <c r="M234">
+        <v>0.9890303677145087</v>
+      </c>
+      <c r="N234">
+        <v>0.8275945216049384</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>17</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>statin_EZ</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>YP_delta_LDL_24w</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G235">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="H235">
+        <v>0.137</v>
+      </c>
+      <c r="I235">
+        <v>0.143</v>
+      </c>
+      <c r="J235">
+        <v>-0.361</v>
+      </c>
+      <c r="K235">
+        <v>0.176</v>
+      </c>
+      <c r="L235">
+        <v>0.6059207128099175</v>
+      </c>
+      <c r="M235">
+        <v>1.74370484416837</v>
+      </c>
+      <c r="N235">
+        <v>0.9178443933688692</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>17</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>statin_pcsk9</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>YP_delta_LDL_24w</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G236">
+        <v>-0.633</v>
+      </c>
+      <c r="H236">
+        <v>0.146</v>
+      </c>
+      <c r="I236">
+        <v>0.143</v>
+      </c>
+      <c r="J236">
+        <v>-0.645</v>
+      </c>
+      <c r="K236">
+        <v>0.175</v>
+      </c>
+      <c r="L236">
+        <v>0.6960326530612245</v>
+      </c>
+      <c r="M236">
+        <v>0.0744630962301398</v>
+      </c>
+      <c r="N236">
+        <v>1.04239816127928</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>17</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>combine3</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>YS_delta_TC_24w</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G237">
+        <v>-1.035</v>
+      </c>
+      <c r="H237">
+        <v>0.147</v>
+      </c>
+      <c r="I237">
+        <v>0.163</v>
+      </c>
+      <c r="J237">
+        <v>-1.186</v>
+      </c>
+      <c r="K237">
+        <v>0.194</v>
+      </c>
+      <c r="L237">
+        <v>0.5741577213306408</v>
+      </c>
+      <c r="M237">
+        <v>0.8773362887887534</v>
+      </c>
+      <c r="N237">
+        <v>0.8133162708419585</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>17</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>statin_EZ</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>YS_delta_TC_24w</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G238">
+        <v>-0.027</v>
+      </c>
+      <c r="H238">
+        <v>0.149</v>
+      </c>
+      <c r="I238">
+        <v>0.162</v>
+      </c>
+      <c r="J238">
+        <v>-0.291</v>
+      </c>
+      <c r="K238">
+        <v>0.194</v>
+      </c>
+      <c r="L238">
+        <v>0.589887341906685</v>
+      </c>
+      <c r="M238">
+        <v>1.526279316693969</v>
+      </c>
+      <c r="N238">
+        <v>0.8459457399786617</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>17</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>statin_pcsk9</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>YS_delta_TC_24w</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G239">
+        <v>-0.607</v>
+      </c>
+      <c r="H239">
+        <v>0.156</v>
+      </c>
+      <c r="I239">
+        <v>0.162</v>
+      </c>
+      <c r="J239">
+        <v>-0.608</v>
+      </c>
+      <c r="K239">
+        <v>0.193</v>
+      </c>
+      <c r="L239">
+        <v>0.6533329753818894</v>
+      </c>
+      <c r="M239">
+        <v>0.005698722703217023</v>
+      </c>
+      <c r="N239">
+        <v>0.9272976680384086</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>17</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>combine3</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>YS_delta_TG_24w</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G240">
+        <v>-0.223</v>
+      </c>
+      <c r="H240">
+        <v>0.101</v>
+      </c>
+      <c r="I240">
+        <v>0.098</v>
+      </c>
+      <c r="J240">
+        <v>-0.268</v>
+      </c>
+      <c r="K240">
+        <v>0.121</v>
+      </c>
+      <c r="L240">
+        <v>0.6967420258179088</v>
+      </c>
+      <c r="M240">
+        <v>0.4037701720329583</v>
+      </c>
+      <c r="N240">
+        <v>1.062161599333611</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>17</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>statin_EZ</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>YS_delta_TG_24w</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G241">
+        <v>0.003</v>
+      </c>
+      <c r="H241">
+        <v>0.098</v>
+      </c>
+      <c r="I241">
+        <v>0.098</v>
+      </c>
+      <c r="J241">
+        <v>-0.08400000000000001</v>
+      </c>
+      <c r="K241">
+        <v>0.12</v>
+      </c>
+      <c r="L241">
+        <v>0.6669444444444446</v>
+      </c>
+      <c r="M241">
+        <v>0.7941315335118696</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>17</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>statin_pcsk9</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>YS_delta_TG_24w</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G242">
+        <v>-0.14</v>
+      </c>
+      <c r="H242">
+        <v>0.092</v>
+      </c>
+      <c r="I242">
+        <v>0.097</v>
+      </c>
+      <c r="J242">
+        <v>-0.175</v>
+      </c>
+      <c r="K242">
+        <v>0.12</v>
+      </c>
+      <c r="L242">
+        <v>0.5877777777777778</v>
+      </c>
+      <c r="M242">
+        <v>0.3273459231363385</v>
+      </c>
+      <c r="N242">
+        <v>0.8995642469975554</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>17</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>combine3</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>YS_delta_HDL_24w</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G243">
+        <v>0.079</v>
+      </c>
+      <c r="H243">
+        <v>0.038</v>
+      </c>
+      <c r="I243">
+        <v>0.04</v>
+      </c>
+      <c r="J243">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K243">
+        <v>0.043</v>
+      </c>
+      <c r="L243">
+        <v>0.7809626825310979</v>
+      </c>
+      <c r="M243">
+        <v>-0.1971556009987097</v>
+      </c>
+      <c r="N243">
+        <v>0.9025</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>17</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>statin_EZ</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>YS_delta_HDL_24w</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G244">
+        <v>0.019</v>
+      </c>
+      <c r="H244">
+        <v>0.036</v>
+      </c>
+      <c r="I244">
+        <v>0.04</v>
+      </c>
+      <c r="J244">
+        <v>0.037</v>
+      </c>
+      <c r="K244">
+        <v>0.043</v>
+      </c>
+      <c r="L244">
+        <v>0.7009194159004868</v>
+      </c>
+      <c r="M244">
+        <v>-0.4539177628746204</v>
+      </c>
+      <c r="N244">
+        <v>0.8099999999999998</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>17</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>statin_pcsk9</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>statin</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>YS_delta_HDL_24w</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G245">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H245">
+        <v>0.037</v>
+      </c>
+      <c r="I245">
+        <v>0.04</v>
+      </c>
+      <c r="J245">
+        <v>0.106</v>
+      </c>
+      <c r="K245">
+        <v>0.043</v>
+      </c>
+      <c r="L245">
+        <v>0.740400216333153</v>
+      </c>
+      <c r="M245">
+        <v>-0.8974793788996106</v>
+      </c>
+      <c r="N245">
+        <v>0.8556249999999999</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>18</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>YS_delta_StigInternal_12m</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G246">
+        <v>-0.438</v>
+      </c>
+      <c r="H246">
+        <v>0.097</v>
+      </c>
+      <c r="I246">
+        <v>0.103</v>
+      </c>
+      <c r="J246">
+        <v>-0.4</v>
+      </c>
+      <c r="K246">
+        <v>0.129</v>
+      </c>
+      <c r="L246">
+        <v>0.5654107325280933</v>
+      </c>
+      <c r="M246">
+        <v>-0.3329620452971257</v>
+      </c>
+      <c r="N246">
+        <v>0.8868884909039495</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>18</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>YS_delta_StigAnticipate_12m</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G247">
+        <v>-0.392</v>
+      </c>
+      <c r="H247">
+        <v>0.076</v>
+      </c>
+      <c r="I247">
+        <v>0.081</v>
+      </c>
+      <c r="J247">
+        <v>-0.428</v>
+      </c>
+      <c r="K247">
+        <v>0.106</v>
+      </c>
+      <c r="L247">
+        <v>0.5140619437522249</v>
+      </c>
+      <c r="M247">
+        <v>0.3903370823475924</v>
+      </c>
+      <c r="N247">
+        <v>0.8803536046334399</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>18</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>YS_delta_StigEnact_12m</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G248">
+        <v>-0.053</v>
+      </c>
+      <c r="H248">
+        <v>0.037</v>
+      </c>
+      <c r="I248">
+        <v>0.039</v>
+      </c>
+      <c r="J248">
+        <v>-0.066</v>
+      </c>
+      <c r="K248">
+        <v>0.057</v>
+      </c>
+      <c r="L248">
+        <v>0.4213604185903354</v>
+      </c>
+      <c r="M248">
+        <v>0.2705399378043163</v>
+      </c>
+      <c r="N248">
+        <v>0.9000657462195923</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>18</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>YS_delta_StigOverall_12m</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G249">
+        <v>-0.294</v>
+      </c>
+      <c r="H249">
+        <v>0.057</v>
+      </c>
+      <c r="I249">
+        <v>0.061</v>
+      </c>
+      <c r="J249">
+        <v>-0.298</v>
+      </c>
+      <c r="K249">
+        <v>0.078</v>
+      </c>
+      <c r="L249">
+        <v>0.5340236686390534</v>
+      </c>
+      <c r="M249">
+        <v>0.05855505001214123</v>
+      </c>
+      <c r="N249">
+        <v>0.8731523783929052</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>18</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>YS_delta_yourHIVTotal_12m</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G250">
+        <v>0.719</v>
+      </c>
+      <c r="H250">
+        <v>0.159</v>
+      </c>
+      <c r="I250">
+        <v>0.168</v>
+      </c>
+      <c r="J250">
+        <v>0.594</v>
+      </c>
+      <c r="K250">
+        <v>0.235</v>
+      </c>
+      <c r="L250">
+        <v>0.4577818017202355</v>
+      </c>
+      <c r="M250">
+        <v>0.6230327646693145</v>
+      </c>
+      <c r="N250">
+        <v>0.8957270408163265</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>18</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>YS_delta_theirHIVTotal_12m</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G251">
+        <v>0.525</v>
+      </c>
+      <c r="H251">
+        <v>0.149</v>
+      </c>
+      <c r="I251">
+        <v>0.158</v>
+      </c>
+      <c r="J251">
+        <v>0.427</v>
+      </c>
+      <c r="K251">
+        <v>0.21</v>
+      </c>
+      <c r="L251">
+        <v>0.5034240362811792</v>
+      </c>
+      <c r="M251">
+        <v>0.5382462764962515</v>
+      </c>
+      <c r="N251">
+        <v>0.889320621695241</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>18</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>YS_delta_MaterialSupportMean_12m</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G252">
+        <v>0.294</v>
+      </c>
+      <c r="H252">
+        <v>0.124</v>
+      </c>
+      <c r="I252">
+        <v>0.132</v>
+      </c>
+      <c r="J252">
+        <v>0.269</v>
+      </c>
+      <c r="K252">
+        <v>0.164</v>
+      </c>
+      <c r="L252">
+        <v>0.571683521713266</v>
+      </c>
+      <c r="M252">
+        <v>0.1719604640933594</v>
+      </c>
+      <c r="N252">
+        <v>0.8824609733700641</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>18</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>YS_delta_EmotionalSupportMean_12m</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G253">
+        <v>0.327</v>
+      </c>
+      <c r="H253">
+        <v>0.113</v>
+      </c>
+      <c r="I253">
+        <v>0.12</v>
+      </c>
+      <c r="J253">
+        <v>0.281</v>
+      </c>
+      <c r="K253">
+        <v>0.145</v>
+      </c>
+      <c r="L253">
+        <v>0.6073246135552915</v>
+      </c>
+      <c r="M253">
+        <v>0.3538775644914654</v>
+      </c>
+      <c r="N253">
+        <v>0.8867361111111113</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>18</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>YS_delta_ClinicSupportMean_12m</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G254">
+        <v>0.286</v>
+      </c>
+      <c r="H254">
+        <v>0.13</v>
+      </c>
+      <c r="I254">
+        <v>0.138</v>
+      </c>
+      <c r="J254">
+        <v>0.353</v>
+      </c>
+      <c r="K254">
+        <v>0.162</v>
+      </c>
+      <c r="L254">
+        <v>0.6439567139155616</v>
+      </c>
+      <c r="M254">
+        <v>-0.4561730212640051</v>
+      </c>
+      <c r="N254">
+        <v>0.8874186095358118</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>18</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Kanyakla</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Standard Care</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>YS_delta_MedSupportMean_12m</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>countinuous</t>
+        </is>
+      </c>
+      <c r="G255">
+        <v>0.197</v>
+      </c>
+      <c r="H255">
+        <v>0.14</v>
+      </c>
+      <c r="I255">
+        <v>0.148</v>
+      </c>
+      <c r="J255">
+        <v>0.222</v>
+      </c>
+      <c r="K255">
+        <v>0.179</v>
+      </c>
+      <c r="L255">
+        <v>0.6117162385693331</v>
+      </c>
+      <c r="M255">
+        <v>-0.1555814034232514</v>
+      </c>
+      <c r="N255">
+        <v>0.8948137326515707</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>19</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_1d</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G256">
+        <v>0.282</v>
+      </c>
+      <c r="H256">
+        <v>0.152</v>
+      </c>
+      <c r="I256">
+        <v>0.508</v>
+      </c>
+      <c r="J256">
+        <v>-0.106</v>
+      </c>
+      <c r="K256">
+        <v>0.291</v>
+      </c>
+      <c r="L256">
+        <v>0.2728357010427369</v>
+      </c>
+      <c r="M256">
+        <v>1.671350595340035</v>
+      </c>
+      <c r="N256">
+        <v>0.0895281790563581</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>19</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_2d</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G257">
+        <v>-0.092</v>
+      </c>
+      <c r="H257">
+        <v>0.225</v>
+      </c>
+      <c r="I257">
+        <v>0.746</v>
+      </c>
+      <c r="J257">
+        <v>-0.8120000000000001</v>
+      </c>
+      <c r="K257">
+        <v>0.387</v>
+      </c>
+      <c r="L257">
+        <v>0.3380205516495403</v>
+      </c>
+      <c r="M257">
+        <v>2.274600536144734</v>
+      </c>
+      <c r="N257">
+        <v>0.090967734979767</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>19</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_3d</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G258">
+        <v>-0.359</v>
+      </c>
+      <c r="H258">
+        <v>0.209</v>
+      </c>
+      <c r="I258">
+        <v>0.755</v>
+      </c>
+      <c r="J258">
+        <v>-1.121</v>
+      </c>
+      <c r="K258">
+        <v>0.452</v>
+      </c>
+      <c r="L258">
+        <v>0.2138039392278173</v>
+      </c>
+      <c r="M258">
+        <v>2.164000033020302</v>
+      </c>
+      <c r="N258">
+        <v>0.0766299723696329</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>19</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_5d</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G259">
+        <v>-0.254</v>
+      </c>
+      <c r="H259">
+        <v>0.219</v>
+      </c>
+      <c r="I259">
+        <v>0.833</v>
+      </c>
+      <c r="J259">
+        <v>-1.042</v>
+      </c>
+      <c r="K259">
+        <v>0.462</v>
+      </c>
+      <c r="L259">
+        <v>0.2247006240512734</v>
+      </c>
+      <c r="M259">
+        <v>2.179637494956062</v>
+      </c>
+      <c r="N259">
+        <v>0.0691191242403324</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>19</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_6d</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G260">
+        <v>0.04</v>
+      </c>
+      <c r="H260">
+        <v>0.209</v>
+      </c>
+      <c r="I260">
+        <v>0.736</v>
+      </c>
+      <c r="J260">
+        <v>-0.6830000000000001</v>
+      </c>
+      <c r="K260">
+        <v>0.415</v>
+      </c>
+      <c r="L260">
+        <v>0.2536275221367397</v>
+      </c>
+      <c r="M260">
+        <v>2.200497803438775</v>
+      </c>
+      <c r="N260">
+        <v>0.0806374793241966</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>19</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_7d</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G261">
+        <v>0.146</v>
+      </c>
+      <c r="H261">
+        <v>0.211</v>
+      </c>
+      <c r="I261">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J261">
+        <v>-0.644</v>
+      </c>
+      <c r="K261">
+        <v>0.386</v>
+      </c>
+      <c r="L261">
+        <v>0.2988066793739428</v>
+      </c>
+      <c r="M261">
+        <v>2.539700636137375</v>
+      </c>
+      <c r="N261">
+        <v>0.09351186725477841</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>19</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_14d</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G262">
+        <v>0.339</v>
+      </c>
+      <c r="H262">
+        <v>0.161</v>
+      </c>
+      <c r="I262">
+        <v>0.274</v>
+      </c>
+      <c r="J262">
+        <v>-0.635</v>
+      </c>
+      <c r="K262">
+        <v>0.295</v>
+      </c>
+      <c r="L262">
+        <v>0.2978569376615915</v>
+      </c>
+      <c r="M262">
+        <v>4.098628232296035</v>
+      </c>
+      <c r="N262">
+        <v>0.3452634663540945</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>19</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_21d</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G263">
+        <v>0.315</v>
+      </c>
+      <c r="H263">
+        <v>0.168</v>
+      </c>
+      <c r="I263">
+        <v>0.405</v>
+      </c>
+      <c r="J263">
+        <v>-0.587</v>
+      </c>
+      <c r="K263">
+        <v>0.3</v>
+      </c>
+      <c r="L263">
+        <v>0.3136</v>
+      </c>
+      <c r="M263">
+        <v>3.709955588631351</v>
+      </c>
+      <c r="N263">
+        <v>0.1720713305898491</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>19</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>YS_CREATININE_28d</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G264">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="H264">
+        <v>0.15</v>
+      </c>
+      <c r="I264">
+        <v>0.429</v>
+      </c>
+      <c r="J264">
+        <v>-0.628</v>
+      </c>
+      <c r="K264">
+        <v>0.244</v>
+      </c>
+      <c r="L264">
+        <v>0.3779226014512228</v>
+      </c>
+      <c r="M264">
+        <v>3.456294972630688</v>
+      </c>
+      <c r="N264">
+        <v>0.1222553670106118</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>19</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Piggyback</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>YS_MASSIVE_ASCITES</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G265">
+        <v>0.188</v>
+      </c>
+      <c r="H265">
+        <v>0.061</v>
+      </c>
+      <c r="I265">
+        <v>0.236</v>
+      </c>
+      <c r="J265">
+        <v>0.051</v>
+      </c>
+      <c r="K265">
+        <v>0.106</v>
+      </c>
+      <c r="L265">
+        <v>0.3311676753292986</v>
+      </c>
+      <c r="M265">
+        <v>1.584212071222877</v>
+      </c>
+      <c r="N265">
+        <v>0.06680910657856939</v>
       </c>
     </row>
   </sheetData>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syl05\OneDrive\Desktop\UMICH\Summer 2025\RCT_Reseach\cleaned_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DFFDD6-CC68-43C2-A383-6812037E509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56E14B5-C221-4E7C-8AFB-3AE89AF309D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="418">
   <si>
     <t>Trial_No</t>
   </si>
@@ -1039,6 +1039,9 @@
     <t>YP_attendance_6m</t>
   </si>
   <si>
+    <t>categorical</t>
+  </si>
+  <si>
     <t>YS_delta_CD4_6m</t>
   </si>
   <si>
@@ -1189,7 +1192,88 @@
     <t>YS_EventMean</t>
   </si>
   <si>
-    <t>categorical</t>
+    <t>TASSH + HIC</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>YP_delta_SBP_12m</t>
+  </si>
+  <si>
+    <t>YS_BP_control_12m</t>
+  </si>
+  <si>
+    <t>Bamlanivimab/Etesevimab</t>
+  </si>
+  <si>
+    <t>Casirivimab/Imdevimab</t>
+  </si>
+  <si>
+    <t>YP_Progression_binary</t>
+  </si>
+  <si>
+    <t>Sotrovimab</t>
+  </si>
+  <si>
+    <t>YS_Symptom_duration_30d</t>
+  </si>
+  <si>
+    <t>YS_Death_14d</t>
+  </si>
+  <si>
+    <t>YS_Hospital_14d</t>
+  </si>
+  <si>
+    <t>Reframing</t>
+  </si>
+  <si>
+    <t>YP_TM_total_score</t>
+  </si>
+  <si>
+    <t>YS_willing_participate</t>
+  </si>
+  <si>
+    <t>Synbiotic</t>
+  </si>
+  <si>
+    <t>YP_sepsisdeath_60d</t>
+  </si>
+  <si>
+    <t>YS_delta_wt_60d</t>
+  </si>
+  <si>
+    <t>YS_sepsisB</t>
+  </si>
+  <si>
+    <t>YS_sepsisC</t>
+  </si>
+  <si>
+    <t>YS_diarrhea</t>
+  </si>
+  <si>
+    <t>YS_omphalitis</t>
+  </si>
+  <si>
+    <t>YS_local_inf</t>
+  </si>
+  <si>
+    <t>YS_abscess</t>
+  </si>
+  <si>
+    <t>Exercise</t>
+  </si>
+  <si>
+    <t>YP_delta_Total_weight_gain_delivery</t>
+  </si>
+  <si>
+    <t>YS_BMI_37w</t>
+  </si>
+  <si>
+    <t>YS_BMI_postPP</t>
+  </si>
+  <si>
+    <t>YS_IOM_delivery</t>
   </si>
 </sst>
 </file>
@@ -1542,16 +1626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298:XFD298"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="A378" sqref="A378:XFD378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -18426,7 +18507,7 @@
         <v>338</v>
       </c>
       <c r="F302" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="G302">
         <v>-0.29099999999999998</v>
@@ -18479,7 +18560,7 @@
         <v>20</v>
       </c>
       <c r="E303" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F303" t="s">
         <v>22</v>
@@ -18535,7 +18616,7 @@
         <v>20</v>
       </c>
       <c r="E304" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F304" t="s">
         <v>22</v>
@@ -18591,7 +18672,7 @@
         <v>20</v>
       </c>
       <c r="E305" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F305" t="s">
         <v>22</v>
@@ -18647,7 +18728,7 @@
         <v>20</v>
       </c>
       <c r="E306" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F306" t="s">
         <v>22</v>
@@ -18694,19 +18775,19 @@
         <v>27</v>
       </c>
       <c r="B307" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C307" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D307" t="s">
         <v>20</v>
       </c>
       <c r="E307" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F307" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="G307">
         <v>9.4E-2</v>
@@ -18750,16 +18831,16 @@
         <v>27</v>
       </c>
       <c r="B308" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C308" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D308" t="s">
         <v>20</v>
       </c>
       <c r="E308" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F308" t="s">
         <v>43</v>
@@ -18806,16 +18887,16 @@
         <v>27</v>
       </c>
       <c r="B309" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C309" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D309" t="s">
         <v>20</v>
       </c>
       <c r="E309" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F309" t="s">
         <v>22</v>
@@ -18862,19 +18943,19 @@
         <v>27</v>
       </c>
       <c r="B310" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C310" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D310" t="s">
         <v>20</v>
       </c>
       <c r="E310" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F310" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="G310">
         <v>1.2E-2</v>
@@ -18918,16 +18999,16 @@
         <v>27</v>
       </c>
       <c r="B311" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C311" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D311" t="s">
         <v>20</v>
       </c>
       <c r="E311" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F311" t="s">
         <v>22</v>
@@ -18974,16 +19055,16 @@
         <v>27</v>
       </c>
       <c r="B312" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C312" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D312" t="s">
         <v>20</v>
       </c>
       <c r="E312" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F312" t="s">
         <v>22</v>
@@ -19030,16 +19111,16 @@
         <v>27</v>
       </c>
       <c r="B313" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C313" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D313" t="s">
         <v>20</v>
       </c>
       <c r="E313" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F313" t="s">
         <v>43</v>
@@ -19086,16 +19167,16 @@
         <v>27</v>
       </c>
       <c r="B314" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C314" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D314" t="s">
         <v>20</v>
       </c>
       <c r="E314" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F314" t="s">
         <v>22</v>
@@ -19142,7 +19223,7 @@
         <v>28</v>
       </c>
       <c r="B315" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C315" t="s">
         <v>46</v>
@@ -19151,7 +19232,7 @@
         <v>20</v>
       </c>
       <c r="E315" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F315" t="s">
         <v>22</v>
@@ -19198,7 +19279,7 @@
         <v>28</v>
       </c>
       <c r="B316" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C316" t="s">
         <v>46</v>
@@ -19207,7 +19288,7 @@
         <v>20</v>
       </c>
       <c r="E316" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F316" t="s">
         <v>22</v>
@@ -19254,7 +19335,7 @@
         <v>28</v>
       </c>
       <c r="B317" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C317" t="s">
         <v>46</v>
@@ -19263,7 +19344,7 @@
         <v>20</v>
       </c>
       <c r="E317" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F317" t="s">
         <v>22</v>
@@ -19310,7 +19391,7 @@
         <v>28</v>
       </c>
       <c r="B318" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C318" t="s">
         <v>46</v>
@@ -19319,7 +19400,7 @@
         <v>20</v>
       </c>
       <c r="E318" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F318" t="s">
         <v>22</v>
@@ -19366,7 +19447,7 @@
         <v>28</v>
       </c>
       <c r="B319" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C319" t="s">
         <v>46</v>
@@ -19375,7 +19456,7 @@
         <v>20</v>
       </c>
       <c r="E319" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F319" t="s">
         <v>22</v>
@@ -19422,7 +19503,7 @@
         <v>28</v>
       </c>
       <c r="B320" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C320" t="s">
         <v>46</v>
@@ -19431,7 +19512,7 @@
         <v>20</v>
       </c>
       <c r="E320" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F320" t="s">
         <v>22</v>
@@ -19478,7 +19559,7 @@
         <v>28</v>
       </c>
       <c r="B321" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C321" t="s">
         <v>46</v>
@@ -19487,7 +19568,7 @@
         <v>20</v>
       </c>
       <c r="E321" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F321" t="s">
         <v>22</v>
@@ -19534,7 +19615,7 @@
         <v>28</v>
       </c>
       <c r="B322" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C322" t="s">
         <v>46</v>
@@ -19543,7 +19624,7 @@
         <v>20</v>
       </c>
       <c r="E322" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F322" t="s">
         <v>22</v>
@@ -19590,7 +19671,7 @@
         <v>28</v>
       </c>
       <c r="B323" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C323" t="s">
         <v>46</v>
@@ -19599,7 +19680,7 @@
         <v>20</v>
       </c>
       <c r="E323" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F323" t="s">
         <v>22</v>
@@ -19646,7 +19727,7 @@
         <v>28</v>
       </c>
       <c r="B324" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C324" t="s">
         <v>46</v>
@@ -19655,7 +19736,7 @@
         <v>20</v>
       </c>
       <c r="E324" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F324" t="s">
         <v>22</v>
@@ -19702,7 +19783,7 @@
         <v>28</v>
       </c>
       <c r="B325" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C325" t="s">
         <v>46</v>
@@ -19711,7 +19792,7 @@
         <v>20</v>
       </c>
       <c r="E325" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F325" t="s">
         <v>22</v>
@@ -19758,7 +19839,7 @@
         <v>28</v>
       </c>
       <c r="B326" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C326" t="s">
         <v>46</v>
@@ -19767,7 +19848,7 @@
         <v>20</v>
       </c>
       <c r="E326" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F326" t="s">
         <v>22</v>
@@ -19814,7 +19895,7 @@
         <v>28</v>
       </c>
       <c r="B327" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C327" t="s">
         <v>46</v>
@@ -19823,7 +19904,7 @@
         <v>20</v>
       </c>
       <c r="E327" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F327" t="s">
         <v>22</v>
@@ -19870,16 +19951,16 @@
         <v>29</v>
       </c>
       <c r="B328" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C328" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D328" t="s">
         <v>20</v>
       </c>
       <c r="E328" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F328" t="s">
         <v>22</v>
@@ -19926,16 +20007,16 @@
         <v>29</v>
       </c>
       <c r="B329" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C329" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D329" t="s">
         <v>20</v>
       </c>
       <c r="E329" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F329" t="s">
         <v>22</v>
@@ -19982,16 +20063,16 @@
         <v>29</v>
       </c>
       <c r="B330" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C330" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D330" t="s">
         <v>20</v>
       </c>
       <c r="E330" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F330" t="s">
         <v>22</v>
@@ -20038,16 +20119,16 @@
         <v>29</v>
       </c>
       <c r="B331" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C331" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D331" t="s">
         <v>20</v>
       </c>
       <c r="E331" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F331" t="s">
         <v>22</v>
@@ -20094,16 +20175,16 @@
         <v>29</v>
       </c>
       <c r="B332" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C332" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D332" t="s">
         <v>20</v>
       </c>
       <c r="E332" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F332" t="s">
         <v>22</v>
@@ -20150,16 +20231,16 @@
         <v>29</v>
       </c>
       <c r="B333" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C333" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D333" t="s">
         <v>20</v>
       </c>
       <c r="E333" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F333" t="s">
         <v>22</v>
@@ -20206,16 +20287,16 @@
         <v>29</v>
       </c>
       <c r="B334" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C334" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D334" t="s">
         <v>20</v>
       </c>
       <c r="E334" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F334" t="s">
         <v>22</v>
@@ -20262,16 +20343,16 @@
         <v>29</v>
       </c>
       <c r="B335" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C335" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D335" t="s">
         <v>20</v>
       </c>
       <c r="E335" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F335" t="s">
         <v>22</v>
@@ -20318,16 +20399,16 @@
         <v>30</v>
       </c>
       <c r="B336" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C336" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D336" t="s">
         <v>20</v>
       </c>
       <c r="E336" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F336" t="s">
         <v>22</v>
@@ -20374,16 +20455,16 @@
         <v>30</v>
       </c>
       <c r="B337" t="s">
+        <v>381</v>
+      </c>
+      <c r="C337" t="s">
+        <v>379</v>
+      </c>
+      <c r="D337" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" t="s">
         <v>380</v>
-      </c>
-      <c r="C337" t="s">
-        <v>378</v>
-      </c>
-      <c r="D337" t="s">
-        <v>20</v>
-      </c>
-      <c r="E337" t="s">
-        <v>379</v>
       </c>
       <c r="F337" t="s">
         <v>22</v>
@@ -20430,16 +20511,16 @@
         <v>30</v>
       </c>
       <c r="B338" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C338" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D338" t="s">
         <v>20</v>
       </c>
       <c r="E338" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F338" t="s">
         <v>22</v>
@@ -20486,16 +20567,16 @@
         <v>30</v>
       </c>
       <c r="B339" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C339" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D339" t="s">
         <v>20</v>
       </c>
       <c r="E339" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F339" t="s">
         <v>22</v>
@@ -20542,16 +20623,16 @@
         <v>30</v>
       </c>
       <c r="B340" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C340" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D340" t="s">
         <v>20</v>
       </c>
       <c r="E340" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F340" t="s">
         <v>22</v>
@@ -20598,16 +20679,16 @@
         <v>30</v>
       </c>
       <c r="B341" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C341" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D341" t="s">
         <v>20</v>
       </c>
       <c r="E341" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F341" t="s">
         <v>22</v>
@@ -20654,16 +20735,16 @@
         <v>30</v>
       </c>
       <c r="B342" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C342" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D342" t="s">
         <v>20</v>
       </c>
       <c r="E342" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F342" t="s">
         <v>22</v>
@@ -20710,16 +20791,16 @@
         <v>30</v>
       </c>
       <c r="B343" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C343" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D343" t="s">
         <v>20</v>
       </c>
       <c r="E343" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F343" t="s">
         <v>22</v>
@@ -20766,16 +20847,16 @@
         <v>30</v>
       </c>
       <c r="B344" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C344" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D344" t="s">
         <v>20</v>
       </c>
       <c r="E344" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F344" t="s">
         <v>22</v>
@@ -20822,16 +20903,16 @@
         <v>30</v>
       </c>
       <c r="B345" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C345" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D345" t="s">
         <v>20</v>
       </c>
       <c r="E345" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F345" t="s">
         <v>22</v>
@@ -20878,16 +20959,16 @@
         <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C346" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D346" t="s">
         <v>20</v>
       </c>
       <c r="E346" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F346" t="s">
         <v>22</v>
@@ -20934,16 +21015,16 @@
         <v>30</v>
       </c>
       <c r="B347" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C347" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D347" t="s">
         <v>20</v>
       </c>
       <c r="E347" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F347" t="s">
         <v>22</v>
@@ -20990,16 +21071,16 @@
         <v>30</v>
       </c>
       <c r="B348" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C348" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D348" t="s">
         <v>20</v>
       </c>
       <c r="E348" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F348" t="s">
         <v>22</v>
@@ -21046,16 +21127,16 @@
         <v>30</v>
       </c>
       <c r="B349" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C349" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D349" t="s">
         <v>20</v>
       </c>
       <c r="E349" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F349" t="s">
         <v>22</v>
@@ -21102,16 +21183,16 @@
         <v>30</v>
       </c>
       <c r="B350" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C350" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D350" t="s">
         <v>20</v>
       </c>
       <c r="E350" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F350" t="s">
         <v>22</v>
@@ -21158,16 +21239,16 @@
         <v>30</v>
       </c>
       <c r="B351" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C351" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D351" t="s">
         <v>20</v>
       </c>
       <c r="E351" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F351" t="s">
         <v>22</v>
@@ -21214,16 +21295,16 @@
         <v>30</v>
       </c>
       <c r="B352" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C352" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D352" t="s">
         <v>20</v>
       </c>
       <c r="E352" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F352" t="s">
         <v>22</v>
@@ -21270,16 +21351,16 @@
         <v>30</v>
       </c>
       <c r="B353" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C353" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D353" t="s">
         <v>20</v>
       </c>
       <c r="E353" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F353" t="s">
         <v>22</v>
@@ -21319,6 +21400,1350 @@
       </c>
       <c r="R353">
         <v>-0.15872240565388149</v>
+      </c>
+    </row>
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>31</v>
+      </c>
+      <c r="B354" t="s">
+        <v>390</v>
+      </c>
+      <c r="C354" t="s">
+        <v>391</v>
+      </c>
+      <c r="D354" t="s">
+        <v>20</v>
+      </c>
+      <c r="E354" t="s">
+        <v>392</v>
+      </c>
+      <c r="F354" t="s">
+        <v>22</v>
+      </c>
+      <c r="G354">
+        <v>-3.7189999999999999</v>
+      </c>
+      <c r="H354">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="I354">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="J354">
+        <v>-2.552</v>
+      </c>
+      <c r="K354">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="L354">
+        <v>-2.4860000000000002</v>
+      </c>
+      <c r="M354">
+        <v>1.696</v>
+      </c>
+      <c r="N354">
+        <v>0.46623164979734832</v>
+      </c>
+      <c r="O354">
+        <v>-0.8050587986001998</v>
+      </c>
+      <c r="P354">
+        <v>0.2042276724938426</v>
+      </c>
+      <c r="Q354">
+        <v>1.0035471447177129</v>
+      </c>
+      <c r="R354">
+        <v>3.8949527377350621E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>31</v>
+      </c>
+      <c r="B355" t="s">
+        <v>390</v>
+      </c>
+      <c r="C355" t="s">
+        <v>391</v>
+      </c>
+      <c r="D355" t="s">
+        <v>20</v>
+      </c>
+      <c r="E355" t="s">
+        <v>393</v>
+      </c>
+      <c r="F355" t="s">
+        <v>43</v>
+      </c>
+      <c r="G355">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H355">
+        <v>0.03</v>
+      </c>
+      <c r="I355">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J355">
+        <v>0.05</v>
+      </c>
+      <c r="K355">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L355">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M355">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N355">
+        <v>0.390625</v>
+      </c>
+      <c r="O355">
+        <v>1.2242350920265741</v>
+      </c>
+      <c r="P355">
+        <v>0.21301775147928989</v>
+      </c>
+      <c r="Q355">
+        <v>1.12890625</v>
+      </c>
+      <c r="R355">
+        <v>-4.038550218769222E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>32</v>
+      </c>
+      <c r="B356" t="s">
+        <v>394</v>
+      </c>
+      <c r="C356" t="s">
+        <v>395</v>
+      </c>
+      <c r="D356" t="s">
+        <v>20</v>
+      </c>
+      <c r="E356" t="s">
+        <v>396</v>
+      </c>
+      <c r="F356" t="s">
+        <v>43</v>
+      </c>
+      <c r="G356">
+        <v>0.02</v>
+      </c>
+      <c r="H356">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I356">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J356">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K356">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L356">
+        <v>0.02</v>
+      </c>
+      <c r="M356">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N356">
+        <v>1.3966942148760331</v>
+      </c>
+      <c r="O356">
+        <v>8.3045479853740042E-2</v>
+      </c>
+      <c r="P356">
+        <v>1.3966942148760331</v>
+      </c>
+      <c r="Q356">
+        <v>1.3966942148760331</v>
+      </c>
+      <c r="R356">
+        <v>8.3045479853740042E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>32</v>
+      </c>
+      <c r="B357" t="s">
+        <v>397</v>
+      </c>
+      <c r="C357" t="s">
+        <v>395</v>
+      </c>
+      <c r="D357" t="s">
+        <v>20</v>
+      </c>
+      <c r="E357" t="s">
+        <v>396</v>
+      </c>
+      <c r="F357" t="s">
+        <v>43</v>
+      </c>
+      <c r="G357">
+        <v>-1E-3</v>
+      </c>
+      <c r="H357">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I357">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L357">
+        <v>0</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>7.4380165289256214E-2</v>
+      </c>
+      <c r="O357">
+        <v>-0.1240347345892085</v>
+      </c>
+      <c r="P357">
+        <v>7.4380165289256214E-2</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>32</v>
+      </c>
+      <c r="B358" t="s">
+        <v>394</v>
+      </c>
+      <c r="C358" t="s">
+        <v>395</v>
+      </c>
+      <c r="D358" t="s">
+        <v>20</v>
+      </c>
+      <c r="E358" t="s">
+        <v>398</v>
+      </c>
+      <c r="F358" t="s">
+        <v>43</v>
+      </c>
+      <c r="G358">
+        <v>-1.4470000000000001</v>
+      </c>
+      <c r="H358">
+        <v>1.054</v>
+      </c>
+      <c r="I358">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="J358">
+        <v>-1.274</v>
+      </c>
+      <c r="K358">
+        <v>0.998</v>
+      </c>
+      <c r="L358">
+        <v>-1.222</v>
+      </c>
+      <c r="M358">
+        <v>1.0860000000000001</v>
+      </c>
+      <c r="N358">
+        <v>1.1153730306303991</v>
+      </c>
+      <c r="O358">
+        <v>-0.16855322951382959</v>
+      </c>
+      <c r="P358">
+        <v>1.086873276255943</v>
+      </c>
+      <c r="Q358">
+        <v>1.1841277745872509</v>
+      </c>
+      <c r="R358">
+        <v>4.9859598774563668E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>32</v>
+      </c>
+      <c r="B359" t="s">
+        <v>397</v>
+      </c>
+      <c r="C359" t="s">
+        <v>395</v>
+      </c>
+      <c r="D359" t="s">
+        <v>20</v>
+      </c>
+      <c r="E359" t="s">
+        <v>398</v>
+      </c>
+      <c r="F359" t="s">
+        <v>43</v>
+      </c>
+      <c r="G359">
+        <v>-3.1970000000000001</v>
+      </c>
+      <c r="H359">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="I359">
+        <v>1.014</v>
+      </c>
+      <c r="J359">
+        <v>-3.0369999999999999</v>
+      </c>
+      <c r="K359">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="L359">
+        <v>-2.9460000000000002</v>
+      </c>
+      <c r="M359">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="N359">
+        <v>0.90829849471208124</v>
+      </c>
+      <c r="O359">
+        <v>-0.16363558338978429</v>
+      </c>
+      <c r="P359">
+        <v>0.88515808270018537</v>
+      </c>
+      <c r="Q359">
+        <v>0.93129248374003637</v>
+      </c>
+      <c r="R359">
+        <v>9.251204633855746E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>32</v>
+      </c>
+      <c r="B360" t="s">
+        <v>394</v>
+      </c>
+      <c r="C360" t="s">
+        <v>395</v>
+      </c>
+      <c r="D360" t="s">
+        <v>20</v>
+      </c>
+      <c r="E360" t="s">
+        <v>399</v>
+      </c>
+      <c r="F360" t="s">
+        <v>43</v>
+      </c>
+      <c r="G360">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H360">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I360">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J360">
+        <v>0.01</v>
+      </c>
+      <c r="K360">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L360">
+        <v>0.01</v>
+      </c>
+      <c r="M360">
+        <v>0.01</v>
+      </c>
+      <c r="N360">
+        <v>1.265625</v>
+      </c>
+      <c r="O360">
+        <v>0.23488808780588141</v>
+      </c>
+      <c r="P360">
+        <v>1.265625</v>
+      </c>
+      <c r="Q360">
+        <v>1.5625</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>32</v>
+      </c>
+      <c r="B361" t="s">
+        <v>397</v>
+      </c>
+      <c r="C361" t="s">
+        <v>395</v>
+      </c>
+      <c r="D361" t="s">
+        <v>20</v>
+      </c>
+      <c r="E361" t="s">
+        <v>399</v>
+      </c>
+      <c r="F361" t="s">
+        <v>43</v>
+      </c>
+      <c r="G361">
+        <v>-1E-3</v>
+      </c>
+      <c r="H361">
+        <v>2E-3</v>
+      </c>
+      <c r="I361">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>6.25E-2</v>
+      </c>
+      <c r="O361">
+        <v>-0.17149858514250879</v>
+      </c>
+      <c r="P361">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q361">
+        <v>0</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>32</v>
+      </c>
+      <c r="B362" t="s">
+        <v>394</v>
+      </c>
+      <c r="C362" t="s">
+        <v>395</v>
+      </c>
+      <c r="D362" t="s">
+        <v>20</v>
+      </c>
+      <c r="E362" t="s">
+        <v>400</v>
+      </c>
+      <c r="F362" t="s">
+        <v>43</v>
+      </c>
+      <c r="G362">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H362">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I362">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J362">
+        <v>0.01</v>
+      </c>
+      <c r="K362">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L362">
+        <v>0.01</v>
+      </c>
+      <c r="M362">
+        <v>0.01</v>
+      </c>
+      <c r="N362">
+        <v>1.265625</v>
+      </c>
+      <c r="O362">
+        <v>-0.3523321317088221</v>
+      </c>
+      <c r="P362">
+        <v>1.265625</v>
+      </c>
+      <c r="Q362">
+        <v>1.5625</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>32</v>
+      </c>
+      <c r="B363" t="s">
+        <v>397</v>
+      </c>
+      <c r="C363" t="s">
+        <v>395</v>
+      </c>
+      <c r="D363" t="s">
+        <v>20</v>
+      </c>
+      <c r="E363" t="s">
+        <v>400</v>
+      </c>
+      <c r="F363" t="s">
+        <v>43</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+      <c r="H363">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I363">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L363">
+        <v>0</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>0.140625</v>
+      </c>
+      <c r="O363">
+        <v>0</v>
+      </c>
+      <c r="P363">
+        <v>0.140625</v>
+      </c>
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>33</v>
+      </c>
+      <c r="B364" t="s">
+        <v>401</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>20</v>
+      </c>
+      <c r="E364" t="s">
+        <v>402</v>
+      </c>
+      <c r="F364" t="s">
+        <v>22</v>
+      </c>
+      <c r="G364">
+        <v>-4.9909999999999997</v>
+      </c>
+      <c r="H364">
+        <v>1.742</v>
+      </c>
+      <c r="I364">
+        <v>1.857</v>
+      </c>
+      <c r="J364">
+        <v>-6.0060000000000002</v>
+      </c>
+      <c r="K364">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="L364">
+        <v>-6.0389999999999997</v>
+      </c>
+      <c r="M364">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="N364">
+        <v>0.73565883410776489</v>
+      </c>
+      <c r="O364">
+        <v>0.53646196386868428</v>
+      </c>
+      <c r="P364">
+        <v>0.87997937623551925</v>
+      </c>
+      <c r="Q364">
+        <v>0.9609984191365688</v>
+      </c>
+      <c r="R364">
+        <v>-1.640893491914823E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>33</v>
+      </c>
+      <c r="B365" t="s">
+        <v>401</v>
+      </c>
+      <c r="C365" t="s">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>20</v>
+      </c>
+      <c r="E365" t="s">
+        <v>403</v>
+      </c>
+      <c r="F365" t="s">
+        <v>43</v>
+      </c>
+      <c r="G365">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="H365">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I365">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J365">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="K365">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L365">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="M365">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N365">
+        <v>0.90367322054564858</v>
+      </c>
+      <c r="O365">
+        <v>-8.8579213259191297E-2</v>
+      </c>
+      <c r="P365">
+        <v>0.86064740891275948</v>
+      </c>
+      <c r="Q365">
+        <v>1</v>
+      </c>
+      <c r="R365">
+        <v>6.1728395061728447E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>34</v>
+      </c>
+      <c r="B366" t="s">
+        <v>404</v>
+      </c>
+      <c r="C366" t="s">
+        <v>39</v>
+      </c>
+      <c r="D366" t="s">
+        <v>20</v>
+      </c>
+      <c r="E366" t="s">
+        <v>405</v>
+      </c>
+      <c r="F366" t="s">
+        <v>43</v>
+      </c>
+      <c r="G366">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="H366">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I366">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J366">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="K366">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L366">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+      <c r="M366">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366">
+        <v>-0.12500000000000011</v>
+      </c>
+      <c r="P366">
+        <v>1</v>
+      </c>
+      <c r="Q366">
+        <v>1</v>
+      </c>
+      <c r="R366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>34</v>
+      </c>
+      <c r="B367" t="s">
+        <v>404</v>
+      </c>
+      <c r="C367" t="s">
+        <v>39</v>
+      </c>
+      <c r="D367" t="s">
+        <v>20</v>
+      </c>
+      <c r="E367" t="s">
+        <v>406</v>
+      </c>
+      <c r="F367" t="s">
+        <v>22</v>
+      </c>
+      <c r="G367">
+        <v>28.687999999999999</v>
+      </c>
+      <c r="H367">
+        <v>13.582000000000001</v>
+      </c>
+      <c r="I367">
+        <v>13.638</v>
+      </c>
+      <c r="J367">
+        <v>30.507999999999999</v>
+      </c>
+      <c r="K367">
+        <v>14.242000000000001</v>
+      </c>
+      <c r="L367">
+        <v>24.52</v>
+      </c>
+      <c r="M367">
+        <v>14.351000000000001</v>
+      </c>
+      <c r="N367">
+        <v>0.9094639511242274</v>
+      </c>
+      <c r="O367">
+        <v>-0.13078552272774921</v>
+      </c>
+      <c r="P367">
+        <v>0.99180451281271786</v>
+      </c>
+      <c r="Q367">
+        <v>1.0153654137566019</v>
+      </c>
+      <c r="R367">
+        <v>-0.41884072960856839</v>
+      </c>
+    </row>
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>34</v>
+      </c>
+      <c r="B368" t="s">
+        <v>404</v>
+      </c>
+      <c r="C368" t="s">
+        <v>39</v>
+      </c>
+      <c r="D368" t="s">
+        <v>20</v>
+      </c>
+      <c r="E368" t="s">
+        <v>407</v>
+      </c>
+      <c r="F368" t="s">
+        <v>43</v>
+      </c>
+      <c r="G368">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H368">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I368">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J368">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K368">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L368">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="M368">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N368">
+        <v>1</v>
+      </c>
+      <c r="O368">
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="P368">
+        <v>1</v>
+      </c>
+      <c r="Q368">
+        <v>1</v>
+      </c>
+      <c r="R368">
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>34</v>
+      </c>
+      <c r="B369" t="s">
+        <v>404</v>
+      </c>
+      <c r="C369" t="s">
+        <v>39</v>
+      </c>
+      <c r="D369" t="s">
+        <v>20</v>
+      </c>
+      <c r="E369" t="s">
+        <v>408</v>
+      </c>
+      <c r="F369" t="s">
+        <v>43</v>
+      </c>
+      <c r="G369">
+        <v>-0.02</v>
+      </c>
+      <c r="H369">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I369">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J369">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="K369">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L369">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="M369">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N369">
+        <v>1</v>
+      </c>
+      <c r="O369">
+        <v>0.1666666666666668</v>
+      </c>
+      <c r="P369">
+        <v>1</v>
+      </c>
+      <c r="Q369">
+        <v>1</v>
+      </c>
+      <c r="R369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>34</v>
+      </c>
+      <c r="B370" t="s">
+        <v>404</v>
+      </c>
+      <c r="C370" t="s">
+        <v>39</v>
+      </c>
+      <c r="D370" t="s">
+        <v>20</v>
+      </c>
+      <c r="E370" t="s">
+        <v>409</v>
+      </c>
+      <c r="F370" t="s">
+        <v>43</v>
+      </c>
+      <c r="G370">
+        <v>-0.02</v>
+      </c>
+      <c r="H370">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I370">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J370">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="K370">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L370">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+      <c r="M370">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N370">
+        <v>1</v>
+      </c>
+      <c r="O370">
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="P370">
+        <v>1</v>
+      </c>
+      <c r="Q370">
+        <v>1</v>
+      </c>
+      <c r="R370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>34</v>
+      </c>
+      <c r="B371" t="s">
+        <v>404</v>
+      </c>
+      <c r="C371" t="s">
+        <v>39</v>
+      </c>
+      <c r="D371" t="s">
+        <v>20</v>
+      </c>
+      <c r="E371" t="s">
+        <v>410</v>
+      </c>
+      <c r="F371" t="s">
+        <v>43</v>
+      </c>
+      <c r="G371">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="H371">
+        <v>2E-3</v>
+      </c>
+      <c r="I371">
+        <v>2E-3</v>
+      </c>
+      <c r="J371">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="K371">
+        <v>2E-3</v>
+      </c>
+      <c r="L371">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="M371">
+        <v>2E-3</v>
+      </c>
+      <c r="N371">
+        <v>1</v>
+      </c>
+      <c r="O371">
+        <v>0</v>
+      </c>
+      <c r="P371">
+        <v>1</v>
+      </c>
+      <c r="Q371">
+        <v>1</v>
+      </c>
+      <c r="R371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>34</v>
+      </c>
+      <c r="B372" t="s">
+        <v>404</v>
+      </c>
+      <c r="C372" t="s">
+        <v>39</v>
+      </c>
+      <c r="D372" t="s">
+        <v>20</v>
+      </c>
+      <c r="E372" t="s">
+        <v>411</v>
+      </c>
+      <c r="F372" t="s">
+        <v>43</v>
+      </c>
+      <c r="G372">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H372">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I372">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J372">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K372">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L372">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="M372">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N372">
+        <v>1</v>
+      </c>
+      <c r="O372">
+        <v>0</v>
+      </c>
+      <c r="P372">
+        <v>1</v>
+      </c>
+      <c r="Q372">
+        <v>1</v>
+      </c>
+      <c r="R372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>34</v>
+      </c>
+      <c r="B373" t="s">
+        <v>404</v>
+      </c>
+      <c r="C373" t="s">
+        <v>39</v>
+      </c>
+      <c r="D373" t="s">
+        <v>20</v>
+      </c>
+      <c r="E373" t="s">
+        <v>412</v>
+      </c>
+      <c r="F373" t="s">
+        <v>43</v>
+      </c>
+      <c r="G373">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H373">
+        <v>2E-3</v>
+      </c>
+      <c r="I373">
+        <v>2E-3</v>
+      </c>
+      <c r="J373">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="K373">
+        <v>2E-3</v>
+      </c>
+      <c r="L373">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="M373">
+        <v>2E-3</v>
+      </c>
+      <c r="N373">
+        <v>1</v>
+      </c>
+      <c r="O373">
+        <v>0</v>
+      </c>
+      <c r="P373">
+        <v>1</v>
+      </c>
+      <c r="Q373">
+        <v>1</v>
+      </c>
+      <c r="R373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>35</v>
+      </c>
+      <c r="B374" t="s">
+        <v>413</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>20</v>
+      </c>
+      <c r="E374" t="s">
+        <v>414</v>
+      </c>
+      <c r="F374" t="s">
+        <v>22</v>
+      </c>
+      <c r="G374">
+        <v>2.44</v>
+      </c>
+      <c r="H374">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="I374">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="J374">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="K374">
+        <v>1.375</v>
+      </c>
+      <c r="L374">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="M374">
+        <v>1.4390000000000001</v>
+      </c>
+      <c r="N374">
+        <v>0.88428376859504121</v>
+      </c>
+      <c r="O374">
+        <v>0.26748988389294848</v>
+      </c>
+      <c r="P374">
+        <v>0.65634363163547949</v>
+      </c>
+      <c r="Q374">
+        <v>1.0952573884297521</v>
+      </c>
+      <c r="R374">
+        <v>-7.6739217204847651E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>35</v>
+      </c>
+      <c r="B375" t="s">
+        <v>413</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>20</v>
+      </c>
+      <c r="E375" t="s">
+        <v>415</v>
+      </c>
+      <c r="F375" t="s">
+        <v>22</v>
+      </c>
+      <c r="G375">
+        <v>0.02</v>
+      </c>
+      <c r="H375">
+        <v>0.378</v>
+      </c>
+      <c r="I375">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="J375">
+        <v>-0.54200000000000004</v>
+      </c>
+      <c r="K375">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="L375">
+        <v>-2.8260000000000001</v>
+      </c>
+      <c r="M375">
+        <v>2.165</v>
+      </c>
+      <c r="N375">
+        <v>0.1283744749668696</v>
+      </c>
+      <c r="O375">
+        <v>0.70920571573366342</v>
+      </c>
+      <c r="P375">
+        <v>0.59998992206396129</v>
+      </c>
+      <c r="Q375">
+        <v>4.211248624244738</v>
+      </c>
+      <c r="R375">
+        <v>-1.34118207689691</v>
+      </c>
+    </row>
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>35</v>
+      </c>
+      <c r="B376" t="s">
+        <v>413</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>20</v>
+      </c>
+      <c r="E376" t="s">
+        <v>416</v>
+      </c>
+      <c r="F376" t="s">
+        <v>22</v>
+      </c>
+      <c r="G376">
+        <v>0.25</v>
+      </c>
+      <c r="H376">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I376">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="J376">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="K376">
+        <v>1.123</v>
+      </c>
+      <c r="L376">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M376">
+        <v>0.67</v>
+      </c>
+      <c r="N376">
+        <v>0.17071687353157369</v>
+      </c>
+      <c r="O376">
+        <v>-6.052191290922191E-2</v>
+      </c>
+      <c r="P376">
+        <v>0.63779879784690774</v>
+      </c>
+      <c r="Q376">
+        <v>0.35595089796523588</v>
+      </c>
+      <c r="R376">
+        <v>0.56777015955275112</v>
+      </c>
+    </row>
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>35</v>
+      </c>
+      <c r="B377" t="s">
+        <v>413</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>20</v>
+      </c>
+      <c r="E377" t="s">
+        <v>417</v>
+      </c>
+      <c r="F377" t="s">
+        <v>43</v>
+      </c>
+      <c r="G377">
+        <v>0.249</v>
+      </c>
+      <c r="H377">
+        <v>0.114</v>
+      </c>
+      <c r="I377">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="J377">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="K377">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L377">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="M377">
+        <v>0.122</v>
+      </c>
+      <c r="N377">
+        <v>0.94937541091387245</v>
+      </c>
+      <c r="O377">
+        <v>0.47615032352998993</v>
+      </c>
+      <c r="P377">
+        <v>0.65368945224083308</v>
+      </c>
+      <c r="Q377">
+        <v>1.0872963693476509</v>
+      </c>
+      <c r="R377">
+        <v>-0.26772384618636441</v>
       </c>
     </row>
   </sheetData>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R412"/>
+  <dimension ref="A1:R428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27575,6 +27575,1062 @@
         <v>0.004710798739158958</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413">
+        <v>41</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Licorice</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>YP_throat_30min</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G413">
+        <v>-0.16228</v>
+      </c>
+      <c r="H413">
+        <v>0.05384</v>
+      </c>
+      <c r="I413">
+        <v>0.0562</v>
+      </c>
+      <c r="J413">
+        <v>-0.17403</v>
+      </c>
+      <c r="K413">
+        <v>0.05761</v>
+      </c>
+      <c r="L413">
+        <v>-0.17766</v>
+      </c>
+      <c r="M413">
+        <v>0.05773</v>
+      </c>
+      <c r="N413">
+        <v>0.8734023416890131</v>
+      </c>
+      <c r="O413">
+        <v>0.2107363529770928</v>
+      </c>
+      <c r="P413">
+        <v>0.917777637061334</v>
+      </c>
+      <c r="Q413">
+        <v>1.004170282183731</v>
+      </c>
+      <c r="R413">
+        <v>-0.06294430441093467</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>41</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Licorice</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>YP_throat_90min</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G414">
+        <v>-0.23837</v>
+      </c>
+      <c r="H414">
+        <v>0.05047</v>
+      </c>
+      <c r="I414">
+        <v>0.05262</v>
+      </c>
+      <c r="J414">
+        <v>-0.25088</v>
+      </c>
+      <c r="K414">
+        <v>0.05264</v>
+      </c>
+      <c r="L414">
+        <v>-0.24748</v>
+      </c>
+      <c r="M414">
+        <v>0.053</v>
+      </c>
+      <c r="N414">
+        <v>0.9192525605477593</v>
+      </c>
+      <c r="O414">
+        <v>0.2425997575897229</v>
+      </c>
+      <c r="P414">
+        <v>0.9199514790251195</v>
+      </c>
+      <c r="Q414">
+        <v>1.013724582182352</v>
+      </c>
+      <c r="R414">
+        <v>0.06436918322415053</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>41</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Licorice</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>YP_throat_4h</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G415">
+        <v>-0.24472</v>
+      </c>
+      <c r="H415">
+        <v>0.05783</v>
+      </c>
+      <c r="I415">
+        <v>0.06036</v>
+      </c>
+      <c r="J415">
+        <v>-0.24315</v>
+      </c>
+      <c r="K415">
+        <v>0.05958</v>
+      </c>
+      <c r="L415">
+        <v>-0.24552</v>
+      </c>
+      <c r="M415">
+        <v>0.05945</v>
+      </c>
+      <c r="N415">
+        <v>0.9421181852468228</v>
+      </c>
+      <c r="O415">
+        <v>-0.02674091871953864</v>
+      </c>
+      <c r="P415">
+        <v>0.9179265307206902</v>
+      </c>
+      <c r="Q415">
+        <v>0.9956408803664367</v>
+      </c>
+      <c r="R415">
+        <v>-0.03982186989016292</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>41</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Licorice</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>YS_throat_1d</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G416">
+        <v>-0.19044</v>
+      </c>
+      <c r="H416">
+        <v>0.05756</v>
+      </c>
+      <c r="I416">
+        <v>0.06007</v>
+      </c>
+      <c r="J416">
+        <v>-0.19142</v>
+      </c>
+      <c r="K416">
+        <v>0.059</v>
+      </c>
+      <c r="L416">
+        <v>-0.16849</v>
+      </c>
+      <c r="M416">
+        <v>0.06254999999999999</v>
+      </c>
+      <c r="N416">
+        <v>0.9517821315713876</v>
+      </c>
+      <c r="O416">
+        <v>0.0168140909792392</v>
+      </c>
+      <c r="P416">
+        <v>0.9181767822119962</v>
+      </c>
+      <c r="Q416">
+        <v>1.123959350761275</v>
+      </c>
+      <c r="R416">
+        <v>0.3771324830558184</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>41</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Licorice</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>YS_cough_1d</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G417">
+        <v>-0.15068</v>
+      </c>
+      <c r="H417">
+        <v>0.0592</v>
+      </c>
+      <c r="I417">
+        <v>0.06181</v>
+      </c>
+      <c r="J417">
+        <v>-0.14884</v>
+      </c>
+      <c r="K417">
+        <v>0.06152</v>
+      </c>
+      <c r="L417">
+        <v>-0.15179</v>
+      </c>
+      <c r="M417">
+        <v>0.06131</v>
+      </c>
+      <c r="N417">
+        <v>0.9259995163698657</v>
+      </c>
+      <c r="O417">
+        <v>-0.03047813631873715</v>
+      </c>
+      <c r="P417">
+        <v>0.917330696035502</v>
+      </c>
+      <c r="Q417">
+        <v>0.9931846040320551</v>
+      </c>
+      <c r="R417">
+        <v>-0.04803379774608514</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>42</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Sequential</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>YP_onset_sensory</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>time to event</t>
+        </is>
+      </c>
+      <c r="G418">
+        <v>2.92428</v>
+      </c>
+      <c r="H418">
+        <v>2.26859</v>
+      </c>
+      <c r="I418">
+        <v>2.40852</v>
+      </c>
+      <c r="J418">
+        <v>3.83183</v>
+      </c>
+      <c r="K418">
+        <v>2.31945</v>
+      </c>
+      <c r="L418">
+        <v>3.55172</v>
+      </c>
+      <c r="M418">
+        <v>2.33002</v>
+      </c>
+      <c r="N418">
+        <v>0.9566255958757123</v>
+      </c>
+      <c r="O418">
+        <v>-0.3955912516320134</v>
+      </c>
+      <c r="P418">
+        <v>0.8871795300903581</v>
+      </c>
+      <c r="Q418">
+        <v>1.00913499696212</v>
+      </c>
+      <c r="R418">
+        <v>-0.1204908413923663</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>42</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Sequential</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>YS_onset_first_sensory</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G419">
+        <v>0.5589</v>
+      </c>
+      <c r="H419">
+        <v>0.51628</v>
+      </c>
+      <c r="I419">
+        <v>0.54673</v>
+      </c>
+      <c r="J419">
+        <v>0.70551</v>
+      </c>
+      <c r="K419">
+        <v>0.52397</v>
+      </c>
+      <c r="L419">
+        <v>0.60522</v>
+      </c>
+      <c r="M419">
+        <v>0.5496</v>
+      </c>
+      <c r="N419">
+        <v>0.9708625715483986</v>
+      </c>
+      <c r="O419">
+        <v>-0.2818668477101762</v>
+      </c>
+      <c r="P419">
+        <v>0.8917123729396068</v>
+      </c>
+      <c r="Q419">
+        <v>1.100222707052726</v>
+      </c>
+      <c r="R419">
+        <v>-0.1867813595513589</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>42</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Sequential</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>YS_onset_motor</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G420">
+        <v>3.84885</v>
+      </c>
+      <c r="H420">
+        <v>2.13883</v>
+      </c>
+      <c r="I420">
+        <v>2.26931</v>
+      </c>
+      <c r="J420">
+        <v>5.22021</v>
+      </c>
+      <c r="K420">
+        <v>2.32488</v>
+      </c>
+      <c r="L420">
+        <v>4.69258</v>
+      </c>
+      <c r="M420">
+        <v>2.27903</v>
+      </c>
+      <c r="N420">
+        <v>0.8463528309107954</v>
+      </c>
+      <c r="O420">
+        <v>-0.6139154821079428</v>
+      </c>
+      <c r="P420">
+        <v>0.8883106732112385</v>
+      </c>
+      <c r="Q420">
+        <v>0.9609460395333451</v>
+      </c>
+      <c r="R420">
+        <v>-0.2291981540554326</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>42</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Sequential</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>YS_vps_rest</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G421">
+        <v>-0.27994</v>
+      </c>
+      <c r="H421">
+        <v>0.57698</v>
+      </c>
+      <c r="I421">
+        <v>0.61319</v>
+      </c>
+      <c r="J421">
+        <v>-0.61765</v>
+      </c>
+      <c r="K421">
+        <v>0.60768</v>
+      </c>
+      <c r="L421">
+        <v>-0.44499</v>
+      </c>
+      <c r="M421">
+        <v>0.61352</v>
+      </c>
+      <c r="N421">
+        <v>0.9015122504004215</v>
+      </c>
+      <c r="O421">
+        <v>0.5699469208882183</v>
+      </c>
+      <c r="P421">
+        <v>0.8853834329622292</v>
+      </c>
+      <c r="Q421">
+        <v>1.019313000717375</v>
+      </c>
+      <c r="R421">
+        <v>0.2827678115471466</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>42</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Sequential</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>YS_vps_movement</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G422">
+        <v>-0.71674</v>
+      </c>
+      <c r="H422">
+        <v>0.57415</v>
+      </c>
+      <c r="I422">
+        <v>0.61076</v>
+      </c>
+      <c r="J422">
+        <v>-0.81373</v>
+      </c>
+      <c r="K422">
+        <v>0.60821</v>
+      </c>
+      <c r="L422">
+        <v>-0.83188</v>
+      </c>
+      <c r="M422">
+        <v>0.6107399999999999</v>
+      </c>
+      <c r="N422">
+        <v>0.8911352549943191</v>
+      </c>
+      <c r="O422">
+        <v>0.1639936776584425</v>
+      </c>
+      <c r="P422">
+        <v>0.8837095849025054</v>
+      </c>
+      <c r="Q422">
+        <v>1.008336798410192</v>
+      </c>
+      <c r="R422">
+        <v>-0.02977966431044037</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>42</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Sequential</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Combined</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>YS_opioid_total</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G423">
+        <v>5.83594</v>
+      </c>
+      <c r="H423">
+        <v>11.33899</v>
+      </c>
+      <c r="I423">
+        <v>12.04032</v>
+      </c>
+      <c r="J423">
+        <v>2.18197</v>
+      </c>
+      <c r="K423">
+        <v>11.77943</v>
+      </c>
+      <c r="L423">
+        <v>2.50836</v>
+      </c>
+      <c r="M423">
+        <v>11.94068</v>
+      </c>
+      <c r="N423">
+        <v>0.9266168496721143</v>
+      </c>
+      <c r="O423">
+        <v>0.3160516212060697</v>
+      </c>
+      <c r="P423">
+        <v>0.8868959784082865</v>
+      </c>
+      <c r="Q423">
+        <v>1.027565626705058</v>
+      </c>
+      <c r="R423">
+        <v>0.02751947259081741</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>43</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>YP_GA_days</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>time to event</t>
+        </is>
+      </c>
+      <c r="G424">
+        <v>1.43178</v>
+      </c>
+      <c r="H424">
+        <v>1.69877</v>
+      </c>
+      <c r="I424">
+        <v>1.79911</v>
+      </c>
+      <c r="J424">
+        <v>1.31368</v>
+      </c>
+      <c r="K424">
+        <v>1.97032</v>
+      </c>
+      <c r="L424">
+        <v>1.20319</v>
+      </c>
+      <c r="M424">
+        <v>1.87028</v>
+      </c>
+      <c r="N424">
+        <v>0.7433539169167228</v>
+      </c>
+      <c r="O424">
+        <v>0.06420004741157187</v>
+      </c>
+      <c r="P424">
+        <v>0.8915664770625623</v>
+      </c>
+      <c r="Q424">
+        <v>0.9010309892713425</v>
+      </c>
+      <c r="R424">
+        <v>-0.05751837493439933</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>43</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>YS_birthweight_g</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G425">
+        <v>40.98125</v>
+      </c>
+      <c r="H425">
+        <v>45.20513</v>
+      </c>
+      <c r="I425">
+        <v>47.94381</v>
+      </c>
+      <c r="J425">
+        <v>35.84613</v>
+      </c>
+      <c r="K425">
+        <v>48.06073</v>
+      </c>
+      <c r="L425">
+        <v>37.18474</v>
+      </c>
+      <c r="M425">
+        <v>48.2961</v>
+      </c>
+      <c r="N425">
+        <v>0.8846973347215017</v>
+      </c>
+      <c r="O425">
+        <v>0.1100663141909823</v>
+      </c>
+      <c r="P425">
+        <v>0.8890175979578701</v>
+      </c>
+      <c r="Q425">
+        <v>1.009818675001636</v>
+      </c>
+      <c r="R425">
+        <v>0.02778435127947021</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>43</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>YS_Apgar1_1min</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G426">
+        <v>-0.06227</v>
+      </c>
+      <c r="H426">
+        <v>0.09669999999999999</v>
+      </c>
+      <c r="I426">
+        <v>0.10283</v>
+      </c>
+      <c r="J426">
+        <v>-0.09476</v>
+      </c>
+      <c r="K426">
+        <v>0.10355</v>
+      </c>
+      <c r="L426">
+        <v>-0.10203</v>
+      </c>
+      <c r="M426">
+        <v>0.1034</v>
+      </c>
+      <c r="N426">
+        <v>0.8720728013558274</v>
+      </c>
+      <c r="O426">
+        <v>0.3243046973029075</v>
+      </c>
+      <c r="P426">
+        <v>0.8843277973787216</v>
+      </c>
+      <c r="Q426">
+        <v>0.9971049472364568</v>
+      </c>
+      <c r="R426">
+        <v>-0.07025849809461861</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>43</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>YS_Apgar5_5min</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G427">
+        <v>0.01636</v>
+      </c>
+      <c r="H427">
+        <v>0.06105</v>
+      </c>
+      <c r="I427">
+        <v>0.06494999999999999</v>
+      </c>
+      <c r="J427">
+        <v>-0.01765</v>
+      </c>
+      <c r="K427">
+        <v>0.06544</v>
+      </c>
+      <c r="L427">
+        <v>-0.01468</v>
+      </c>
+      <c r="M427">
+        <v>0.06542000000000001</v>
+      </c>
+      <c r="N427">
+        <v>0.870331606137278</v>
+      </c>
+      <c r="O427">
+        <v>0.5374264447557625</v>
+      </c>
+      <c r="P427">
+        <v>0.883513166105745</v>
+      </c>
+      <c r="Q427">
+        <v>0.9993888464619415</v>
+      </c>
+      <c r="R427">
+        <v>0.04539202147810684</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>43</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>YS_anySAE_flag</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G428">
+        <v>-0.0155</v>
+      </c>
+      <c r="H428">
+        <v>0.01897</v>
+      </c>
+      <c r="I428">
+        <v>0.02009</v>
+      </c>
+      <c r="J428">
+        <v>-0.01041</v>
+      </c>
+      <c r="K428">
+        <v>0.02044</v>
+      </c>
+      <c r="L428">
+        <v>-0.01049</v>
+      </c>
+      <c r="M428">
+        <v>0.0204</v>
+      </c>
+      <c r="N428">
+        <v>0.8613365547006944</v>
+      </c>
+      <c r="O428">
+        <v>-0.2581305670521947</v>
+      </c>
+      <c r="P428">
+        <v>0.891609707535602</v>
+      </c>
+      <c r="Q428">
+        <v>0.9960899353173435</v>
+      </c>
+      <c r="R428">
+        <v>-0.003917725838812434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R428"/>
+  <dimension ref="A1:R486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23594,7 +23594,7 @@
         <v>0.01112</v>
       </c>
       <c r="L352">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M352">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="R352">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -23858,7 +23858,7 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="L356">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M356">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="R356">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -23990,7 +23990,7 @@
         <v>0.007900000000000001</v>
       </c>
       <c r="L358">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M358">
         <v>0</v>
@@ -24008,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="R358">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -28629,6 +28629,3834 @@
       </c>
       <c r="R428">
         <v>-0.003917725838812434</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>44</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Alternative</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>YP_intravascular</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G429">
+        <v>-0.16515</v>
+      </c>
+      <c r="H429">
+        <v>0.05395</v>
+      </c>
+      <c r="I429">
+        <v>0.06011</v>
+      </c>
+      <c r="J429">
+        <v>-0.17138</v>
+      </c>
+      <c r="K429">
+        <v>0.05566</v>
+      </c>
+      <c r="L429">
+        <v>-0.16967</v>
+      </c>
+      <c r="M429">
+        <v>0.05635</v>
+      </c>
+      <c r="N429">
+        <v>0.9394993717954692</v>
+      </c>
+      <c r="O429">
+        <v>0.1136619286101493</v>
+      </c>
+      <c r="P429">
+        <v>0.8055443243976738</v>
+      </c>
+      <c r="Q429">
+        <v>1.024947066457209</v>
+      </c>
+      <c r="R429">
+        <v>0.03053240881537387</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>44</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Alternative</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>YS_Pain_1m</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G430">
+        <v>-0.27035</v>
+      </c>
+      <c r="H430">
+        <v>0.20488</v>
+      </c>
+      <c r="I430">
+        <v>0.23114</v>
+      </c>
+      <c r="J430">
+        <v>-0.27941</v>
+      </c>
+      <c r="K430">
+        <v>0.26973</v>
+      </c>
+      <c r="L430">
+        <v>-0.17735</v>
+      </c>
+      <c r="M430">
+        <v>0.21559</v>
+      </c>
+      <c r="N430">
+        <v>0.5769532527346581</v>
+      </c>
+      <c r="O430">
+        <v>0.03782722942534249</v>
+      </c>
+      <c r="P430">
+        <v>0.7856858162695917</v>
+      </c>
+      <c r="Q430">
+        <v>0.6388497368929102</v>
+      </c>
+      <c r="R430">
+        <v>0.4179956301684953</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>44</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Alternative</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>YS_During_Pain</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G431">
+        <v>-1.53877</v>
+      </c>
+      <c r="H431">
+        <v>0.21088</v>
+      </c>
+      <c r="I431">
+        <v>0.23303</v>
+      </c>
+      <c r="J431">
+        <v>-1.57258</v>
+      </c>
+      <c r="K431">
+        <v>0.21323</v>
+      </c>
+      <c r="L431">
+        <v>-1.54903</v>
+      </c>
+      <c r="M431">
+        <v>0.22049</v>
+      </c>
+      <c r="N431">
+        <v>0.9780795350734224</v>
+      </c>
+      <c r="O431">
+        <v>0.1594373204133951</v>
+      </c>
+      <c r="P431">
+        <v>0.8189306307492231</v>
+      </c>
+      <c r="Q431">
+        <v>1.069254732476726</v>
+      </c>
+      <c r="R431">
+        <v>0.1085801966379152</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>44</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Alternative</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Conventional</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>YS_PGIC_1m</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G432">
+        <v>-0.0738</v>
+      </c>
+      <c r="H432">
+        <v>0.11305</v>
+      </c>
+      <c r="I432">
+        <v>0.12609</v>
+      </c>
+      <c r="J432">
+        <v>0.03889</v>
+      </c>
+      <c r="K432">
+        <v>0.11925</v>
+      </c>
+      <c r="L432">
+        <v>0.03479</v>
+      </c>
+      <c r="M432">
+        <v>0.12127</v>
+      </c>
+      <c r="N432">
+        <v>0.89871989944139</v>
+      </c>
+      <c r="O432">
+        <v>-0.9698655605019066</v>
+      </c>
+      <c r="P432">
+        <v>0.8038589360086885</v>
+      </c>
+      <c r="Q432">
+        <v>1.034165343318874</v>
+      </c>
+      <c r="R432">
+        <v>-0.03409159664342074</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>45</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>YP_delta_fruit_24w</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G433">
+        <v>-6.80421</v>
+      </c>
+      <c r="H433">
+        <v>15.31706</v>
+      </c>
+      <c r="I433">
+        <v>39.62293</v>
+      </c>
+      <c r="J433">
+        <v>-54.46166</v>
+      </c>
+      <c r="K433">
+        <v>35.31439</v>
+      </c>
+      <c r="L433">
+        <v>-56.53725</v>
+      </c>
+      <c r="M433">
+        <v>35.67195</v>
+      </c>
+      <c r="N433">
+        <v>0.188125388302483</v>
+      </c>
+      <c r="O433">
+        <v>1.750906486998728</v>
+      </c>
+      <c r="P433">
+        <v>0.1494368322213254</v>
+      </c>
+      <c r="Q433">
+        <v>1.020352618670116</v>
+      </c>
+      <c r="R433">
+        <v>-0.05847783305788784</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>45</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>YP_delta_fruit_24w</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G434">
+        <v>31.94533</v>
+      </c>
+      <c r="H434">
+        <v>11.08806</v>
+      </c>
+      <c r="I434">
+        <v>45.35003</v>
+      </c>
+      <c r="J434">
+        <v>-57.19311</v>
+      </c>
+      <c r="K434">
+        <v>37.17172</v>
+      </c>
+      <c r="L434">
+        <v>-54.78949</v>
+      </c>
+      <c r="M434">
+        <v>41.80132</v>
+      </c>
+      <c r="N434">
+        <v>0.08897865167404828</v>
+      </c>
+      <c r="O434">
+        <v>3.249807877218177</v>
+      </c>
+      <c r="P434">
+        <v>0.05978000916655404</v>
+      </c>
+      <c r="Q434">
+        <v>1.264604369309168</v>
+      </c>
+      <c r="R434">
+        <v>0.06076758530029983</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435">
+        <v>45</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>YP_delta_veg_24w</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G435">
+        <v>134.6902</v>
+      </c>
+      <c r="H435">
+        <v>22.19911</v>
+      </c>
+      <c r="I435">
+        <v>59.27844</v>
+      </c>
+      <c r="J435">
+        <v>-4.18174</v>
+      </c>
+      <c r="K435">
+        <v>49.63214</v>
+      </c>
+      <c r="L435">
+        <v>-4.18174</v>
+      </c>
+      <c r="M435">
+        <v>46.67295</v>
+      </c>
+      <c r="N435">
+        <v>0.2000530256082917</v>
+      </c>
+      <c r="O435">
+        <v>3.612154194426213</v>
+      </c>
+      <c r="P435">
+        <v>0.1402418378059146</v>
+      </c>
+      <c r="Q435">
+        <v>0.8843099284173915</v>
+      </c>
+      <c r="R435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436">
+        <v>45</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>YP_delta_veg_24w</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G436">
+        <v>275.0595</v>
+      </c>
+      <c r="H436">
+        <v>29.90114</v>
+      </c>
+      <c r="I436">
+        <v>67.84654</v>
+      </c>
+      <c r="J436">
+        <v>131.62487</v>
+      </c>
+      <c r="K436">
+        <v>52.2425</v>
+      </c>
+      <c r="L436">
+        <v>135.85784</v>
+      </c>
+      <c r="M436">
+        <v>55.2352</v>
+      </c>
+      <c r="N436">
+        <v>0.3275877023821007</v>
+      </c>
+      <c r="O436">
+        <v>3.369872375446668</v>
+      </c>
+      <c r="P436">
+        <v>0.1942316875514311</v>
+      </c>
+      <c r="Q436">
+        <v>1.117851101196928</v>
+      </c>
+      <c r="R436">
+        <v>0.07873875171831736</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437">
+        <v>45</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>YP_delta_soda_24w</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G437">
+        <v>38.61756</v>
+      </c>
+      <c r="H437">
+        <v>6.1259</v>
+      </c>
+      <c r="I437">
+        <v>24.78245</v>
+      </c>
+      <c r="J437">
+        <v>-4.88021</v>
+      </c>
+      <c r="K437">
+        <v>32.17275</v>
+      </c>
+      <c r="L437">
+        <v>-4.88021</v>
+      </c>
+      <c r="M437">
+        <v>33.00708</v>
+      </c>
+      <c r="N437">
+        <v>0.03625462668593506</v>
+      </c>
+      <c r="O437">
+        <v>1.878280997601617</v>
+      </c>
+      <c r="P437">
+        <v>0.06110142357863799</v>
+      </c>
+      <c r="Q437">
+        <v>1.052538142565327</v>
+      </c>
+      <c r="R437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438">
+        <v>45</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>YP_delta_soda_24w</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G438">
+        <v>8.431749999999999</v>
+      </c>
+      <c r="H438">
+        <v>16.13935</v>
+      </c>
+      <c r="I438">
+        <v>28.36451</v>
+      </c>
+      <c r="J438">
+        <v>-5.75504</v>
+      </c>
+      <c r="K438">
+        <v>33.86485</v>
+      </c>
+      <c r="L438">
+        <v>-5.75504</v>
+      </c>
+      <c r="M438">
+        <v>30.39846</v>
+      </c>
+      <c r="N438">
+        <v>0.2271296162462023</v>
+      </c>
+      <c r="O438">
+        <v>0.5348164572442622</v>
+      </c>
+      <c r="P438">
+        <v>0.3237587456297081</v>
+      </c>
+      <c r="Q438">
+        <v>0.8057584202481052</v>
+      </c>
+      <c r="R438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439">
+        <v>45</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>YP_delta_bottledwater_24w</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G439">
+        <v>9.805580000000001</v>
+      </c>
+      <c r="H439">
+        <v>65.37545</v>
+      </c>
+      <c r="I439">
+        <v>148.41412</v>
+      </c>
+      <c r="J439">
+        <v>-78.04358000000001</v>
+      </c>
+      <c r="K439">
+        <v>101.84245</v>
+      </c>
+      <c r="L439">
+        <v>-87.34625</v>
+      </c>
+      <c r="M439">
+        <v>107.69378</v>
+      </c>
+      <c r="N439">
+        <v>0.4120706716729103</v>
+      </c>
+      <c r="O439">
+        <v>1.026586517110631</v>
+      </c>
+      <c r="P439">
+        <v>0.19403449286367</v>
+      </c>
+      <c r="Q439">
+        <v>1.118210496295435</v>
+      </c>
+      <c r="R439">
+        <v>-0.08875834928078892</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440">
+        <v>45</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>YP_delta_bottledwater_24w</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G440">
+        <v>75.54294</v>
+      </c>
+      <c r="H440">
+        <v>57.86207</v>
+      </c>
+      <c r="I440">
+        <v>169.86586</v>
+      </c>
+      <c r="J440">
+        <v>-42.26525</v>
+      </c>
+      <c r="K440">
+        <v>107.19877</v>
+      </c>
+      <c r="L440">
+        <v>-80.34992</v>
+      </c>
+      <c r="M440">
+        <v>123.7576</v>
+      </c>
+      <c r="N440">
+        <v>0.2913455091222142</v>
+      </c>
+      <c r="O440">
+        <v>1.367664111396103</v>
+      </c>
+      <c r="P440">
+        <v>0.1160314523506781</v>
+      </c>
+      <c r="Q440">
+        <v>1.332797448487304</v>
+      </c>
+      <c r="R440">
+        <v>-0.3289552913547165</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441">
+        <v>45</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>YP_delta_seltzerwater_24w</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G441">
+        <v>-148.23151</v>
+      </c>
+      <c r="H441">
+        <v>41.89846</v>
+      </c>
+      <c r="I441">
+        <v>83.73402</v>
+      </c>
+      <c r="J441">
+        <v>-85.40114</v>
+      </c>
+      <c r="K441">
+        <v>58.44756</v>
+      </c>
+      <c r="L441">
+        <v>-91.12056</v>
+      </c>
+      <c r="M441">
+        <v>65.98556000000001</v>
+      </c>
+      <c r="N441">
+        <v>0.5138819342684462</v>
+      </c>
+      <c r="O441">
+        <v>-1.235583859331532</v>
+      </c>
+      <c r="P441">
+        <v>0.2503757351245406</v>
+      </c>
+      <c r="Q441">
+        <v>1.274573963490645</v>
+      </c>
+      <c r="R441">
+        <v>-0.09175940109263364</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442">
+        <v>45</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>YP_delta_seltzerwater_24w</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G442">
+        <v>-59.78165</v>
+      </c>
+      <c r="H442">
+        <v>32.35109</v>
+      </c>
+      <c r="I442">
+        <v>95.83692000000001</v>
+      </c>
+      <c r="J442">
+        <v>-46.1064</v>
+      </c>
+      <c r="K442">
+        <v>61.52156</v>
+      </c>
+      <c r="L442">
+        <v>-51.6503</v>
+      </c>
+      <c r="M442">
+        <v>74.24195</v>
+      </c>
+      <c r="N442">
+        <v>0.2765178408411783</v>
+      </c>
+      <c r="O442">
+        <v>-0.2782335445901878</v>
+      </c>
+      <c r="P442">
+        <v>0.1139494254748394</v>
+      </c>
+      <c r="Q442">
+        <v>1.456277239841131</v>
+      </c>
+      <c r="R442">
+        <v>-0.08131381820179823</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443">
+        <v>45</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>YP_delta_noncalbev_24w</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G443">
+        <v>-122.28124</v>
+      </c>
+      <c r="H443">
+        <v>81.76022</v>
+      </c>
+      <c r="I443">
+        <v>179.42788</v>
+      </c>
+      <c r="J443">
+        <v>-128.01665</v>
+      </c>
+      <c r="K443">
+        <v>117.44815</v>
+      </c>
+      <c r="L443">
+        <v>-156.22883</v>
+      </c>
+      <c r="M443">
+        <v>128.25067</v>
+      </c>
+      <c r="N443">
+        <v>0.4846092975828037</v>
+      </c>
+      <c r="O443">
+        <v>0.05667965507663432</v>
+      </c>
+      <c r="P443">
+        <v>0.2076367636665605</v>
+      </c>
+      <c r="Q443">
+        <v>1.19241361060963</v>
+      </c>
+      <c r="R443">
+        <v>-0.2294268375686164</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444">
+        <v>45</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>YP_delta_noncalbev_24w</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G444">
+        <v>11.8524</v>
+      </c>
+      <c r="H444">
+        <v>80.27030999999999</v>
+      </c>
+      <c r="I444">
+        <v>205.36235</v>
+      </c>
+      <c r="J444">
+        <v>-51.02858</v>
+      </c>
+      <c r="K444">
+        <v>123.62524</v>
+      </c>
+      <c r="L444">
+        <v>-71.75305</v>
+      </c>
+      <c r="M444">
+        <v>140.24592</v>
+      </c>
+      <c r="N444">
+        <v>0.4215951294380526</v>
+      </c>
+      <c r="O444">
+        <v>0.6033081445391609</v>
+      </c>
+      <c r="P444">
+        <v>0.1527806064522147</v>
+      </c>
+      <c r="Q444">
+        <v>1.286963340243928</v>
+      </c>
+      <c r="R444">
+        <v>-0.1567695390902728</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445">
+        <v>45</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>YS_delta_shopping_24w</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G445">
+        <v>-7.97704</v>
+      </c>
+      <c r="H445">
+        <v>4.22712</v>
+      </c>
+      <c r="I445">
+        <v>8.856859999999999</v>
+      </c>
+      <c r="J445">
+        <v>-5.73474</v>
+      </c>
+      <c r="K445">
+        <v>6.15348</v>
+      </c>
+      <c r="L445">
+        <v>-4.31252</v>
+      </c>
+      <c r="M445">
+        <v>5.52163</v>
+      </c>
+      <c r="N445">
+        <v>0.4718973807666765</v>
+      </c>
+      <c r="O445">
+        <v>-0.424765421339894</v>
+      </c>
+      <c r="P445">
+        <v>0.227787345650803</v>
+      </c>
+      <c r="Q445">
+        <v>0.8051800694864958</v>
+      </c>
+      <c r="R445">
+        <v>0.2432768148507636</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446">
+        <v>45</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>YS_delta_shopping_24w</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G446">
+        <v>5.0013</v>
+      </c>
+      <c r="H446">
+        <v>3.593</v>
+      </c>
+      <c r="I446">
+        <v>10.13703</v>
+      </c>
+      <c r="J446">
+        <v>-4.89474</v>
+      </c>
+      <c r="K446">
+        <v>6.47711</v>
+      </c>
+      <c r="L446">
+        <v>-5.73121</v>
+      </c>
+      <c r="M446">
+        <v>6.01275</v>
+      </c>
+      <c r="N446">
+        <v>0.3077172829055055</v>
+      </c>
+      <c r="O446">
+        <v>1.88946231961075</v>
+      </c>
+      <c r="P446">
+        <v>0.1256298875016375</v>
+      </c>
+      <c r="Q446">
+        <v>0.8617548743713745</v>
+      </c>
+      <c r="R446">
+        <v>-0.133851377493028</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447">
+        <v>45</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>YS_delta_weight_24w</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G447">
+        <v>0.30278</v>
+      </c>
+      <c r="H447">
+        <v>1.2188</v>
+      </c>
+      <c r="I447">
+        <v>2.78581</v>
+      </c>
+      <c r="J447">
+        <v>3.33105</v>
+      </c>
+      <c r="K447">
+        <v>1.98877</v>
+      </c>
+      <c r="L447">
+        <v>3.29272</v>
+      </c>
+      <c r="M447">
+        <v>2.10235</v>
+      </c>
+      <c r="N447">
+        <v>0.3755742172715331</v>
+      </c>
+      <c r="O447">
+        <v>-1.836043719370486</v>
+      </c>
+      <c r="P447">
+        <v>0.1914088020041557</v>
+      </c>
+      <c r="Q447">
+        <v>1.117482982260891</v>
+      </c>
+      <c r="R447">
+        <v>-0.01873092791897326</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448">
+        <v>45</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>YS_delta_weight_24w</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G448">
+        <v>-0.06931</v>
+      </c>
+      <c r="H448">
+        <v>1.21724</v>
+      </c>
+      <c r="I448">
+        <v>3.18847</v>
+      </c>
+      <c r="J448">
+        <v>1.8818</v>
+      </c>
+      <c r="K448">
+        <v>2.09337</v>
+      </c>
+      <c r="L448">
+        <v>2.09572</v>
+      </c>
+      <c r="M448">
+        <v>2.16784</v>
+      </c>
+      <c r="N448">
+        <v>0.3381118863576275</v>
+      </c>
+      <c r="O448">
+        <v>-1.139474320788908</v>
+      </c>
+      <c r="P448">
+        <v>0.1457430186744093</v>
+      </c>
+      <c r="Q448">
+        <v>1.07241396025945</v>
+      </c>
+      <c r="R448">
+        <v>0.100388077473798</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449">
+        <v>45</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>YS_delta_bmi_24w</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G449">
+        <v>-0.01937</v>
+      </c>
+      <c r="H449">
+        <v>0.35824</v>
+      </c>
+      <c r="I449">
+        <v>0.6834</v>
+      </c>
+      <c r="J449">
+        <v>0.29091</v>
+      </c>
+      <c r="K449">
+        <v>0.56318</v>
+      </c>
+      <c r="L449">
+        <v>0.2655</v>
+      </c>
+      <c r="M449">
+        <v>0.44167</v>
+      </c>
+      <c r="N449">
+        <v>0.4046259252721429</v>
+      </c>
+      <c r="O449">
+        <v>-0.6574174343581499</v>
+      </c>
+      <c r="P449">
+        <v>0.2747882786484181</v>
+      </c>
+      <c r="Q449">
+        <v>0.6150371589695399</v>
+      </c>
+      <c r="R449">
+        <v>-0.05020895469732718</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450">
+        <v>45</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>YS_delta_bmi_24w</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G450">
+        <v>-1.01023</v>
+      </c>
+      <c r="H450">
+        <v>0.1862</v>
+      </c>
+      <c r="I450">
+        <v>0.78218</v>
+      </c>
+      <c r="J450">
+        <v>-0.38689</v>
+      </c>
+      <c r="K450">
+        <v>0.5928</v>
+      </c>
+      <c r="L450">
+        <v>-0.35278</v>
+      </c>
+      <c r="M450">
+        <v>0.68058</v>
+      </c>
+      <c r="N450">
+        <v>0.09866042077580539</v>
+      </c>
+      <c r="O450">
+        <v>-1.418731004719317</v>
+      </c>
+      <c r="P450">
+        <v>0.05666905091657682</v>
+      </c>
+      <c r="Q450">
+        <v>1.318080621301775</v>
+      </c>
+      <c r="R450">
+        <v>0.05344711334026093</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451">
+        <v>45</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>YS_delta_waist_24w</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G451">
+        <v>0.81947</v>
+      </c>
+      <c r="H451">
+        <v>0.24586</v>
+      </c>
+      <c r="I451">
+        <v>1.35438</v>
+      </c>
+      <c r="J451">
+        <v>1.55805</v>
+      </c>
+      <c r="K451">
+        <v>0.62313</v>
+      </c>
+      <c r="L451">
+        <v>1.451</v>
+      </c>
+      <c r="M451">
+        <v>0.70222</v>
+      </c>
+      <c r="N451">
+        <v>0.1556748420194957</v>
+      </c>
+      <c r="O451">
+        <v>-1.559251070921919</v>
+      </c>
+      <c r="P451">
+        <v>0.03295297968673862</v>
+      </c>
+      <c r="Q451">
+        <v>1.269957151561244</v>
+      </c>
+      <c r="R451">
+        <v>-0.1612553674875198</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452">
+        <v>45</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>YS_delta_waist_24w</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G452">
+        <v>1.56509</v>
+      </c>
+      <c r="H452">
+        <v>0.30408</v>
+      </c>
+      <c r="I452">
+        <v>1.47683</v>
+      </c>
+      <c r="J452">
+        <v>1.59186</v>
+      </c>
+      <c r="K452">
+        <v>0.67659</v>
+      </c>
+      <c r="L452">
+        <v>1.57466</v>
+      </c>
+      <c r="M452">
+        <v>0.6848</v>
+      </c>
+      <c r="N452">
+        <v>0.2019875325469562</v>
+      </c>
+      <c r="O452">
+        <v>-0.05103731431527098</v>
+      </c>
+      <c r="P452">
+        <v>0.04239500602509066</v>
+      </c>
+      <c r="Q452">
+        <v>1.024416002686719</v>
+      </c>
+      <c r="R452">
+        <v>-0.02526783249832377</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453">
+        <v>45</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>YS_delta_fat_24w</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G453">
+        <v>-0.28791</v>
+      </c>
+      <c r="H453">
+        <v>0.33726</v>
+      </c>
+      <c r="I453">
+        <v>1.24128</v>
+      </c>
+      <c r="J453">
+        <v>0.20716</v>
+      </c>
+      <c r="K453">
+        <v>0.8832100000000001</v>
+      </c>
+      <c r="L453">
+        <v>0.53262</v>
+      </c>
+      <c r="M453">
+        <v>0.99749</v>
+      </c>
+      <c r="N453">
+        <v>0.145814836786456</v>
+      </c>
+      <c r="O453">
+        <v>-0.7405602706125459</v>
+      </c>
+      <c r="P453">
+        <v>0.07382273916857922</v>
+      </c>
+      <c r="Q453">
+        <v>1.27552550114465</v>
+      </c>
+      <c r="R453">
+        <v>0.3454679690545123</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454">
+        <v>45</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>YS_delta_fat_24w</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G454">
+        <v>-0.06584</v>
+      </c>
+      <c r="H454">
+        <v>0.25948</v>
+      </c>
+      <c r="I454">
+        <v>1.4207</v>
+      </c>
+      <c r="J454">
+        <v>-0.30184</v>
+      </c>
+      <c r="K454">
+        <v>0.92967</v>
+      </c>
+      <c r="L454">
+        <v>-0.32153</v>
+      </c>
+      <c r="M454">
+        <v>0.95692</v>
+      </c>
+      <c r="N454">
+        <v>0.07790227579295163</v>
+      </c>
+      <c r="O454">
+        <v>0.3457868629648331</v>
+      </c>
+      <c r="P454">
+        <v>0.03335823144730675</v>
+      </c>
+      <c r="Q454">
+        <v>1.059482114862412</v>
+      </c>
+      <c r="R454">
+        <v>-0.02087146264245448</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455">
+        <v>45</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>YS_delta_fm_24w</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G455">
+        <v>-1.0485</v>
+      </c>
+      <c r="H455">
+        <v>0.29903</v>
+      </c>
+      <c r="I455">
+        <v>1.40765</v>
+      </c>
+      <c r="J455">
+        <v>0.20785</v>
+      </c>
+      <c r="K455">
+        <v>1.07638</v>
+      </c>
+      <c r="L455">
+        <v>0.30231</v>
+      </c>
+      <c r="M455">
+        <v>1.26693</v>
+      </c>
+      <c r="N455">
+        <v>0.07717884632433598</v>
+      </c>
+      <c r="O455">
+        <v>-1.590435694870152</v>
+      </c>
+      <c r="P455">
+        <v>0.0451273833577472</v>
+      </c>
+      <c r="Q455">
+        <v>1.385396227965862</v>
+      </c>
+      <c r="R455">
+        <v>0.08035576784165041</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456">
+        <v>45</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>YS_delta_fm_24w</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G456">
+        <v>-0.5397</v>
+      </c>
+      <c r="H456">
+        <v>0.07373</v>
+      </c>
+      <c r="I456">
+        <v>1.61111</v>
+      </c>
+      <c r="J456">
+        <v>-0.32632</v>
+      </c>
+      <c r="K456">
+        <v>1.13299</v>
+      </c>
+      <c r="L456">
+        <v>-0.18981</v>
+      </c>
+      <c r="M456">
+        <v>1.26344</v>
+      </c>
+      <c r="N456">
+        <v>0.004234833250809177</v>
+      </c>
+      <c r="O456">
+        <v>-0.2657816487629405</v>
+      </c>
+      <c r="P456">
+        <v>0.002094296086780765</v>
+      </c>
+      <c r="Q456">
+        <v>1.243532360189212</v>
+      </c>
+      <c r="R456">
+        <v>0.1137593806018768</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457">
+        <v>45</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>YS_delta_sysbp_24w</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G457">
+        <v>-1.46916</v>
+      </c>
+      <c r="H457">
+        <v>2.24096</v>
+      </c>
+      <c r="I457">
+        <v>6.17184</v>
+      </c>
+      <c r="J457">
+        <v>2.76947</v>
+      </c>
+      <c r="K457">
+        <v>4.56331</v>
+      </c>
+      <c r="L457">
+        <v>2.2858</v>
+      </c>
+      <c r="M457">
+        <v>5.06172</v>
+      </c>
+      <c r="N457">
+        <v>0.2411616595567563</v>
+      </c>
+      <c r="O457">
+        <v>-1.17908837349178</v>
+      </c>
+      <c r="P457">
+        <v>0.1318374795745293</v>
+      </c>
+      <c r="Q457">
+        <v>1.230371576133182</v>
+      </c>
+      <c r="R457">
+        <v>-0.1003680681186566</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458">
+        <v>45</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>YS_delta_sysbp_24w</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G458">
+        <v>6.59522</v>
+      </c>
+      <c r="H458">
+        <v>3.7488</v>
+      </c>
+      <c r="I458">
+        <v>7.06392</v>
+      </c>
+      <c r="J458">
+        <v>2.43947</v>
+      </c>
+      <c r="K458">
+        <v>4.80331</v>
+      </c>
+      <c r="L458">
+        <v>2.12299</v>
+      </c>
+      <c r="M458">
+        <v>4.85659</v>
+      </c>
+      <c r="N458">
+        <v>0.6091206314768942</v>
+      </c>
+      <c r="O458">
+        <v>0.9645605451864245</v>
+      </c>
+      <c r="P458">
+        <v>0.2816391326784387</v>
+      </c>
+      <c r="Q458">
+        <v>1.022307742047866</v>
+      </c>
+      <c r="R458">
+        <v>-0.06552349117142836</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459">
+        <v>45</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>YS_delta_diabp_24w</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G459">
+        <v>-0.88354</v>
+      </c>
+      <c r="H459">
+        <v>1.47317</v>
+      </c>
+      <c r="I459">
+        <v>3.35236</v>
+      </c>
+      <c r="J459">
+        <v>1.00842</v>
+      </c>
+      <c r="K459">
+        <v>2.27797</v>
+      </c>
+      <c r="L459">
+        <v>1.01616</v>
+      </c>
+      <c r="M459">
+        <v>2.44883</v>
+      </c>
+      <c r="N459">
+        <v>0.4182247515230688</v>
+      </c>
+      <c r="O459">
+        <v>-0.9862940598422433</v>
+      </c>
+      <c r="P459">
+        <v>0.1931098525610755</v>
+      </c>
+      <c r="Q459">
+        <v>1.155636561858091</v>
+      </c>
+      <c r="R459">
+        <v>0.003272805434888048</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460">
+        <v>45</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>YS_delta_diabp_24w</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G460">
+        <v>3.35499</v>
+      </c>
+      <c r="H460">
+        <v>1.93218</v>
+      </c>
+      <c r="I460">
+        <v>3.83691</v>
+      </c>
+      <c r="J460">
+        <v>-0.13158</v>
+      </c>
+      <c r="K460">
+        <v>2.39778</v>
+      </c>
+      <c r="L460">
+        <v>-0.03686</v>
+      </c>
+      <c r="M460">
+        <v>2.40143</v>
+      </c>
+      <c r="N460">
+        <v>0.6493464910363258</v>
+      </c>
+      <c r="O460">
+        <v>1.601209296715427</v>
+      </c>
+      <c r="P460">
+        <v>0.2535898928197448</v>
+      </c>
+      <c r="Q460">
+        <v>1.003046800032169</v>
+      </c>
+      <c r="R460">
+        <v>0.03947315187535303</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461">
+        <v>45</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>YS_delta_gluc_24w</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G461">
+        <v>12.57927</v>
+      </c>
+      <c r="H461">
+        <v>2.66266</v>
+      </c>
+      <c r="I461">
+        <v>13.15238</v>
+      </c>
+      <c r="J461">
+        <v>-5.74118</v>
+      </c>
+      <c r="K461">
+        <v>3.33683</v>
+      </c>
+      <c r="L461">
+        <v>-5.81687</v>
+      </c>
+      <c r="M461">
+        <v>3.70185</v>
+      </c>
+      <c r="N461">
+        <v>0.6367416601298879</v>
+      </c>
+      <c r="O461">
+        <v>6.069137614366072</v>
+      </c>
+      <c r="P461">
+        <v>0.04098479169220063</v>
+      </c>
+      <c r="Q461">
+        <v>1.230748942426422</v>
+      </c>
+      <c r="R461">
+        <v>-0.02147801165827243</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462">
+        <v>45</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>YS_delta_gluc_24w</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G462">
+        <v>6.56557</v>
+      </c>
+      <c r="H462">
+        <v>3.34007</v>
+      </c>
+      <c r="I462">
+        <v>14.38264</v>
+      </c>
+      <c r="J462">
+        <v>-6.21176</v>
+      </c>
+      <c r="K462">
+        <v>3.33683</v>
+      </c>
+      <c r="L462">
+        <v>-6.46609</v>
+      </c>
+      <c r="M462">
+        <v>2.86441</v>
+      </c>
+      <c r="N462">
+        <v>1.001942905685896</v>
+      </c>
+      <c r="O462">
+        <v>3.82732360695684</v>
+      </c>
+      <c r="P462">
+        <v>0.05393043423635652</v>
+      </c>
+      <c r="Q462">
+        <v>0.7368892138846422</v>
+      </c>
+      <c r="R462">
+        <v>-0.08178853865924843</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463">
+        <v>45</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>YS_delta_tc_24w</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G463">
+        <v>0.11232</v>
+      </c>
+      <c r="H463">
+        <v>3.53192</v>
+      </c>
+      <c r="I463">
+        <v>9.44782</v>
+      </c>
+      <c r="J463">
+        <v>11.50219</v>
+      </c>
+      <c r="K463">
+        <v>7.48378</v>
+      </c>
+      <c r="L463">
+        <v>11.6492</v>
+      </c>
+      <c r="M463">
+        <v>7.98405</v>
+      </c>
+      <c r="N463">
+        <v>0.22273049989714</v>
+      </c>
+      <c r="O463">
+        <v>-1.946468501732017</v>
+      </c>
+      <c r="P463">
+        <v>0.1397521490471927</v>
+      </c>
+      <c r="Q463">
+        <v>1.138163022727841</v>
+      </c>
+      <c r="R463">
+        <v>0.01899854999344432</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464">
+        <v>45</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>YS_delta_tc_24w</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G464">
+        <v>2.12938</v>
+      </c>
+      <c r="H464">
+        <v>6.45768</v>
+      </c>
+      <c r="I464">
+        <v>10.73379</v>
+      </c>
+      <c r="J464">
+        <v>1.21053</v>
+      </c>
+      <c r="K464">
+        <v>7.90692</v>
+      </c>
+      <c r="L464">
+        <v>1.00202</v>
+      </c>
+      <c r="M464">
+        <v>5.20518</v>
+      </c>
+      <c r="N464">
+        <v>0.6670192249202804</v>
+      </c>
+      <c r="O464">
+        <v>0.1272863897179107</v>
+      </c>
+      <c r="P464">
+        <v>0.361948559242288</v>
+      </c>
+      <c r="Q464">
+        <v>0.4333679756286562</v>
+      </c>
+      <c r="R464">
+        <v>-0.03114983085453695</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465">
+        <v>45</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>YS_delta_hdl_24w</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G465">
+        <v>-1.44925</v>
+      </c>
+      <c r="H465">
+        <v>1.89593</v>
+      </c>
+      <c r="I465">
+        <v>4.67051</v>
+      </c>
+      <c r="J465">
+        <v>-2.29167</v>
+      </c>
+      <c r="K465">
+        <v>2.5971</v>
+      </c>
+      <c r="L465">
+        <v>-2.53982</v>
+      </c>
+      <c r="M465">
+        <v>2.53631</v>
+      </c>
+      <c r="N465">
+        <v>0.5329264221056423</v>
+      </c>
+      <c r="O465">
+        <v>0.3705052272376639</v>
+      </c>
+      <c r="P465">
+        <v>0.1647843581394764</v>
+      </c>
+      <c r="Q465">
+        <v>0.9537341280839476</v>
+      </c>
+      <c r="R465">
+        <v>-0.09667359604390922</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466">
+        <v>45</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>YS_delta_hdl_24w</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G466">
+        <v>-1.28716</v>
+      </c>
+      <c r="H466">
+        <v>1.71436</v>
+      </c>
+      <c r="I466">
+        <v>5.30623</v>
+      </c>
+      <c r="J466">
+        <v>0.78947</v>
+      </c>
+      <c r="K466">
+        <v>2.74394</v>
+      </c>
+      <c r="L466">
+        <v>0.66389</v>
+      </c>
+      <c r="M466">
+        <v>2.55777</v>
+      </c>
+      <c r="N466">
+        <v>0.3903505797480267</v>
+      </c>
+      <c r="O466">
+        <v>-0.9076895796410428</v>
+      </c>
+      <c r="P466">
+        <v>0.1043835129847867</v>
+      </c>
+      <c r="Q466">
+        <v>0.8689079225828366</v>
+      </c>
+      <c r="R466">
+        <v>-0.04734421426738833</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467">
+        <v>45</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>YS_delta_kcalfood_24w</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G467">
+        <v>111.60719</v>
+      </c>
+      <c r="H467">
+        <v>88.38887</v>
+      </c>
+      <c r="I467">
+        <v>216.26618</v>
+      </c>
+      <c r="J467">
+        <v>-129.38599</v>
+      </c>
+      <c r="K467">
+        <v>210.21711</v>
+      </c>
+      <c r="L467">
+        <v>-112.15607</v>
+      </c>
+      <c r="M467">
+        <v>219.08515</v>
+      </c>
+      <c r="N467">
+        <v>0.176790547580836</v>
+      </c>
+      <c r="O467">
+        <v>1.494521280474919</v>
+      </c>
+      <c r="P467">
+        <v>0.1670390245096796</v>
+      </c>
+      <c r="Q467">
+        <v>1.086149883728278</v>
+      </c>
+      <c r="R467">
+        <v>0.08025229179701625</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468">
+        <v>45</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>YS_delta_kcalfood_24w</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G468">
+        <v>254.46904</v>
+      </c>
+      <c r="H468">
+        <v>88.03915000000001</v>
+      </c>
+      <c r="I468">
+        <v>247.52525</v>
+      </c>
+      <c r="J468">
+        <v>323.62504</v>
+      </c>
+      <c r="K468">
+        <v>221.27331</v>
+      </c>
+      <c r="L468">
+        <v>320.98411</v>
+      </c>
+      <c r="M468">
+        <v>219.3315</v>
+      </c>
+      <c r="N468">
+        <v>0.1583046299267368</v>
+      </c>
+      <c r="O468">
+        <v>-0.4106808335753119</v>
+      </c>
+      <c r="P468">
+        <v>0.1265064492126866</v>
+      </c>
+      <c r="Q468">
+        <v>0.9825257758489653</v>
+      </c>
+      <c r="R468">
+        <v>-0.01198763287699643</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469">
+        <v>45</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>YS_delta_gramsfood_24w</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G469">
+        <v>176.57033</v>
+      </c>
+      <c r="H469">
+        <v>50.90147</v>
+      </c>
+      <c r="I469">
+        <v>103.87635</v>
+      </c>
+      <c r="J469">
+        <v>-99.65841</v>
+      </c>
+      <c r="K469">
+        <v>103.6593</v>
+      </c>
+      <c r="L469">
+        <v>-83.12965</v>
+      </c>
+      <c r="M469">
+        <v>105.05647</v>
+      </c>
+      <c r="N469">
+        <v>0.2411260355288854</v>
+      </c>
+      <c r="O469">
+        <v>3.382732418069772</v>
+      </c>
+      <c r="P469">
+        <v>0.2401194208863995</v>
+      </c>
+      <c r="Q469">
+        <v>1.027138633297467</v>
+      </c>
+      <c r="R469">
+        <v>0.1583818000380746</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470">
+        <v>45</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>YS_delta_gramsfood_24w</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G470">
+        <v>340.85477</v>
+      </c>
+      <c r="H470">
+        <v>53.78166</v>
+      </c>
+      <c r="I470">
+        <v>118.89062</v>
+      </c>
+      <c r="J470">
+        <v>188.55337</v>
+      </c>
+      <c r="K470">
+        <v>109.11118</v>
+      </c>
+      <c r="L470">
+        <v>185.25342</v>
+      </c>
+      <c r="M470">
+        <v>110.03802</v>
+      </c>
+      <c r="N470">
+        <v>0.2429572708928748</v>
+      </c>
+      <c r="O470">
+        <v>1.770604408571218</v>
+      </c>
+      <c r="P470">
+        <v>0.2046318459427287</v>
+      </c>
+      <c r="Q470">
+        <v>1.017061065608492</v>
+      </c>
+      <c r="R470">
+        <v>-0.03011574295338221</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471">
+        <v>45</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>YS_delta_ed_24w</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G471">
+        <v>-0.32577</v>
+      </c>
+      <c r="H471">
+        <v>0.12167</v>
+      </c>
+      <c r="I471">
+        <v>0.20572</v>
+      </c>
+      <c r="J471">
+        <v>0.02601</v>
+      </c>
+      <c r="K471">
+        <v>0.15402</v>
+      </c>
+      <c r="L471">
+        <v>0.02601</v>
+      </c>
+      <c r="M471">
+        <v>0.14712</v>
+      </c>
+      <c r="N471">
+        <v>0.6240405026516895</v>
+      </c>
+      <c r="O471">
+        <v>-2.534606797716963</v>
+      </c>
+      <c r="P471">
+        <v>0.3497953120757989</v>
+      </c>
+      <c r="Q471">
+        <v>0.9124082307444478</v>
+      </c>
+      <c r="R471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472">
+        <v>45</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>YS_delta_ed_24w</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G472">
+        <v>-0.44477</v>
+      </c>
+      <c r="H472">
+        <v>0.08964999999999999</v>
+      </c>
+      <c r="I472">
+        <v>0.23545</v>
+      </c>
+      <c r="J472">
+        <v>-0.08032</v>
+      </c>
+      <c r="K472">
+        <v>0.16212</v>
+      </c>
+      <c r="L472">
+        <v>-0.07037</v>
+      </c>
+      <c r="M472">
+        <v>0.18479</v>
+      </c>
+      <c r="N472">
+        <v>0.3057929000391981</v>
+      </c>
+      <c r="O472">
+        <v>-2.782141444909935</v>
+      </c>
+      <c r="P472">
+        <v>0.144978365190462</v>
+      </c>
+      <c r="Q472">
+        <v>1.299223121331721</v>
+      </c>
+      <c r="R472">
+        <v>0.05724148927325715</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473">
+        <v>45</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>YS_delta_fv_24w</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G473">
+        <v>129.47646</v>
+      </c>
+      <c r="H473">
+        <v>35.11605</v>
+      </c>
+      <c r="I473">
+        <v>65.1746</v>
+      </c>
+      <c r="J473">
+        <v>-56.83806</v>
+      </c>
+      <c r="K473">
+        <v>59.65317</v>
+      </c>
+      <c r="L473">
+        <v>-73.41658</v>
+      </c>
+      <c r="M473">
+        <v>57.09903</v>
+      </c>
+      <c r="N473">
+        <v>0.3465327323679743</v>
+      </c>
+      <c r="O473">
+        <v>3.806446368043118</v>
+      </c>
+      <c r="P473">
+        <v>0.2903050352466328</v>
+      </c>
+      <c r="Q473">
+        <v>0.9162002511737316</v>
+      </c>
+      <c r="R473">
+        <v>-0.2839270575860119</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474">
+        <v>45</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>YS_delta_fv_24w</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G474">
+        <v>309.05478</v>
+      </c>
+      <c r="H474">
+        <v>39.76759</v>
+      </c>
+      <c r="I474">
+        <v>74.59493000000001</v>
+      </c>
+      <c r="J474">
+        <v>76.23481</v>
+      </c>
+      <c r="K474">
+        <v>62.79058</v>
+      </c>
+      <c r="L474">
+        <v>65.66801</v>
+      </c>
+      <c r="M474">
+        <v>65.51958</v>
+      </c>
+      <c r="N474">
+        <v>0.4011156029510345</v>
+      </c>
+      <c r="O474">
+        <v>4.430000215701074</v>
+      </c>
+      <c r="P474">
+        <v>0.2842103724481375</v>
+      </c>
+      <c r="Q474">
+        <v>1.08881280625188</v>
+      </c>
+      <c r="R474">
+        <v>-0.1646699031069709</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475">
+        <v>45</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>YS_delta_juice_24w</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G475">
+        <v>52.34971</v>
+      </c>
+      <c r="H475">
+        <v>35.42786</v>
+      </c>
+      <c r="I475">
+        <v>63.81883</v>
+      </c>
+      <c r="J475">
+        <v>-12.98977</v>
+      </c>
+      <c r="K475">
+        <v>47.11523</v>
+      </c>
+      <c r="L475">
+        <v>-11.81086</v>
+      </c>
+      <c r="M475">
+        <v>48.73083</v>
+      </c>
+      <c r="N475">
+        <v>0.5654148473783285</v>
+      </c>
+      <c r="O475">
+        <v>1.567525562487945</v>
+      </c>
+      <c r="P475">
+        <v>0.3081712810677117</v>
+      </c>
+      <c r="Q475">
+        <v>1.069756627897201</v>
+      </c>
+      <c r="R475">
+        <v>0.02459657815950202</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476">
+        <v>45</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>YS_delta_juice_24w</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G476">
+        <v>139.11393</v>
+      </c>
+      <c r="H476">
+        <v>41.58719</v>
+      </c>
+      <c r="I476">
+        <v>73.04319</v>
+      </c>
+      <c r="J476">
+        <v>-24.39987</v>
+      </c>
+      <c r="K476">
+        <v>49.59321</v>
+      </c>
+      <c r="L476">
+        <v>-26.2547</v>
+      </c>
+      <c r="M476">
+        <v>42.27223</v>
+      </c>
+      <c r="N476">
+        <v>0.7031932834325985</v>
+      </c>
+      <c r="O476">
+        <v>3.572853606256252</v>
+      </c>
+      <c r="P476">
+        <v>0.3241601984398017</v>
+      </c>
+      <c r="Q476">
+        <v>0.7265506214737831</v>
+      </c>
+      <c r="R476">
+        <v>-0.04025383218374361</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477">
+        <v>45</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>YS_delta_dietsoda_24w</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G477">
+        <v>20.90336</v>
+      </c>
+      <c r="H477">
+        <v>23.13627</v>
+      </c>
+      <c r="I477">
+        <v>43.46719</v>
+      </c>
+      <c r="J477">
+        <v>37.00674</v>
+      </c>
+      <c r="K477">
+        <v>29.65204</v>
+      </c>
+      <c r="L477">
+        <v>43.14041</v>
+      </c>
+      <c r="M477">
+        <v>20.71339</v>
+      </c>
+      <c r="N477">
+        <v>0.608804050329419</v>
+      </c>
+      <c r="O477">
+        <v>-0.6055163667636019</v>
+      </c>
+      <c r="P477">
+        <v>0.2833110780830678</v>
+      </c>
+      <c r="Q477">
+        <v>0.4879700980724071</v>
+      </c>
+      <c r="R477">
+        <v>0.2398190759433467</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478">
+        <v>45</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>YS_delta_dietsoda_24w</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G478">
+        <v>26.44415</v>
+      </c>
+      <c r="H478">
+        <v>14.12997</v>
+      </c>
+      <c r="I478">
+        <v>49.74993</v>
+      </c>
+      <c r="J478">
+        <v>62.34307</v>
+      </c>
+      <c r="K478">
+        <v>31.21157</v>
+      </c>
+      <c r="L478">
+        <v>62.62503</v>
+      </c>
+      <c r="M478">
+        <v>37.83067</v>
+      </c>
+      <c r="N478">
+        <v>0.2049515699889021</v>
+      </c>
+      <c r="O478">
+        <v>-1.481821767389259</v>
+      </c>
+      <c r="P478">
+        <v>0.08066730195631942</v>
+      </c>
+      <c r="Q478">
+        <v>1.46911852751112</v>
+      </c>
+      <c r="R478">
+        <v>0.008130474939791812</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479">
+        <v>45</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>YS_delta_totalsnack_24w</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G479">
+        <v>-34.51723</v>
+      </c>
+      <c r="H479">
+        <v>14.05883</v>
+      </c>
+      <c r="I479">
+        <v>35.54351</v>
+      </c>
+      <c r="J479">
+        <v>17.72593</v>
+      </c>
+      <c r="K479">
+        <v>29.99316</v>
+      </c>
+      <c r="L479">
+        <v>14.4588</v>
+      </c>
+      <c r="M479">
+        <v>28.36932</v>
+      </c>
+      <c r="N479">
+        <v>0.2197120672465968</v>
+      </c>
+      <c r="O479">
+        <v>-2.230455439502514</v>
+      </c>
+      <c r="P479">
+        <v>0.1564507799839315</v>
+      </c>
+      <c r="Q479">
+        <v>0.8946504888514051</v>
+      </c>
+      <c r="R479">
+        <v>-0.1119166329892201</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480">
+        <v>45</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>YS_delta_totalsnack_24w</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G480">
+        <v>2.39766</v>
+      </c>
+      <c r="H480">
+        <v>12.39482</v>
+      </c>
+      <c r="I480">
+        <v>40.68096</v>
+      </c>
+      <c r="J480">
+        <v>22.6241</v>
+      </c>
+      <c r="K480">
+        <v>31.57063</v>
+      </c>
+      <c r="L480">
+        <v>22.33943</v>
+      </c>
+      <c r="M480">
+        <v>33.35528</v>
+      </c>
+      <c r="N480">
+        <v>0.1541395020325109</v>
+      </c>
+      <c r="O480">
+        <v>-0.8433775710318934</v>
+      </c>
+      <c r="P480">
+        <v>0.09283207597311585</v>
+      </c>
+      <c r="Q480">
+        <v>1.116253116665023</v>
+      </c>
+      <c r="R480">
+        <v>-0.008765761404255628</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481">
+        <v>45</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>YS_delta_sweet_24w</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G481">
+        <v>-38.08528</v>
+      </c>
+      <c r="H481">
+        <v>12.06933</v>
+      </c>
+      <c r="I481">
+        <v>33.56077</v>
+      </c>
+      <c r="J481">
+        <v>15.47791</v>
+      </c>
+      <c r="K481">
+        <v>25.9364</v>
+      </c>
+      <c r="L481">
+        <v>21.80074</v>
+      </c>
+      <c r="M481">
+        <v>24.10307</v>
+      </c>
+      <c r="N481">
+        <v>0.2165443880706202</v>
+      </c>
+      <c r="O481">
+        <v>-2.647937660761203</v>
+      </c>
+      <c r="P481">
+        <v>0.1293309569166604</v>
+      </c>
+      <c r="Q481">
+        <v>0.8636252537492501</v>
+      </c>
+      <c r="R481">
+        <v>0.2525442670981177</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482">
+        <v>45</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>YS_delta_sweet_24w</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G482">
+        <v>12.04586</v>
+      </c>
+      <c r="H482">
+        <v>13.94764</v>
+      </c>
+      <c r="I482">
+        <v>38.41163</v>
+      </c>
+      <c r="J482">
+        <v>25.18251</v>
+      </c>
+      <c r="K482">
+        <v>27.3005</v>
+      </c>
+      <c r="L482">
+        <v>17.62202</v>
+      </c>
+      <c r="M482">
+        <v>28.96107</v>
+      </c>
+      <c r="N482">
+        <v>0.2610118690446969</v>
+      </c>
+      <c r="O482">
+        <v>-0.6059955551900548</v>
+      </c>
+      <c r="P482">
+        <v>0.1318487403366829</v>
+      </c>
+      <c r="Q482">
+        <v>1.125351008575223</v>
+      </c>
+      <c r="R482">
+        <v>-0.26864515180608</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483">
+        <v>45</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>YS_delta_hed_24w</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G483">
+        <v>-7.38185</v>
+      </c>
+      <c r="H483">
+        <v>19.85633</v>
+      </c>
+      <c r="I483">
+        <v>33.23685</v>
+      </c>
+      <c r="J483">
+        <v>18.95428</v>
+      </c>
+      <c r="K483">
+        <v>27.489</v>
+      </c>
+      <c r="L483">
+        <v>10.66013</v>
+      </c>
+      <c r="M483">
+        <v>25.23894</v>
+      </c>
+      <c r="N483">
+        <v>0.5217711728848705</v>
+      </c>
+      <c r="O483">
+        <v>-1.098331242252543</v>
+      </c>
+      <c r="P483">
+        <v>0.3569096164966548</v>
+      </c>
+      <c r="Q483">
+        <v>0.8429937210215904</v>
+      </c>
+      <c r="R483">
+        <v>-0.3143156562879437</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484">
+        <v>45</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>YS_delta_hed_24w</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G484">
+        <v>8.434089999999999</v>
+      </c>
+      <c r="H484">
+        <v>9.496980000000001</v>
+      </c>
+      <c r="I484">
+        <v>38.0409</v>
+      </c>
+      <c r="J484">
+        <v>45.2347</v>
+      </c>
+      <c r="K484">
+        <v>28.93477</v>
+      </c>
+      <c r="L484">
+        <v>37.45062</v>
+      </c>
+      <c r="M484">
+        <v>33.48641</v>
+      </c>
+      <c r="N484">
+        <v>0.1077285905183986</v>
+      </c>
+      <c r="O484">
+        <v>-1.708965511311415</v>
+      </c>
+      <c r="P484">
+        <v>0.0623260322867243</v>
+      </c>
+      <c r="Q484">
+        <v>1.339359343108603</v>
+      </c>
+      <c r="R484">
+        <v>-0.2487446708270336</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485">
+        <v>45</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>15% Discount</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>YS_delta_led_24w</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G485">
+        <v>147.09714</v>
+      </c>
+      <c r="H485">
+        <v>34.5125</v>
+      </c>
+      <c r="I485">
+        <v>84.99911</v>
+      </c>
+      <c r="J485">
+        <v>2.18857</v>
+      </c>
+      <c r="K485">
+        <v>72.56773</v>
+      </c>
+      <c r="L485">
+        <v>5.59675</v>
+      </c>
+      <c r="M485">
+        <v>70.47802</v>
+      </c>
+      <c r="N485">
+        <v>0.2261860222892548</v>
+      </c>
+      <c r="O485">
+        <v>2.550276974955805</v>
+      </c>
+      <c r="P485">
+        <v>0.1648633356321236</v>
+      </c>
+      <c r="Q485">
+        <v>0.9432358807258637</v>
+      </c>
+      <c r="R485">
+        <v>0.04764652402733212</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486">
+        <v>45</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>30% Discount</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>0% Discount</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>YS_delta_led_24w</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G486">
+        <v>289.44826</v>
+      </c>
+      <c r="H486">
+        <v>35.78527</v>
+      </c>
+      <c r="I486">
+        <v>97.28487</v>
+      </c>
+      <c r="J486">
+        <v>137.71777</v>
+      </c>
+      <c r="K486">
+        <v>76.38437999999999</v>
+      </c>
+      <c r="L486">
+        <v>132.74281</v>
+      </c>
+      <c r="M486">
+        <v>82.99805000000001</v>
+      </c>
+      <c r="N486">
+        <v>0.2194822890174347</v>
+      </c>
+      <c r="O486">
+        <v>2.543873736878365</v>
+      </c>
+      <c r="P486">
+        <v>0.1353062914564068</v>
+      </c>
+      <c r="Q486">
+        <v>1.180664926815233</v>
+      </c>
+      <c r="R486">
+        <v>-0.06237428264561617</v>
       </c>
     </row>
   </sheetData>

--- a/cleaned_data/meta_data_comparison.xlsx
+++ b/cleaned_data/meta_data_comparison.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R486"/>
+  <dimension ref="A1:R495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32459,6 +32459,600 @@
         <v>-0.06237428264561617</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487">
+        <v>46</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Simulator_PE</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>YP_Total_points</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G487">
+        <v>5.24831</v>
+      </c>
+      <c r="H487">
+        <v>0.78194</v>
+      </c>
+      <c r="I487">
+        <v>0.99879</v>
+      </c>
+      <c r="J487">
+        <v>5.09173</v>
+      </c>
+      <c r="K487">
+        <v>0.83806</v>
+      </c>
+      <c r="L487">
+        <v>4.96192</v>
+      </c>
+      <c r="M487">
+        <v>0.87127</v>
+      </c>
+      <c r="N487">
+        <v>0.8705558429412465</v>
+      </c>
+      <c r="O487">
+        <v>0.1931927546610602</v>
+      </c>
+      <c r="P487">
+        <v>0.6129125145199258</v>
+      </c>
+      <c r="Q487">
+        <v>1.080824786354194</v>
+      </c>
+      <c r="R487">
+        <v>-0.1518554135797881</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488">
+        <v>46</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Simulator_PE</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>YS_Patient_interaction_points</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G488">
+        <v>-0.09515</v>
+      </c>
+      <c r="H488">
+        <v>0.1068</v>
+      </c>
+      <c r="I488">
+        <v>0.13869</v>
+      </c>
+      <c r="J488">
+        <v>-0.06962</v>
+      </c>
+      <c r="K488">
+        <v>0.1161</v>
+      </c>
+      <c r="L488">
+        <v>-0.04236</v>
+      </c>
+      <c r="M488">
+        <v>0.12088</v>
+      </c>
+      <c r="N488">
+        <v>0.8462098298045659</v>
+      </c>
+      <c r="O488">
+        <v>-0.2288722101142771</v>
+      </c>
+      <c r="P488">
+        <v>0.592996607871869</v>
+      </c>
+      <c r="Q488">
+        <v>1.084037892428414</v>
+      </c>
+      <c r="R488">
+        <v>0.2300148227740146</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489">
+        <v>46</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Simulator_PE</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>YS_Inspection_points</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G489">
+        <v>1.87892</v>
+      </c>
+      <c r="H489">
+        <v>0.19921</v>
+      </c>
+      <c r="I489">
+        <v>0.25278</v>
+      </c>
+      <c r="J489">
+        <v>1.78624</v>
+      </c>
+      <c r="K489">
+        <v>0.22452</v>
+      </c>
+      <c r="L489">
+        <v>1.76782</v>
+      </c>
+      <c r="M489">
+        <v>0.22832</v>
+      </c>
+      <c r="N489">
+        <v>0.7872491562577</v>
+      </c>
+      <c r="O489">
+        <v>0.4366700833511567</v>
+      </c>
+      <c r="P489">
+        <v>0.6210647090859649</v>
+      </c>
+      <c r="Q489">
+        <v>1.034136446566341</v>
+      </c>
+      <c r="R489">
+        <v>-0.08135037317159913</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490">
+        <v>46</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Simulator_PE</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>YS_Pulses_points</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G490">
+        <v>1.35759</v>
+      </c>
+      <c r="H490">
+        <v>0.29057</v>
+      </c>
+      <c r="I490">
+        <v>0.36923</v>
+      </c>
+      <c r="J490">
+        <v>1.39476</v>
+      </c>
+      <c r="K490">
+        <v>0.31145</v>
+      </c>
+      <c r="L490">
+        <v>1.2989</v>
+      </c>
+      <c r="M490">
+        <v>0.32481</v>
+      </c>
+      <c r="N490">
+        <v>0.8704120131005727</v>
+      </c>
+      <c r="O490">
+        <v>-0.1234100653056829</v>
+      </c>
+      <c r="P490">
+        <v>0.6193092778528101</v>
+      </c>
+      <c r="Q490">
+        <v>1.087632340055104</v>
+      </c>
+      <c r="R490">
+        <v>-0.3012569530522705</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491">
+        <v>46</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Simulator_PE</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>YS_Auscultation_points</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G491">
+        <v>1.3297</v>
+      </c>
+      <c r="H491">
+        <v>0.46615</v>
+      </c>
+      <c r="I491">
+        <v>0.59279</v>
+      </c>
+      <c r="J491">
+        <v>1.26126</v>
+      </c>
+      <c r="K491">
+        <v>0.4791</v>
+      </c>
+      <c r="L491">
+        <v>1.20577</v>
+      </c>
+      <c r="M491">
+        <v>0.48839</v>
+      </c>
+      <c r="N491">
+        <v>0.9466709174010041</v>
+      </c>
+      <c r="O491">
+        <v>0.1447946640101536</v>
+      </c>
+      <c r="P491">
+        <v>0.6183717482416357</v>
+      </c>
+      <c r="Q491">
+        <v>1.039157040215031</v>
+      </c>
+      <c r="R491">
+        <v>-0.1147039081406277</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492">
+        <v>46</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Simulator_PE</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>YS_Cardiac_findings_points</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>continuous</t>
+        </is>
+      </c>
+      <c r="G492">
+        <v>0.5289700000000001</v>
+      </c>
+      <c r="H492">
+        <v>0.18294</v>
+      </c>
+      <c r="I492">
+        <v>0.23943</v>
+      </c>
+      <c r="J492">
+        <v>0.46519</v>
+      </c>
+      <c r="K492">
+        <v>0.19692</v>
+      </c>
+      <c r="L492">
+        <v>0.46841</v>
+      </c>
+      <c r="M492">
+        <v>0.19555</v>
+      </c>
+      <c r="N492">
+        <v>0.8630534546457863</v>
+      </c>
+      <c r="O492">
+        <v>0.3355807402565573</v>
+      </c>
+      <c r="P492">
+        <v>0.5837947948078227</v>
+      </c>
+      <c r="Q492">
+        <v>0.986134121885734</v>
+      </c>
+      <c r="R492">
+        <v>0.01640879752444094</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493">
+        <v>47</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>HFNC</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>NIV</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>YP_intubation</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G493">
+        <v>0.0772</v>
+      </c>
+      <c r="H493">
+        <v>0.04141</v>
+      </c>
+      <c r="I493">
+        <v>0.05336</v>
+      </c>
+      <c r="J493">
+        <v>-0.06349</v>
+      </c>
+      <c r="K493">
+        <v>0.05547</v>
+      </c>
+      <c r="L493">
+        <v>0.06894</v>
+      </c>
+      <c r="M493">
+        <v>0.04103</v>
+      </c>
+      <c r="N493">
+        <v>0.5573065267943678</v>
+      </c>
+      <c r="O493">
+        <v>2.874306054592232</v>
+      </c>
+      <c r="P493">
+        <v>0.6022527880549982</v>
+      </c>
+      <c r="Q493">
+        <v>0.5471251795910645</v>
+      </c>
+      <c r="R493">
+        <v>2.714441483635908</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494">
+        <v>47</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>HFNC</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>NIV</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>YS_nasal_pressure_injury</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G494">
+        <v>-0.10489</v>
+      </c>
+      <c r="H494">
+        <v>0.02362</v>
+      </c>
+      <c r="I494">
+        <v>0.03109</v>
+      </c>
+      <c r="J494">
+        <v>-0.0873</v>
+      </c>
+      <c r="K494">
+        <v>0.02525</v>
+      </c>
+      <c r="L494">
+        <v>-0.09209000000000001</v>
+      </c>
+      <c r="M494">
+        <v>0.02535</v>
+      </c>
+      <c r="N494">
+        <v>0.8750583668267814</v>
+      </c>
+      <c r="O494">
+        <v>-0.7194689556885784</v>
+      </c>
+      <c r="P494">
+        <v>0.5771893943242214</v>
+      </c>
+      <c r="Q494">
+        <v>1.007936476815998</v>
+      </c>
+      <c r="R494">
+        <v>-0.1893276935128095</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495">
+        <v>47</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>HFNC</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>NIV</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>diff</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>YS_antibiotic</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>binary</t>
+        </is>
+      </c>
+      <c r="G495">
+        <v>0.0512</v>
+      </c>
+      <c r="H495">
+        <v>0.05595</v>
+      </c>
+      <c r="I495">
+        <v>0.07212</v>
+      </c>
+      <c r="J495">
+        <v>-0.09762999999999999</v>
+      </c>
+      <c r="K495">
+        <v>0.0631</v>
+      </c>
+      <c r="L495">
+        <v>-0.09143999999999999</v>
+      </c>
+      <c r="M495">
+        <v>0.06071</v>
+      </c>
+      <c r="N495">
+        <v>0.7862152496100824</v>
+      </c>
+      <c r="O495">
+        <v>2.495796802325497</v>
+      </c>
+      <c r="P495">
+        <v>0.6018506662495396</v>
+      </c>
+      <c r="Q495">
+        <v>0.925681847292929</v>
+      </c>
+      <c r="R495">
+        <v>0.09997329803747372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
